--- a/Group 1 - Final Report Project/4. Bang-danh-gia-thanh-vien_Nhom-1.xlsx
+++ b/Group 1 - Final Report Project/4. Bang-danh-gia-thanh-vien_Nhom-1.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Studying\2018 - 2019\HKII\Java Programming\Project\Group 1 - Final Report Project\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ASUS\OneDrive\Documents\GitHub\Appu\Group 1 - Final Report Project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AC5722F2-178B-46CF-B68A-1FBE1511539C}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="1" documentId="13_ncr:1_{AC5722F2-178B-46CF-B68A-1FBE1511539C}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{D84C88BA-6D89-4C3E-BB50-0A165C7EC7C6}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="16">
   <si>
     <t>STT</t>
   </si>
@@ -183,7 +183,7 @@
       <family val="1"/>
     </font>
   </fonts>
-  <fills count="9">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -232,6 +232,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="29">
     <border>
@@ -623,7 +629,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="61">
+  <cellXfs count="62">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -736,31 +742,13 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="5" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -772,13 +760,31 @@
     <xf numFmtId="0" fontId="8" fillId="5" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="3" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -790,13 +796,14 @@
     <xf numFmtId="0" fontId="10" fillId="3" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1185,7 +1192,7 @@
   <dimension ref="A1:O47"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="P9" sqref="P9"/>
+      <selection activeCell="N17" sqref="N17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1203,22 +1210,28 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="40" t="s">
+      <c r="A1" s="46" t="s">
         <v>15</v>
       </c>
-      <c r="B1" s="41"/>
-      <c r="C1" s="41"/>
-      <c r="D1" s="41"/>
-      <c r="E1" s="41"/>
-      <c r="F1" s="42"/>
+      <c r="B1" s="47"/>
+      <c r="C1" s="47"/>
+      <c r="D1" s="47"/>
+      <c r="E1" s="47"/>
+      <c r="F1" s="48"/>
     </row>
     <row r="2" spans="1:15" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="43"/>
-      <c r="B2" s="44"/>
-      <c r="C2" s="44"/>
-      <c r="D2" s="44"/>
-      <c r="E2" s="44"/>
-      <c r="F2" s="45"/>
+      <c r="A2" s="49"/>
+      <c r="B2" s="50"/>
+      <c r="C2" s="50"/>
+      <c r="D2" s="50"/>
+      <c r="E2" s="50"/>
+      <c r="F2" s="51"/>
+      <c r="H2" s="58"/>
+      <c r="I2" s="58"/>
+      <c r="J2" s="58"/>
+      <c r="K2" s="58"/>
+      <c r="L2" s="58"/>
+      <c r="M2" s="58"/>
     </row>
     <row r="3" spans="1:15" s="2" customFormat="1" ht="40.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="19" t="s">
@@ -1239,22 +1252,22 @@
       <c r="F3" s="24" t="s">
         <v>5</v>
       </c>
-      <c r="H3" s="58" t="s">
+      <c r="H3" s="59" t="s">
         <v>9</v>
       </c>
-      <c r="I3" s="59"/>
-      <c r="J3" s="59"/>
-      <c r="K3" s="59"/>
-      <c r="L3" s="59"/>
-      <c r="M3" s="60"/>
+      <c r="I3" s="60"/>
+      <c r="J3" s="60"/>
+      <c r="K3" s="60"/>
+      <c r="L3" s="60"/>
+      <c r="M3" s="61"/>
       <c r="N3" s="5"/>
       <c r="O3" s="5"/>
     </row>
     <row r="4" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="46">
+      <c r="A4" s="52">
         <v>1</v>
       </c>
-      <c r="B4" s="49" t="s">
+      <c r="B4" s="43" t="s">
         <v>1</v>
       </c>
       <c r="C4" s="25">
@@ -1263,20 +1276,32 @@
       <c r="D4" s="26"/>
       <c r="E4" s="27"/>
       <c r="F4" s="28"/>
+      <c r="H4" s="58"/>
+      <c r="I4" s="58"/>
+      <c r="J4" s="58"/>
+      <c r="K4" s="58"/>
+      <c r="L4" s="58"/>
+      <c r="M4" s="58"/>
     </row>
     <row r="5" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="47"/>
-      <c r="B5" s="50"/>
+      <c r="A5" s="53"/>
+      <c r="B5" s="44"/>
       <c r="C5" s="29">
         <v>2</v>
       </c>
       <c r="D5" s="30"/>
       <c r="E5" s="31"/>
       <c r="F5" s="32"/>
+      <c r="H5" s="58"/>
+      <c r="I5" s="58"/>
+      <c r="J5" s="58"/>
+      <c r="K5" s="58"/>
+      <c r="L5" s="58"/>
+      <c r="M5" s="58"/>
     </row>
     <row r="6" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="47"/>
-      <c r="B6" s="50"/>
+      <c r="A6" s="53"/>
+      <c r="B6" s="44"/>
       <c r="C6" s="29">
         <v>3</v>
       </c>
@@ -1284,92 +1309,146 @@
       <c r="E6" s="31"/>
       <c r="F6" s="32"/>
       <c r="G6" s="4"/>
+      <c r="H6" s="58"/>
+      <c r="I6" s="58"/>
+      <c r="J6" s="58"/>
+      <c r="K6" s="58"/>
+      <c r="L6" s="58"/>
+      <c r="M6" s="58"/>
     </row>
     <row r="7" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="47"/>
-      <c r="B7" s="50"/>
+      <c r="A7" s="53"/>
+      <c r="B7" s="44"/>
       <c r="C7" s="29">
         <v>4</v>
       </c>
       <c r="D7" s="30"/>
       <c r="E7" s="31"/>
       <c r="F7" s="32"/>
+      <c r="H7" s="58"/>
+      <c r="I7" s="58"/>
+      <c r="J7" s="58"/>
+      <c r="K7" s="58"/>
+      <c r="L7" s="58"/>
+      <c r="M7" s="58"/>
     </row>
     <row r="8" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="47"/>
-      <c r="B8" s="50"/>
+      <c r="A8" s="53"/>
+      <c r="B8" s="44"/>
       <c r="C8" s="29">
         <v>5</v>
       </c>
       <c r="D8" s="30"/>
       <c r="E8" s="31"/>
       <c r="F8" s="32"/>
+      <c r="H8" s="58"/>
+      <c r="I8" s="58"/>
+      <c r="J8" s="58"/>
+      <c r="K8" s="58"/>
+      <c r="L8" s="58"/>
+      <c r="M8" s="58"/>
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A9" s="47"/>
-      <c r="B9" s="50"/>
+      <c r="A9" s="53"/>
+      <c r="B9" s="44"/>
       <c r="C9" s="29">
         <v>6</v>
       </c>
       <c r="D9" s="30"/>
       <c r="E9" s="31"/>
       <c r="F9" s="32"/>
+      <c r="H9" s="58"/>
+      <c r="I9" s="58"/>
+      <c r="J9" s="58"/>
+      <c r="K9" s="58"/>
+      <c r="L9" s="58"/>
+      <c r="M9" s="58"/>
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A10" s="47"/>
-      <c r="B10" s="50"/>
+      <c r="A10" s="53"/>
+      <c r="B10" s="44"/>
       <c r="C10" s="29" t="s">
         <v>7</v>
       </c>
       <c r="D10" s="30"/>
       <c r="E10" s="31"/>
       <c r="F10" s="32"/>
+      <c r="H10" s="58"/>
+      <c r="I10" s="58"/>
+      <c r="J10" s="58"/>
+      <c r="K10" s="58"/>
+      <c r="L10" s="58"/>
+      <c r="M10" s="58"/>
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A11" s="47"/>
-      <c r="B11" s="50"/>
+      <c r="A11" s="53"/>
+      <c r="B11" s="44"/>
       <c r="C11" s="29" t="s">
         <v>8</v>
       </c>
       <c r="D11" s="30"/>
       <c r="E11" s="31"/>
       <c r="F11" s="32"/>
+      <c r="H11" s="58"/>
+      <c r="I11" s="58"/>
+      <c r="J11" s="58"/>
+      <c r="K11" s="58"/>
+      <c r="L11" s="58"/>
+      <c r="M11" s="58"/>
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A12" s="47"/>
-      <c r="B12" s="50"/>
+      <c r="A12" s="53"/>
+      <c r="B12" s="44"/>
       <c r="C12" s="29">
         <v>8</v>
       </c>
       <c r="D12" s="30"/>
       <c r="E12" s="31"/>
       <c r="F12" s="32"/>
+      <c r="H12" s="58"/>
+      <c r="I12" s="58"/>
+      <c r="J12" s="58"/>
+      <c r="K12" s="58"/>
+      <c r="L12" s="58"/>
+      <c r="M12" s="58"/>
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A13" s="47"/>
-      <c r="B13" s="50"/>
+      <c r="A13" s="53"/>
+      <c r="B13" s="44"/>
       <c r="C13" s="29">
         <v>9</v>
       </c>
       <c r="D13" s="30"/>
       <c r="E13" s="31"/>
       <c r="F13" s="32"/>
+      <c r="H13" s="58"/>
+      <c r="I13" s="58"/>
+      <c r="J13" s="58"/>
+      <c r="K13" s="58"/>
+      <c r="L13" s="58"/>
+      <c r="M13" s="58"/>
     </row>
     <row r="14" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="48"/>
-      <c r="B14" s="51"/>
+      <c r="A14" s="54"/>
+      <c r="B14" s="45"/>
       <c r="C14" s="33">
         <v>10</v>
       </c>
       <c r="D14" s="34"/>
       <c r="E14" s="35"/>
       <c r="F14" s="36"/>
+      <c r="H14" s="58"/>
+      <c r="I14" s="58"/>
+      <c r="J14" s="58"/>
+      <c r="K14" s="58"/>
+      <c r="L14" s="58"/>
+      <c r="M14" s="58"/>
     </row>
     <row r="15" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="52">
+      <c r="A15" s="40">
         <v>2</v>
       </c>
-      <c r="B15" s="49" t="s">
+      <c r="B15" s="43" t="s">
         <v>13</v>
       </c>
       <c r="C15" s="25">
@@ -1378,112 +1457,178 @@
       <c r="D15" s="26"/>
       <c r="E15" s="27"/>
       <c r="F15" s="28"/>
+      <c r="H15" s="58"/>
+      <c r="I15" s="58"/>
+      <c r="J15" s="58"/>
+      <c r="K15" s="58"/>
+      <c r="L15" s="58"/>
+      <c r="M15" s="58"/>
     </row>
     <row r="16" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A16" s="53"/>
-      <c r="B16" s="50"/>
+      <c r="A16" s="41"/>
+      <c r="B16" s="44"/>
       <c r="C16" s="29">
         <v>2</v>
       </c>
       <c r="D16" s="30"/>
       <c r="E16" s="31"/>
       <c r="F16" s="32"/>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A17" s="53"/>
-      <c r="B17" s="50"/>
+      <c r="H16" s="58"/>
+      <c r="I16" s="58"/>
+      <c r="J16" s="58"/>
+      <c r="K16" s="58"/>
+      <c r="L16" s="58"/>
+      <c r="M16" s="58"/>
+    </row>
+    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A17" s="41"/>
+      <c r="B17" s="44"/>
       <c r="C17" s="29">
         <v>3</v>
       </c>
       <c r="D17" s="30"/>
       <c r="E17" s="31"/>
       <c r="F17" s="32"/>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A18" s="53"/>
-      <c r="B18" s="50"/>
+      <c r="H17" s="58"/>
+      <c r="I17" s="58"/>
+      <c r="J17" s="58"/>
+      <c r="K17" s="58"/>
+      <c r="L17" s="58"/>
+      <c r="M17" s="58"/>
+    </row>
+    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A18" s="41"/>
+      <c r="B18" s="44"/>
       <c r="C18" s="29">
         <v>4</v>
       </c>
       <c r="D18" s="30"/>
       <c r="E18" s="31"/>
       <c r="F18" s="32"/>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A19" s="53"/>
-      <c r="B19" s="50"/>
+      <c r="H18" s="58"/>
+      <c r="I18" s="58"/>
+      <c r="J18" s="58"/>
+      <c r="K18" s="58"/>
+      <c r="L18" s="58"/>
+      <c r="M18" s="58"/>
+    </row>
+    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A19" s="41"/>
+      <c r="B19" s="44"/>
       <c r="C19" s="29">
         <v>5</v>
       </c>
       <c r="D19" s="30"/>
       <c r="E19" s="31"/>
       <c r="F19" s="32"/>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A20" s="53"/>
-      <c r="B20" s="50"/>
+      <c r="H19" s="58"/>
+      <c r="I19" s="58"/>
+      <c r="J19" s="58"/>
+      <c r="K19" s="58"/>
+      <c r="L19" s="58"/>
+      <c r="M19" s="58"/>
+    </row>
+    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A20" s="41"/>
+      <c r="B20" s="44"/>
       <c r="C20" s="29">
         <v>6</v>
       </c>
       <c r="D20" s="30"/>
       <c r="E20" s="31"/>
       <c r="F20" s="32"/>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A21" s="53"/>
-      <c r="B21" s="50"/>
+      <c r="H20" s="58"/>
+      <c r="I20" s="58"/>
+      <c r="J20" s="58"/>
+      <c r="K20" s="58"/>
+      <c r="L20" s="58"/>
+      <c r="M20" s="58"/>
+    </row>
+    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A21" s="41"/>
+      <c r="B21" s="44"/>
       <c r="C21" s="29" t="s">
         <v>7</v>
       </c>
       <c r="D21" s="30"/>
       <c r="E21" s="31"/>
       <c r="F21" s="32"/>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A22" s="53"/>
-      <c r="B22" s="50"/>
+      <c r="H21" s="58"/>
+      <c r="I21" s="58"/>
+      <c r="J21" s="58"/>
+      <c r="K21" s="58"/>
+      <c r="L21" s="58"/>
+      <c r="M21" s="58"/>
+    </row>
+    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A22" s="41"/>
+      <c r="B22" s="44"/>
       <c r="C22" s="29" t="s">
         <v>8</v>
       </c>
       <c r="D22" s="30"/>
       <c r="E22" s="31"/>
       <c r="F22" s="32"/>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A23" s="53"/>
-      <c r="B23" s="50"/>
+      <c r="H22" s="58"/>
+      <c r="I22" s="58"/>
+      <c r="J22" s="58"/>
+      <c r="K22" s="58"/>
+      <c r="L22" s="58"/>
+      <c r="M22" s="58"/>
+    </row>
+    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A23" s="41"/>
+      <c r="B23" s="44"/>
       <c r="C23" s="29">
         <v>8</v>
       </c>
       <c r="D23" s="30"/>
       <c r="E23" s="31"/>
       <c r="F23" s="32"/>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A24" s="53"/>
-      <c r="B24" s="50"/>
+      <c r="H23" s="58"/>
+      <c r="I23" s="58"/>
+      <c r="J23" s="58"/>
+      <c r="K23" s="58"/>
+      <c r="L23" s="58"/>
+      <c r="M23" s="58"/>
+    </row>
+    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A24" s="41"/>
+      <c r="B24" s="44"/>
       <c r="C24" s="29">
         <v>9</v>
       </c>
       <c r="D24" s="30"/>
       <c r="E24" s="31"/>
       <c r="F24" s="32"/>
-    </row>
-    <row r="25" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="54"/>
-      <c r="B25" s="51"/>
+      <c r="H24" s="58"/>
+      <c r="I24" s="58"/>
+      <c r="J24" s="58"/>
+      <c r="K24" s="58"/>
+      <c r="L24" s="58"/>
+      <c r="M24" s="58"/>
+    </row>
+    <row r="25" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="42"/>
+      <c r="B25" s="45"/>
       <c r="C25" s="33">
         <v>10</v>
       </c>
       <c r="D25" s="34"/>
       <c r="E25" s="35"/>
       <c r="F25" s="36"/>
-    </row>
-    <row r="26" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="52">
+      <c r="H25" s="58"/>
+      <c r="I25" s="58"/>
+      <c r="J25" s="58"/>
+      <c r="K25" s="58"/>
+      <c r="L25" s="58"/>
+      <c r="M25" s="58"/>
+    </row>
+    <row r="26" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="40">
         <v>3</v>
       </c>
-      <c r="B26" s="49" t="s">
+      <c r="B26" s="43" t="s">
         <v>2</v>
       </c>
       <c r="C26" s="25">
@@ -1492,108 +1637,174 @@
       <c r="D26" s="26"/>
       <c r="E26" s="27"/>
       <c r="F26" s="28"/>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A27" s="53"/>
-      <c r="B27" s="50"/>
+      <c r="H26" s="58"/>
+      <c r="I26" s="58"/>
+      <c r="J26" s="58"/>
+      <c r="K26" s="58"/>
+      <c r="L26" s="58"/>
+      <c r="M26" s="58"/>
+    </row>
+    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A27" s="41"/>
+      <c r="B27" s="44"/>
       <c r="C27" s="29">
         <v>2</v>
       </c>
       <c r="D27" s="30"/>
       <c r="E27" s="31"/>
       <c r="F27" s="32"/>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A28" s="53"/>
-      <c r="B28" s="50"/>
+      <c r="H27" s="58"/>
+      <c r="I27" s="58"/>
+      <c r="J27" s="58"/>
+      <c r="K27" s="58"/>
+      <c r="L27" s="58"/>
+      <c r="M27" s="58"/>
+    </row>
+    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A28" s="41"/>
+      <c r="B28" s="44"/>
       <c r="C28" s="29">
         <v>3</v>
       </c>
       <c r="D28" s="30"/>
       <c r="E28" s="31"/>
       <c r="F28" s="32"/>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A29" s="53"/>
-      <c r="B29" s="50"/>
+      <c r="H28" s="58"/>
+      <c r="I28" s="58"/>
+      <c r="J28" s="58"/>
+      <c r="K28" s="58"/>
+      <c r="L28" s="58"/>
+      <c r="M28" s="58"/>
+    </row>
+    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A29" s="41"/>
+      <c r="B29" s="44"/>
       <c r="C29" s="29">
         <v>4</v>
       </c>
       <c r="D29" s="30"/>
       <c r="E29" s="31"/>
       <c r="F29" s="32"/>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A30" s="53"/>
-      <c r="B30" s="50"/>
+      <c r="H29" s="58"/>
+      <c r="I29" s="58"/>
+      <c r="J29" s="58"/>
+      <c r="K29" s="58"/>
+      <c r="L29" s="58"/>
+      <c r="M29" s="58"/>
+    </row>
+    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A30" s="41"/>
+      <c r="B30" s="44"/>
       <c r="C30" s="29">
         <v>5</v>
       </c>
       <c r="D30" s="30"/>
       <c r="E30" s="31"/>
       <c r="F30" s="32"/>
-    </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A31" s="53"/>
-      <c r="B31" s="50"/>
+      <c r="H30" s="58"/>
+      <c r="I30" s="58"/>
+      <c r="J30" s="58"/>
+      <c r="K30" s="58"/>
+      <c r="L30" s="58"/>
+      <c r="M30" s="58"/>
+    </row>
+    <row r="31" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A31" s="41"/>
+      <c r="B31" s="44"/>
       <c r="C31" s="29">
         <v>6</v>
       </c>
       <c r="D31" s="30"/>
       <c r="E31" s="31"/>
       <c r="F31" s="32"/>
-    </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A32" s="53"/>
-      <c r="B32" s="50"/>
+      <c r="H31" s="58"/>
+      <c r="I31" s="58"/>
+      <c r="J31" s="58"/>
+      <c r="K31" s="58"/>
+      <c r="L31" s="58"/>
+      <c r="M31" s="58"/>
+    </row>
+    <row r="32" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A32" s="41"/>
+      <c r="B32" s="44"/>
       <c r="C32" s="29" t="s">
         <v>7</v>
       </c>
       <c r="D32" s="30"/>
       <c r="E32" s="31"/>
       <c r="F32" s="32"/>
-    </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A33" s="53"/>
-      <c r="B33" s="50"/>
+      <c r="H32" s="58"/>
+      <c r="I32" s="58"/>
+      <c r="J32" s="58"/>
+      <c r="K32" s="58"/>
+      <c r="L32" s="58"/>
+      <c r="M32" s="58"/>
+    </row>
+    <row r="33" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A33" s="41"/>
+      <c r="B33" s="44"/>
       <c r="C33" s="29" t="s">
         <v>8</v>
       </c>
       <c r="D33" s="30"/>
       <c r="E33" s="31"/>
       <c r="F33" s="32"/>
-    </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A34" s="53"/>
-      <c r="B34" s="50"/>
+      <c r="H33" s="58"/>
+      <c r="I33" s="58"/>
+      <c r="J33" s="58"/>
+      <c r="K33" s="58"/>
+      <c r="L33" s="58"/>
+      <c r="M33" s="58"/>
+    </row>
+    <row r="34" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A34" s="41"/>
+      <c r="B34" s="44"/>
       <c r="C34" s="29">
         <v>8</v>
       </c>
       <c r="D34" s="30"/>
       <c r="E34" s="31"/>
       <c r="F34" s="32"/>
-    </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A35" s="53"/>
-      <c r="B35" s="50"/>
+      <c r="H34" s="58"/>
+      <c r="I34" s="58"/>
+      <c r="J34" s="58"/>
+      <c r="K34" s="58"/>
+      <c r="L34" s="58"/>
+      <c r="M34" s="58"/>
+    </row>
+    <row r="35" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A35" s="41"/>
+      <c r="B35" s="44"/>
       <c r="C35" s="29">
         <v>9</v>
       </c>
       <c r="D35" s="30"/>
       <c r="E35" s="31"/>
       <c r="F35" s="32"/>
-    </row>
-    <row r="36" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="54"/>
-      <c r="B36" s="51"/>
+      <c r="H35" s="58"/>
+      <c r="I35" s="58"/>
+      <c r="J35" s="58"/>
+      <c r="K35" s="58"/>
+      <c r="L35" s="58"/>
+      <c r="M35" s="58"/>
+    </row>
+    <row r="36" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A36" s="42"/>
+      <c r="B36" s="45"/>
       <c r="C36" s="33">
         <v>10</v>
       </c>
       <c r="D36" s="34"/>
       <c r="E36" s="35"/>
       <c r="F36" s="36"/>
-    </row>
-    <row r="37" spans="1:11" ht="25.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="H36" s="58"/>
+      <c r="I36" s="58"/>
+      <c r="J36" s="58"/>
+      <c r="K36" s="58"/>
+      <c r="L36" s="58"/>
+      <c r="M36" s="58"/>
+    </row>
+    <row r="37" spans="1:13" ht="25.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A37" s="55" t="s">
         <v>10</v>
       </c>
@@ -1605,28 +1816,58 @@
       </c>
       <c r="E37" s="38"/>
       <c r="F37" s="39"/>
-    </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="H37" s="58"/>
+      <c r="I37" s="58"/>
+      <c r="J37" s="58"/>
+      <c r="K37" s="58"/>
+      <c r="L37" s="58"/>
+      <c r="M37" s="58"/>
+    </row>
+    <row r="38" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A38"/>
       <c r="D38"/>
-    </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="H38" s="58"/>
+      <c r="I38" s="58"/>
+      <c r="J38" s="58"/>
+      <c r="K38" s="58"/>
+      <c r="L38" s="58"/>
+      <c r="M38" s="58"/>
+    </row>
+    <row r="39" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A39"/>
-    </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="H39" s="58"/>
+      <c r="I39" s="58"/>
+      <c r="J39" s="58"/>
+      <c r="K39" s="58"/>
+      <c r="L39" s="58"/>
+      <c r="M39" s="58"/>
+    </row>
+    <row r="40" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A40"/>
       <c r="F40" s="18"/>
-    </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="H40" s="58"/>
+      <c r="I40" s="58"/>
+      <c r="J40" s="58"/>
+      <c r="K40" s="58"/>
+      <c r="L40" s="58"/>
+      <c r="M40" s="58"/>
+    </row>
+    <row r="41" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A41"/>
-    </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="H41" s="58"/>
+      <c r="I41" s="58"/>
+      <c r="J41" s="58"/>
+      <c r="K41" s="58"/>
+      <c r="L41" s="58"/>
+      <c r="M41" s="58"/>
+    </row>
+    <row r="42" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A42"/>
     </row>
-    <row r="43" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A43"/>
     </row>
-    <row r="44" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A44"/>
       <c r="I44" s="6" t="s">
         <v>0</v>
@@ -1638,7 +1879,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="45" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A45"/>
       <c r="D45"/>
       <c r="I45" s="17">
@@ -1649,7 +1890,7 @@
       </c>
       <c r="K45" s="13"/>
     </row>
-    <row r="46" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A46"/>
       <c r="D46"/>
       <c r="I46" s="9">
@@ -1660,7 +1901,7 @@
       </c>
       <c r="K46" s="14"/>
     </row>
-    <row r="47" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A47"/>
       <c r="D47"/>
       <c r="I47" s="11">
@@ -1673,6 +1914,7 @@
     </row>
   </sheetData>
   <mergeCells count="9">
+    <mergeCell ref="A37:C37"/>
     <mergeCell ref="H3:M3"/>
     <mergeCell ref="A26:A36"/>
     <mergeCell ref="B15:B25"/>
@@ -1681,7 +1923,6 @@
     <mergeCell ref="A4:A14"/>
     <mergeCell ref="B4:B14"/>
     <mergeCell ref="A15:A25"/>
-    <mergeCell ref="A37:C37"/>
   </mergeCells>
   <conditionalFormatting sqref="D4:F36">
     <cfRule type="colorScale" priority="45">

--- a/Group 1 - Final Report Project/4. Bang-danh-gia-thanh-vien_Nhom-1.xlsx
+++ b/Group 1 - Final Report Project/4. Bang-danh-gia-thanh-vien_Nhom-1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ASUS\OneDrive\Documents\GitHub\Appu\Group 1 - Final Report Project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1" documentId="13_ncr:1_{AC5722F2-178B-46CF-B68A-1FBE1511539C}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{D84C88BA-6D89-4C3E-BB50-0A165C7EC7C6}"/>
+  <xr:revisionPtr revIDLastSave="31" documentId="13_ncr:1_{AC5722F2-178B-46CF-B68A-1FBE1511539C}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{74A377C5-8B91-461D-9027-BC6A5DFA5D25}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="17">
   <si>
     <t>STT</t>
   </si>
@@ -79,6 +79,10 @@
   </si>
   <si>
     <t>ĐÁNH GIÁ MỨC ĐỘ LÀM VIỆC - ĐÓNG GÓP</t>
+  </si>
+  <si>
+    <t>Nguyễn Hồng 
+Sỹ Nguyên</t>
   </si>
 </sst>
 </file>
@@ -742,6 +746,25 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="5" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -785,25 +808,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="5" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1191,8 +1195,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:O47"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="N17" sqref="N17"/>
+    <sheetView tabSelected="1" topLeftCell="A11" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B26" sqref="B26:B36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1210,28 +1214,28 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="46" t="s">
+      <c r="A1" s="53" t="s">
         <v>15</v>
       </c>
-      <c r="B1" s="47"/>
-      <c r="C1" s="47"/>
-      <c r="D1" s="47"/>
-      <c r="E1" s="47"/>
-      <c r="F1" s="48"/>
+      <c r="B1" s="54"/>
+      <c r="C1" s="54"/>
+      <c r="D1" s="54"/>
+      <c r="E1" s="54"/>
+      <c r="F1" s="55"/>
     </row>
     <row r="2" spans="1:15" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="49"/>
-      <c r="B2" s="50"/>
-      <c r="C2" s="50"/>
-      <c r="D2" s="50"/>
-      <c r="E2" s="50"/>
-      <c r="F2" s="51"/>
-      <c r="H2" s="58"/>
-      <c r="I2" s="58"/>
-      <c r="J2" s="58"/>
-      <c r="K2" s="58"/>
-      <c r="L2" s="58"/>
-      <c r="M2" s="58"/>
+      <c r="A2" s="56"/>
+      <c r="B2" s="57"/>
+      <c r="C2" s="57"/>
+      <c r="D2" s="57"/>
+      <c r="E2" s="57"/>
+      <c r="F2" s="58"/>
+      <c r="H2" s="40"/>
+      <c r="I2" s="40"/>
+      <c r="J2" s="40"/>
+      <c r="K2" s="40"/>
+      <c r="L2" s="40"/>
+      <c r="M2" s="40"/>
     </row>
     <row r="3" spans="1:15" s="2" customFormat="1" ht="40.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="19" t="s">
@@ -1252,204 +1256,240 @@
       <c r="F3" s="24" t="s">
         <v>5</v>
       </c>
-      <c r="H3" s="59" t="s">
+      <c r="H3" s="44" t="s">
         <v>9</v>
       </c>
-      <c r="I3" s="60"/>
-      <c r="J3" s="60"/>
-      <c r="K3" s="60"/>
-      <c r="L3" s="60"/>
-      <c r="M3" s="61"/>
+      <c r="I3" s="45"/>
+      <c r="J3" s="45"/>
+      <c r="K3" s="45"/>
+      <c r="L3" s="45"/>
+      <c r="M3" s="46"/>
       <c r="N3" s="5"/>
       <c r="O3" s="5"/>
     </row>
     <row r="4" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="52">
+      <c r="A4" s="59">
         <v>1</v>
       </c>
-      <c r="B4" s="43" t="s">
+      <c r="B4" s="50" t="s">
         <v>1</v>
       </c>
       <c r="C4" s="25">
         <v>1</v>
       </c>
       <c r="D4" s="26"/>
-      <c r="E4" s="27"/>
-      <c r="F4" s="28"/>
-      <c r="H4" s="58"/>
-      <c r="I4" s="58"/>
-      <c r="J4" s="58"/>
-      <c r="K4" s="58"/>
-      <c r="L4" s="58"/>
-      <c r="M4" s="58"/>
+      <c r="E4" s="27">
+        <v>3</v>
+      </c>
+      <c r="F4" s="28">
+        <v>2</v>
+      </c>
+      <c r="H4" s="40"/>
+      <c r="I4" s="40"/>
+      <c r="J4" s="40"/>
+      <c r="K4" s="40"/>
+      <c r="L4" s="40"/>
+      <c r="M4" s="40"/>
     </row>
     <row r="5" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="53"/>
-      <c r="B5" s="44"/>
+      <c r="A5" s="60"/>
+      <c r="B5" s="51"/>
       <c r="C5" s="29">
         <v>2</v>
       </c>
       <c r="D5" s="30"/>
-      <c r="E5" s="31"/>
-      <c r="F5" s="32"/>
-      <c r="H5" s="58"/>
-      <c r="I5" s="58"/>
-      <c r="J5" s="58"/>
-      <c r="K5" s="58"/>
-      <c r="L5" s="58"/>
-      <c r="M5" s="58"/>
+      <c r="E5" s="31">
+        <v>3</v>
+      </c>
+      <c r="F5" s="32">
+        <v>2</v>
+      </c>
+      <c r="H5" s="40"/>
+      <c r="I5" s="40"/>
+      <c r="J5" s="40"/>
+      <c r="K5" s="40"/>
+      <c r="L5" s="40"/>
+      <c r="M5" s="40"/>
     </row>
     <row r="6" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="53"/>
-      <c r="B6" s="44"/>
+      <c r="A6" s="60"/>
+      <c r="B6" s="51"/>
       <c r="C6" s="29">
         <v>3</v>
       </c>
       <c r="D6" s="30"/>
-      <c r="E6" s="31"/>
-      <c r="F6" s="32"/>
+      <c r="E6" s="31">
+        <v>3</v>
+      </c>
+      <c r="F6" s="32">
+        <v>1</v>
+      </c>
       <c r="G6" s="4"/>
-      <c r="H6" s="58"/>
-      <c r="I6" s="58"/>
-      <c r="J6" s="58"/>
-      <c r="K6" s="58"/>
-      <c r="L6" s="58"/>
-      <c r="M6" s="58"/>
+      <c r="H6" s="40"/>
+      <c r="I6" s="40"/>
+      <c r="J6" s="40"/>
+      <c r="K6" s="40"/>
+      <c r="L6" s="40"/>
+      <c r="M6" s="40"/>
     </row>
     <row r="7" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="53"/>
-      <c r="B7" s="44"/>
+      <c r="A7" s="60"/>
+      <c r="B7" s="51"/>
       <c r="C7" s="29">
         <v>4</v>
       </c>
       <c r="D7" s="30"/>
-      <c r="E7" s="31"/>
-      <c r="F7" s="32"/>
-      <c r="H7" s="58"/>
-      <c r="I7" s="58"/>
-      <c r="J7" s="58"/>
-      <c r="K7" s="58"/>
-      <c r="L7" s="58"/>
-      <c r="M7" s="58"/>
+      <c r="E7" s="31">
+        <v>3</v>
+      </c>
+      <c r="F7" s="32">
+        <v>2</v>
+      </c>
+      <c r="H7" s="40"/>
+      <c r="I7" s="40"/>
+      <c r="J7" s="40"/>
+      <c r="K7" s="40"/>
+      <c r="L7" s="40"/>
+      <c r="M7" s="40"/>
     </row>
     <row r="8" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="53"/>
-      <c r="B8" s="44"/>
+      <c r="A8" s="60"/>
+      <c r="B8" s="51"/>
       <c r="C8" s="29">
         <v>5</v>
       </c>
       <c r="D8" s="30"/>
-      <c r="E8" s="31"/>
-      <c r="F8" s="32"/>
-      <c r="H8" s="58"/>
-      <c r="I8" s="58"/>
-      <c r="J8" s="58"/>
-      <c r="K8" s="58"/>
-      <c r="L8" s="58"/>
-      <c r="M8" s="58"/>
+      <c r="E8" s="31">
+        <v>3</v>
+      </c>
+      <c r="F8" s="32">
+        <v>2</v>
+      </c>
+      <c r="H8" s="40"/>
+      <c r="I8" s="40"/>
+      <c r="J8" s="40"/>
+      <c r="K8" s="40"/>
+      <c r="L8" s="40"/>
+      <c r="M8" s="40"/>
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A9" s="53"/>
-      <c r="B9" s="44"/>
+      <c r="A9" s="60"/>
+      <c r="B9" s="51"/>
       <c r="C9" s="29">
         <v>6</v>
       </c>
       <c r="D9" s="30"/>
-      <c r="E9" s="31"/>
-      <c r="F9" s="32"/>
-      <c r="H9" s="58"/>
-      <c r="I9" s="58"/>
-      <c r="J9" s="58"/>
-      <c r="K9" s="58"/>
-      <c r="L9" s="58"/>
-      <c r="M9" s="58"/>
+      <c r="E9" s="31">
+        <v>3</v>
+      </c>
+      <c r="F9" s="32">
+        <v>1</v>
+      </c>
+      <c r="H9" s="40"/>
+      <c r="I9" s="40"/>
+      <c r="J9" s="40"/>
+      <c r="K9" s="40"/>
+      <c r="L9" s="40"/>
+      <c r="M9" s="40"/>
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A10" s="53"/>
-      <c r="B10" s="44"/>
+      <c r="A10" s="60"/>
+      <c r="B10" s="51"/>
       <c r="C10" s="29" t="s">
         <v>7</v>
       </c>
       <c r="D10" s="30"/>
       <c r="E10" s="31"/>
       <c r="F10" s="32"/>
-      <c r="H10" s="58"/>
-      <c r="I10" s="58"/>
-      <c r="J10" s="58"/>
-      <c r="K10" s="58"/>
-      <c r="L10" s="58"/>
-      <c r="M10" s="58"/>
+      <c r="H10" s="40"/>
+      <c r="I10" s="40"/>
+      <c r="J10" s="40"/>
+      <c r="K10" s="40"/>
+      <c r="L10" s="40"/>
+      <c r="M10" s="40"/>
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A11" s="53"/>
-      <c r="B11" s="44"/>
+      <c r="A11" s="60"/>
+      <c r="B11" s="51"/>
       <c r="C11" s="29" t="s">
         <v>8</v>
       </c>
       <c r="D11" s="30"/>
       <c r="E11" s="31"/>
       <c r="F11" s="32"/>
-      <c r="H11" s="58"/>
-      <c r="I11" s="58"/>
-      <c r="J11" s="58"/>
-      <c r="K11" s="58"/>
-      <c r="L11" s="58"/>
-      <c r="M11" s="58"/>
+      <c r="H11" s="40"/>
+      <c r="I11" s="40"/>
+      <c r="J11" s="40"/>
+      <c r="K11" s="40"/>
+      <c r="L11" s="40"/>
+      <c r="M11" s="40"/>
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A12" s="53"/>
-      <c r="B12" s="44"/>
+      <c r="A12" s="60"/>
+      <c r="B12" s="51"/>
       <c r="C12" s="29">
         <v>8</v>
       </c>
       <c r="D12" s="30"/>
-      <c r="E12" s="31"/>
-      <c r="F12" s="32"/>
-      <c r="H12" s="58"/>
-      <c r="I12" s="58"/>
-      <c r="J12" s="58"/>
-      <c r="K12" s="58"/>
-      <c r="L12" s="58"/>
-      <c r="M12" s="58"/>
+      <c r="E12" s="31">
+        <v>3</v>
+      </c>
+      <c r="F12" s="32">
+        <v>2</v>
+      </c>
+      <c r="H12" s="40"/>
+      <c r="I12" s="40"/>
+      <c r="J12" s="40"/>
+      <c r="K12" s="40"/>
+      <c r="L12" s="40"/>
+      <c r="M12" s="40"/>
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A13" s="53"/>
-      <c r="B13" s="44"/>
+      <c r="A13" s="60"/>
+      <c r="B13" s="51"/>
       <c r="C13" s="29">
         <v>9</v>
       </c>
       <c r="D13" s="30"/>
-      <c r="E13" s="31"/>
-      <c r="F13" s="32"/>
-      <c r="H13" s="58"/>
-      <c r="I13" s="58"/>
-      <c r="J13" s="58"/>
-      <c r="K13" s="58"/>
-      <c r="L13" s="58"/>
-      <c r="M13" s="58"/>
+      <c r="E13" s="31">
+        <v>3</v>
+      </c>
+      <c r="F13" s="32">
+        <v>2</v>
+      </c>
+      <c r="H13" s="40"/>
+      <c r="I13" s="40"/>
+      <c r="J13" s="40"/>
+      <c r="K13" s="40"/>
+      <c r="L13" s="40"/>
+      <c r="M13" s="40"/>
     </row>
     <row r="14" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="54"/>
-      <c r="B14" s="45"/>
+      <c r="A14" s="61"/>
+      <c r="B14" s="52"/>
       <c r="C14" s="33">
         <v>10</v>
       </c>
       <c r="D14" s="34"/>
-      <c r="E14" s="35"/>
-      <c r="F14" s="36"/>
-      <c r="H14" s="58"/>
-      <c r="I14" s="58"/>
-      <c r="J14" s="58"/>
-      <c r="K14" s="58"/>
-      <c r="L14" s="58"/>
-      <c r="M14" s="58"/>
+      <c r="E14" s="35">
+        <v>3</v>
+      </c>
+      <c r="F14" s="36">
+        <v>1</v>
+      </c>
+      <c r="H14" s="40"/>
+      <c r="I14" s="40"/>
+      <c r="J14" s="40"/>
+      <c r="K14" s="40"/>
+      <c r="L14" s="40"/>
+      <c r="M14" s="40"/>
     </row>
     <row r="15" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="40">
+      <c r="A15" s="47">
         <v>2</v>
       </c>
-      <c r="B15" s="43" t="s">
-        <v>13</v>
+      <c r="B15" s="50" t="s">
+        <v>16</v>
       </c>
       <c r="C15" s="25">
         <v>1</v>
@@ -1457,178 +1497,178 @@
       <c r="D15" s="26"/>
       <c r="E15" s="27"/>
       <c r="F15" s="28"/>
-      <c r="H15" s="58"/>
-      <c r="I15" s="58"/>
-      <c r="J15" s="58"/>
-      <c r="K15" s="58"/>
-      <c r="L15" s="58"/>
-      <c r="M15" s="58"/>
+      <c r="H15" s="40"/>
+      <c r="I15" s="40"/>
+      <c r="J15" s="40"/>
+      <c r="K15" s="40"/>
+      <c r="L15" s="40"/>
+      <c r="M15" s="40"/>
     </row>
     <row r="16" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A16" s="41"/>
-      <c r="B16" s="44"/>
+      <c r="A16" s="48"/>
+      <c r="B16" s="51"/>
       <c r="C16" s="29">
         <v>2</v>
       </c>
       <c r="D16" s="30"/>
       <c r="E16" s="31"/>
       <c r="F16" s="32"/>
-      <c r="H16" s="58"/>
-      <c r="I16" s="58"/>
-      <c r="J16" s="58"/>
-      <c r="K16" s="58"/>
-      <c r="L16" s="58"/>
-      <c r="M16" s="58"/>
+      <c r="H16" s="40"/>
+      <c r="I16" s="40"/>
+      <c r="J16" s="40"/>
+      <c r="K16" s="40"/>
+      <c r="L16" s="40"/>
+      <c r="M16" s="40"/>
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A17" s="41"/>
-      <c r="B17" s="44"/>
+      <c r="A17" s="48"/>
+      <c r="B17" s="51"/>
       <c r="C17" s="29">
         <v>3</v>
       </c>
       <c r="D17" s="30"/>
       <c r="E17" s="31"/>
       <c r="F17" s="32"/>
-      <c r="H17" s="58"/>
-      <c r="I17" s="58"/>
-      <c r="J17" s="58"/>
-      <c r="K17" s="58"/>
-      <c r="L17" s="58"/>
-      <c r="M17" s="58"/>
+      <c r="H17" s="40"/>
+      <c r="I17" s="40"/>
+      <c r="J17" s="40"/>
+      <c r="K17" s="40"/>
+      <c r="L17" s="40"/>
+      <c r="M17" s="40"/>
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A18" s="41"/>
-      <c r="B18" s="44"/>
+      <c r="A18" s="48"/>
+      <c r="B18" s="51"/>
       <c r="C18" s="29">
         <v>4</v>
       </c>
       <c r="D18" s="30"/>
       <c r="E18" s="31"/>
       <c r="F18" s="32"/>
-      <c r="H18" s="58"/>
-      <c r="I18" s="58"/>
-      <c r="J18" s="58"/>
-      <c r="K18" s="58"/>
-      <c r="L18" s="58"/>
-      <c r="M18" s="58"/>
+      <c r="H18" s="40"/>
+      <c r="I18" s="40"/>
+      <c r="J18" s="40"/>
+      <c r="K18" s="40"/>
+      <c r="L18" s="40"/>
+      <c r="M18" s="40"/>
     </row>
     <row r="19" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A19" s="41"/>
-      <c r="B19" s="44"/>
+      <c r="A19" s="48"/>
+      <c r="B19" s="51"/>
       <c r="C19" s="29">
         <v>5</v>
       </c>
       <c r="D19" s="30"/>
       <c r="E19" s="31"/>
       <c r="F19" s="32"/>
-      <c r="H19" s="58"/>
-      <c r="I19" s="58"/>
-      <c r="J19" s="58"/>
-      <c r="K19" s="58"/>
-      <c r="L19" s="58"/>
-      <c r="M19" s="58"/>
+      <c r="H19" s="40"/>
+      <c r="I19" s="40"/>
+      <c r="J19" s="40"/>
+      <c r="K19" s="40"/>
+      <c r="L19" s="40"/>
+      <c r="M19" s="40"/>
     </row>
     <row r="20" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A20" s="41"/>
-      <c r="B20" s="44"/>
+      <c r="A20" s="48"/>
+      <c r="B20" s="51"/>
       <c r="C20" s="29">
         <v>6</v>
       </c>
       <c r="D20" s="30"/>
       <c r="E20" s="31"/>
       <c r="F20" s="32"/>
-      <c r="H20" s="58"/>
-      <c r="I20" s="58"/>
-      <c r="J20" s="58"/>
-      <c r="K20" s="58"/>
-      <c r="L20" s="58"/>
-      <c r="M20" s="58"/>
+      <c r="H20" s="40"/>
+      <c r="I20" s="40"/>
+      <c r="J20" s="40"/>
+      <c r="K20" s="40"/>
+      <c r="L20" s="40"/>
+      <c r="M20" s="40"/>
     </row>
     <row r="21" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A21" s="41"/>
-      <c r="B21" s="44"/>
+      <c r="A21" s="48"/>
+      <c r="B21" s="51"/>
       <c r="C21" s="29" t="s">
         <v>7</v>
       </c>
       <c r="D21" s="30"/>
       <c r="E21" s="31"/>
       <c r="F21" s="32"/>
-      <c r="H21" s="58"/>
-      <c r="I21" s="58"/>
-      <c r="J21" s="58"/>
-      <c r="K21" s="58"/>
-      <c r="L21" s="58"/>
-      <c r="M21" s="58"/>
+      <c r="H21" s="40"/>
+      <c r="I21" s="40"/>
+      <c r="J21" s="40"/>
+      <c r="K21" s="40"/>
+      <c r="L21" s="40"/>
+      <c r="M21" s="40"/>
     </row>
     <row r="22" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A22" s="41"/>
-      <c r="B22" s="44"/>
+      <c r="A22" s="48"/>
+      <c r="B22" s="51"/>
       <c r="C22" s="29" t="s">
         <v>8</v>
       </c>
       <c r="D22" s="30"/>
       <c r="E22" s="31"/>
       <c r="F22" s="32"/>
-      <c r="H22" s="58"/>
-      <c r="I22" s="58"/>
-      <c r="J22" s="58"/>
-      <c r="K22" s="58"/>
-      <c r="L22" s="58"/>
-      <c r="M22" s="58"/>
+      <c r="H22" s="40"/>
+      <c r="I22" s="40"/>
+      <c r="J22" s="40"/>
+      <c r="K22" s="40"/>
+      <c r="L22" s="40"/>
+      <c r="M22" s="40"/>
     </row>
     <row r="23" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A23" s="41"/>
-      <c r="B23" s="44"/>
+      <c r="A23" s="48"/>
+      <c r="B23" s="51"/>
       <c r="C23" s="29">
         <v>8</v>
       </c>
       <c r="D23" s="30"/>
       <c r="E23" s="31"/>
       <c r="F23" s="32"/>
-      <c r="H23" s="58"/>
-      <c r="I23" s="58"/>
-      <c r="J23" s="58"/>
-      <c r="K23" s="58"/>
-      <c r="L23" s="58"/>
-      <c r="M23" s="58"/>
+      <c r="H23" s="40"/>
+      <c r="I23" s="40"/>
+      <c r="J23" s="40"/>
+      <c r="K23" s="40"/>
+      <c r="L23" s="40"/>
+      <c r="M23" s="40"/>
     </row>
     <row r="24" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A24" s="41"/>
-      <c r="B24" s="44"/>
+      <c r="A24" s="48"/>
+      <c r="B24" s="51"/>
       <c r="C24" s="29">
         <v>9</v>
       </c>
       <c r="D24" s="30"/>
       <c r="E24" s="31"/>
       <c r="F24" s="32"/>
-      <c r="H24" s="58"/>
-      <c r="I24" s="58"/>
-      <c r="J24" s="58"/>
-      <c r="K24" s="58"/>
-      <c r="L24" s="58"/>
-      <c r="M24" s="58"/>
+      <c r="H24" s="40"/>
+      <c r="I24" s="40"/>
+      <c r="J24" s="40"/>
+      <c r="K24" s="40"/>
+      <c r="L24" s="40"/>
+      <c r="M24" s="40"/>
     </row>
     <row r="25" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="42"/>
-      <c r="B25" s="45"/>
+      <c r="A25" s="49"/>
+      <c r="B25" s="52"/>
       <c r="C25" s="33">
         <v>10</v>
       </c>
       <c r="D25" s="34"/>
       <c r="E25" s="35"/>
       <c r="F25" s="36"/>
-      <c r="H25" s="58"/>
-      <c r="I25" s="58"/>
-      <c r="J25" s="58"/>
-      <c r="K25" s="58"/>
-      <c r="L25" s="58"/>
-      <c r="M25" s="58"/>
+      <c r="H25" s="40"/>
+      <c r="I25" s="40"/>
+      <c r="J25" s="40"/>
+      <c r="K25" s="40"/>
+      <c r="L25" s="40"/>
+      <c r="M25" s="40"/>
     </row>
     <row r="26" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="40">
+      <c r="A26" s="47">
         <v>3</v>
       </c>
-      <c r="B26" s="43" t="s">
+      <c r="B26" s="50" t="s">
         <v>2</v>
       </c>
       <c r="C26" s="25">
@@ -1637,229 +1677,229 @@
       <c r="D26" s="26"/>
       <c r="E26" s="27"/>
       <c r="F26" s="28"/>
-      <c r="H26" s="58"/>
-      <c r="I26" s="58"/>
-      <c r="J26" s="58"/>
-      <c r="K26" s="58"/>
-      <c r="L26" s="58"/>
-      <c r="M26" s="58"/>
+      <c r="H26" s="40"/>
+      <c r="I26" s="40"/>
+      <c r="J26" s="40"/>
+      <c r="K26" s="40"/>
+      <c r="L26" s="40"/>
+      <c r="M26" s="40"/>
     </row>
     <row r="27" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A27" s="41"/>
-      <c r="B27" s="44"/>
+      <c r="A27" s="48"/>
+      <c r="B27" s="51"/>
       <c r="C27" s="29">
         <v>2</v>
       </c>
       <c r="D27" s="30"/>
       <c r="E27" s="31"/>
       <c r="F27" s="32"/>
-      <c r="H27" s="58"/>
-      <c r="I27" s="58"/>
-      <c r="J27" s="58"/>
-      <c r="K27" s="58"/>
-      <c r="L27" s="58"/>
-      <c r="M27" s="58"/>
+      <c r="H27" s="40"/>
+      <c r="I27" s="40"/>
+      <c r="J27" s="40"/>
+      <c r="K27" s="40"/>
+      <c r="L27" s="40"/>
+      <c r="M27" s="40"/>
     </row>
     <row r="28" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A28" s="41"/>
-      <c r="B28" s="44"/>
+      <c r="A28" s="48"/>
+      <c r="B28" s="51"/>
       <c r="C28" s="29">
         <v>3</v>
       </c>
       <c r="D28" s="30"/>
       <c r="E28" s="31"/>
       <c r="F28" s="32"/>
-      <c r="H28" s="58"/>
-      <c r="I28" s="58"/>
-      <c r="J28" s="58"/>
-      <c r="K28" s="58"/>
-      <c r="L28" s="58"/>
-      <c r="M28" s="58"/>
+      <c r="H28" s="40"/>
+      <c r="I28" s="40"/>
+      <c r="J28" s="40"/>
+      <c r="K28" s="40"/>
+      <c r="L28" s="40"/>
+      <c r="M28" s="40"/>
     </row>
     <row r="29" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A29" s="41"/>
-      <c r="B29" s="44"/>
+      <c r="A29" s="48"/>
+      <c r="B29" s="51"/>
       <c r="C29" s="29">
         <v>4</v>
       </c>
       <c r="D29" s="30"/>
       <c r="E29" s="31"/>
       <c r="F29" s="32"/>
-      <c r="H29" s="58"/>
-      <c r="I29" s="58"/>
-      <c r="J29" s="58"/>
-      <c r="K29" s="58"/>
-      <c r="L29" s="58"/>
-      <c r="M29" s="58"/>
+      <c r="H29" s="40"/>
+      <c r="I29" s="40"/>
+      <c r="J29" s="40"/>
+      <c r="K29" s="40"/>
+      <c r="L29" s="40"/>
+      <c r="M29" s="40"/>
     </row>
     <row r="30" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A30" s="41"/>
-      <c r="B30" s="44"/>
+      <c r="A30" s="48"/>
+      <c r="B30" s="51"/>
       <c r="C30" s="29">
         <v>5</v>
       </c>
       <c r="D30" s="30"/>
       <c r="E30" s="31"/>
       <c r="F30" s="32"/>
-      <c r="H30" s="58"/>
-      <c r="I30" s="58"/>
-      <c r="J30" s="58"/>
-      <c r="K30" s="58"/>
-      <c r="L30" s="58"/>
-      <c r="M30" s="58"/>
+      <c r="H30" s="40"/>
+      <c r="I30" s="40"/>
+      <c r="J30" s="40"/>
+      <c r="K30" s="40"/>
+      <c r="L30" s="40"/>
+      <c r="M30" s="40"/>
     </row>
     <row r="31" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A31" s="41"/>
-      <c r="B31" s="44"/>
+      <c r="A31" s="48"/>
+      <c r="B31" s="51"/>
       <c r="C31" s="29">
         <v>6</v>
       </c>
       <c r="D31" s="30"/>
       <c r="E31" s="31"/>
       <c r="F31" s="32"/>
-      <c r="H31" s="58"/>
-      <c r="I31" s="58"/>
-      <c r="J31" s="58"/>
-      <c r="K31" s="58"/>
-      <c r="L31" s="58"/>
-      <c r="M31" s="58"/>
+      <c r="H31" s="40"/>
+      <c r="I31" s="40"/>
+      <c r="J31" s="40"/>
+      <c r="K31" s="40"/>
+      <c r="L31" s="40"/>
+      <c r="M31" s="40"/>
     </row>
     <row r="32" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A32" s="41"/>
-      <c r="B32" s="44"/>
+      <c r="A32" s="48"/>
+      <c r="B32" s="51"/>
       <c r="C32" s="29" t="s">
         <v>7</v>
       </c>
       <c r="D32" s="30"/>
       <c r="E32" s="31"/>
       <c r="F32" s="32"/>
-      <c r="H32" s="58"/>
-      <c r="I32" s="58"/>
-      <c r="J32" s="58"/>
-      <c r="K32" s="58"/>
-      <c r="L32" s="58"/>
-      <c r="M32" s="58"/>
+      <c r="H32" s="40"/>
+      <c r="I32" s="40"/>
+      <c r="J32" s="40"/>
+      <c r="K32" s="40"/>
+      <c r="L32" s="40"/>
+      <c r="M32" s="40"/>
     </row>
     <row r="33" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A33" s="41"/>
-      <c r="B33" s="44"/>
+      <c r="A33" s="48"/>
+      <c r="B33" s="51"/>
       <c r="C33" s="29" t="s">
         <v>8</v>
       </c>
       <c r="D33" s="30"/>
       <c r="E33" s="31"/>
       <c r="F33" s="32"/>
-      <c r="H33" s="58"/>
-      <c r="I33" s="58"/>
-      <c r="J33" s="58"/>
-      <c r="K33" s="58"/>
-      <c r="L33" s="58"/>
-      <c r="M33" s="58"/>
+      <c r="H33" s="40"/>
+      <c r="I33" s="40"/>
+      <c r="J33" s="40"/>
+      <c r="K33" s="40"/>
+      <c r="L33" s="40"/>
+      <c r="M33" s="40"/>
     </row>
     <row r="34" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A34" s="41"/>
-      <c r="B34" s="44"/>
+      <c r="A34" s="48"/>
+      <c r="B34" s="51"/>
       <c r="C34" s="29">
         <v>8</v>
       </c>
       <c r="D34" s="30"/>
       <c r="E34" s="31"/>
       <c r="F34" s="32"/>
-      <c r="H34" s="58"/>
-      <c r="I34" s="58"/>
-      <c r="J34" s="58"/>
-      <c r="K34" s="58"/>
-      <c r="L34" s="58"/>
-      <c r="M34" s="58"/>
+      <c r="H34" s="40"/>
+      <c r="I34" s="40"/>
+      <c r="J34" s="40"/>
+      <c r="K34" s="40"/>
+      <c r="L34" s="40"/>
+      <c r="M34" s="40"/>
     </row>
     <row r="35" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A35" s="41"/>
-      <c r="B35" s="44"/>
+      <c r="A35" s="48"/>
+      <c r="B35" s="51"/>
       <c r="C35" s="29">
         <v>9</v>
       </c>
       <c r="D35" s="30"/>
       <c r="E35" s="31"/>
       <c r="F35" s="32"/>
-      <c r="H35" s="58"/>
-      <c r="I35" s="58"/>
-      <c r="J35" s="58"/>
-      <c r="K35" s="58"/>
-      <c r="L35" s="58"/>
-      <c r="M35" s="58"/>
+      <c r="H35" s="40"/>
+      <c r="I35" s="40"/>
+      <c r="J35" s="40"/>
+      <c r="K35" s="40"/>
+      <c r="L35" s="40"/>
+      <c r="M35" s="40"/>
     </row>
     <row r="36" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="42"/>
-      <c r="B36" s="45"/>
+      <c r="A36" s="49"/>
+      <c r="B36" s="52"/>
       <c r="C36" s="33">
         <v>10</v>
       </c>
       <c r="D36" s="34"/>
       <c r="E36" s="35"/>
       <c r="F36" s="36"/>
-      <c r="H36" s="58"/>
-      <c r="I36" s="58"/>
-      <c r="J36" s="58"/>
-      <c r="K36" s="58"/>
-      <c r="L36" s="58"/>
-      <c r="M36" s="58"/>
+      <c r="H36" s="40"/>
+      <c r="I36" s="40"/>
+      <c r="J36" s="40"/>
+      <c r="K36" s="40"/>
+      <c r="L36" s="40"/>
+      <c r="M36" s="40"/>
     </row>
     <row r="37" spans="1:13" ht="25.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="55" t="s">
+      <c r="A37" s="41" t="s">
         <v>10</v>
       </c>
-      <c r="B37" s="56"/>
-      <c r="C37" s="57"/>
+      <c r="B37" s="42"/>
+      <c r="C37" s="43"/>
       <c r="D37" s="37">
         <f>SUM(D4:D36)</f>
         <v>0</v>
       </c>
       <c r="E37" s="38"/>
       <c r="F37" s="39"/>
-      <c r="H37" s="58"/>
-      <c r="I37" s="58"/>
-      <c r="J37" s="58"/>
-      <c r="K37" s="58"/>
-      <c r="L37" s="58"/>
-      <c r="M37" s="58"/>
+      <c r="H37" s="40"/>
+      <c r="I37" s="40"/>
+      <c r="J37" s="40"/>
+      <c r="K37" s="40"/>
+      <c r="L37" s="40"/>
+      <c r="M37" s="40"/>
     </row>
     <row r="38" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A38"/>
       <c r="D38"/>
-      <c r="H38" s="58"/>
-      <c r="I38" s="58"/>
-      <c r="J38" s="58"/>
-      <c r="K38" s="58"/>
-      <c r="L38" s="58"/>
-      <c r="M38" s="58"/>
+      <c r="H38" s="40"/>
+      <c r="I38" s="40"/>
+      <c r="J38" s="40"/>
+      <c r="K38" s="40"/>
+      <c r="L38" s="40"/>
+      <c r="M38" s="40"/>
     </row>
     <row r="39" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A39"/>
-      <c r="H39" s="58"/>
-      <c r="I39" s="58"/>
-      <c r="J39" s="58"/>
-      <c r="K39" s="58"/>
-      <c r="L39" s="58"/>
-      <c r="M39" s="58"/>
+      <c r="H39" s="40"/>
+      <c r="I39" s="40"/>
+      <c r="J39" s="40"/>
+      <c r="K39" s="40"/>
+      <c r="L39" s="40"/>
+      <c r="M39" s="40"/>
     </row>
     <row r="40" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A40"/>
       <c r="F40" s="18"/>
-      <c r="H40" s="58"/>
-      <c r="I40" s="58"/>
-      <c r="J40" s="58"/>
-      <c r="K40" s="58"/>
-      <c r="L40" s="58"/>
-      <c r="M40" s="58"/>
+      <c r="H40" s="40"/>
+      <c r="I40" s="40"/>
+      <c r="J40" s="40"/>
+      <c r="K40" s="40"/>
+      <c r="L40" s="40"/>
+      <c r="M40" s="40"/>
     </row>
     <row r="41" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A41"/>
-      <c r="H41" s="58"/>
-      <c r="I41" s="58"/>
-      <c r="J41" s="58"/>
-      <c r="K41" s="58"/>
-      <c r="L41" s="58"/>
-      <c r="M41" s="58"/>
+      <c r="H41" s="40"/>
+      <c r="I41" s="40"/>
+      <c r="J41" s="40"/>
+      <c r="K41" s="40"/>
+      <c r="L41" s="40"/>
+      <c r="M41" s="40"/>
     </row>
     <row r="42" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A42"/>
@@ -1914,18 +1954,28 @@
     </row>
   </sheetData>
   <mergeCells count="9">
+    <mergeCell ref="A1:F2"/>
+    <mergeCell ref="A4:A14"/>
+    <mergeCell ref="B4:B14"/>
+    <mergeCell ref="A15:A25"/>
     <mergeCell ref="A37:C37"/>
     <mergeCell ref="H3:M3"/>
     <mergeCell ref="A26:A36"/>
     <mergeCell ref="B15:B25"/>
     <mergeCell ref="B26:B36"/>
-    <mergeCell ref="A1:F2"/>
-    <mergeCell ref="A4:A14"/>
-    <mergeCell ref="B4:B14"/>
-    <mergeCell ref="A15:A25"/>
   </mergeCells>
   <conditionalFormatting sqref="D4:F36">
-    <cfRule type="colorScale" priority="45">
+    <cfRule type="colorScale" priority="46">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="colorScale" priority="1">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -1937,7 +1987,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D4:D36">
-    <cfRule type="colorScale" priority="46">
+    <cfRule type="colorScale" priority="47">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -1949,7 +1999,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D4:F36">
-    <cfRule type="colorScale" priority="47">
+    <cfRule type="colorScale" priority="48">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>

--- a/Group 1 - Final Report Project/4. Bang-danh-gia-thanh-vien_Nhom-1.xlsx
+++ b/Group 1 - Final Report Project/4. Bang-danh-gia-thanh-vien_Nhom-1.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ASUS\OneDrive\Documents\GitHub\Appu\Group 1 - Final Report Project\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Sy Nguyen\Documents\GitHub\Appu\Group 1 - Final Report Project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="31" documentId="13_ncr:1_{AC5722F2-178B-46CF-B68A-1FBE1511539C}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{74A377C5-8B91-461D-9027-BC6A5DFA5D25}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{96DCF43F-2534-4038-8603-7DAA41CEBD50}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -747,31 +747,31 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="5" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -783,36 +783,36 @@
     <xf numFmtId="0" fontId="8" fillId="5" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Bình thường" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1195,8 +1195,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:O47"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A11" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B26" sqref="B26:B36"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D22" sqref="D22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1214,22 +1214,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="53" t="s">
+      <c r="A1" s="41" t="s">
         <v>15</v>
       </c>
-      <c r="B1" s="54"/>
-      <c r="C1" s="54"/>
-      <c r="D1" s="54"/>
-      <c r="E1" s="54"/>
-      <c r="F1" s="55"/>
+      <c r="B1" s="42"/>
+      <c r="C1" s="42"/>
+      <c r="D1" s="42"/>
+      <c r="E1" s="42"/>
+      <c r="F1" s="43"/>
     </row>
     <row r="2" spans="1:15" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="56"/>
-      <c r="B2" s="57"/>
-      <c r="C2" s="57"/>
-      <c r="D2" s="57"/>
-      <c r="E2" s="57"/>
-      <c r="F2" s="58"/>
+      <c r="A2" s="44"/>
+      <c r="B2" s="45"/>
+      <c r="C2" s="45"/>
+      <c r="D2" s="45"/>
+      <c r="E2" s="45"/>
+      <c r="F2" s="46"/>
       <c r="H2" s="40"/>
       <c r="I2" s="40"/>
       <c r="J2" s="40"/>
@@ -1256,19 +1256,19 @@
       <c r="F3" s="24" t="s">
         <v>5</v>
       </c>
-      <c r="H3" s="44" t="s">
+      <c r="H3" s="59" t="s">
         <v>9</v>
       </c>
-      <c r="I3" s="45"/>
-      <c r="J3" s="45"/>
-      <c r="K3" s="45"/>
-      <c r="L3" s="45"/>
-      <c r="M3" s="46"/>
+      <c r="I3" s="60"/>
+      <c r="J3" s="60"/>
+      <c r="K3" s="60"/>
+      <c r="L3" s="60"/>
+      <c r="M3" s="61"/>
       <c r="N3" s="5"/>
       <c r="O3" s="5"/>
     </row>
     <row r="4" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="59">
+      <c r="A4" s="47">
         <v>1</v>
       </c>
       <c r="B4" s="50" t="s">
@@ -1292,7 +1292,7 @@
       <c r="M4" s="40"/>
     </row>
     <row r="5" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="60"/>
+      <c r="A5" s="48"/>
       <c r="B5" s="51"/>
       <c r="C5" s="29">
         <v>2</v>
@@ -1312,7 +1312,7 @@
       <c r="M5" s="40"/>
     </row>
     <row r="6" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="60"/>
+      <c r="A6" s="48"/>
       <c r="B6" s="51"/>
       <c r="C6" s="29">
         <v>3</v>
@@ -1333,7 +1333,7 @@
       <c r="M6" s="40"/>
     </row>
     <row r="7" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="60"/>
+      <c r="A7" s="48"/>
       <c r="B7" s="51"/>
       <c r="C7" s="29">
         <v>4</v>
@@ -1353,7 +1353,7 @@
       <c r="M7" s="40"/>
     </row>
     <row r="8" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="60"/>
+      <c r="A8" s="48"/>
       <c r="B8" s="51"/>
       <c r="C8" s="29">
         <v>5</v>
@@ -1373,7 +1373,7 @@
       <c r="M8" s="40"/>
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A9" s="60"/>
+      <c r="A9" s="48"/>
       <c r="B9" s="51"/>
       <c r="C9" s="29">
         <v>6</v>
@@ -1393,7 +1393,7 @@
       <c r="M9" s="40"/>
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A10" s="60"/>
+      <c r="A10" s="48"/>
       <c r="B10" s="51"/>
       <c r="C10" s="29" t="s">
         <v>7</v>
@@ -1409,7 +1409,7 @@
       <c r="M10" s="40"/>
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A11" s="60"/>
+      <c r="A11" s="48"/>
       <c r="B11" s="51"/>
       <c r="C11" s="29" t="s">
         <v>8</v>
@@ -1425,7 +1425,7 @@
       <c r="M11" s="40"/>
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A12" s="60"/>
+      <c r="A12" s="48"/>
       <c r="B12" s="51"/>
       <c r="C12" s="29">
         <v>8</v>
@@ -1445,7 +1445,7 @@
       <c r="M12" s="40"/>
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A13" s="60"/>
+      <c r="A13" s="48"/>
       <c r="B13" s="51"/>
       <c r="C13" s="29">
         <v>9</v>
@@ -1465,7 +1465,7 @@
       <c r="M13" s="40"/>
     </row>
     <row r="14" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="61"/>
+      <c r="A14" s="49"/>
       <c r="B14" s="52"/>
       <c r="C14" s="33">
         <v>10</v>
@@ -1485,7 +1485,7 @@
       <c r="M14" s="40"/>
     </row>
     <row r="15" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="47">
+      <c r="A15" s="53">
         <v>2</v>
       </c>
       <c r="B15" s="50" t="s">
@@ -1494,9 +1494,13 @@
       <c r="C15" s="25">
         <v>1</v>
       </c>
-      <c r="D15" s="26"/>
+      <c r="D15" s="26">
+        <v>3</v>
+      </c>
       <c r="E15" s="27"/>
-      <c r="F15" s="28"/>
+      <c r="F15" s="28">
+        <v>2</v>
+      </c>
       <c r="H15" s="40"/>
       <c r="I15" s="40"/>
       <c r="J15" s="40"/>
@@ -1505,14 +1509,18 @@
       <c r="M15" s="40"/>
     </row>
     <row r="16" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A16" s="48"/>
+      <c r="A16" s="54"/>
       <c r="B16" s="51"/>
       <c r="C16" s="29">
         <v>2</v>
       </c>
-      <c r="D16" s="30"/>
+      <c r="D16" s="30">
+        <v>3</v>
+      </c>
       <c r="E16" s="31"/>
-      <c r="F16" s="32"/>
+      <c r="F16" s="32">
+        <v>2</v>
+      </c>
       <c r="H16" s="40"/>
       <c r="I16" s="40"/>
       <c r="J16" s="40"/>
@@ -1521,14 +1529,18 @@
       <c r="M16" s="40"/>
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A17" s="48"/>
+      <c r="A17" s="54"/>
       <c r="B17" s="51"/>
       <c r="C17" s="29">
         <v>3</v>
       </c>
-      <c r="D17" s="30"/>
+      <c r="D17" s="30">
+        <v>3</v>
+      </c>
       <c r="E17" s="31"/>
-      <c r="F17" s="32"/>
+      <c r="F17" s="32">
+        <v>1</v>
+      </c>
       <c r="H17" s="40"/>
       <c r="I17" s="40"/>
       <c r="J17" s="40"/>
@@ -1537,14 +1549,18 @@
       <c r="M17" s="40"/>
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A18" s="48"/>
+      <c r="A18" s="54"/>
       <c r="B18" s="51"/>
       <c r="C18" s="29">
         <v>4</v>
       </c>
-      <c r="D18" s="30"/>
+      <c r="D18" s="30">
+        <v>3</v>
+      </c>
       <c r="E18" s="31"/>
-      <c r="F18" s="32"/>
+      <c r="F18" s="32">
+        <v>1</v>
+      </c>
       <c r="H18" s="40"/>
       <c r="I18" s="40"/>
       <c r="J18" s="40"/>
@@ -1553,14 +1569,18 @@
       <c r="M18" s="40"/>
     </row>
     <row r="19" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A19" s="48"/>
+      <c r="A19" s="54"/>
       <c r="B19" s="51"/>
       <c r="C19" s="29">
         <v>5</v>
       </c>
-      <c r="D19" s="30"/>
+      <c r="D19" s="30">
+        <v>3</v>
+      </c>
       <c r="E19" s="31"/>
-      <c r="F19" s="32"/>
+      <c r="F19" s="32">
+        <v>1</v>
+      </c>
       <c r="H19" s="40"/>
       <c r="I19" s="40"/>
       <c r="J19" s="40"/>
@@ -1569,14 +1589,18 @@
       <c r="M19" s="40"/>
     </row>
     <row r="20" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A20" s="48"/>
+      <c r="A20" s="54"/>
       <c r="B20" s="51"/>
       <c r="C20" s="29">
         <v>6</v>
       </c>
-      <c r="D20" s="30"/>
+      <c r="D20" s="30">
+        <v>3</v>
+      </c>
       <c r="E20" s="31"/>
-      <c r="F20" s="32"/>
+      <c r="F20" s="32">
+        <v>1</v>
+      </c>
       <c r="H20" s="40"/>
       <c r="I20" s="40"/>
       <c r="J20" s="40"/>
@@ -1585,7 +1609,7 @@
       <c r="M20" s="40"/>
     </row>
     <row r="21" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A21" s="48"/>
+      <c r="A21" s="54"/>
       <c r="B21" s="51"/>
       <c r="C21" s="29" t="s">
         <v>7</v>
@@ -1601,7 +1625,7 @@
       <c r="M21" s="40"/>
     </row>
     <row r="22" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A22" s="48"/>
+      <c r="A22" s="54"/>
       <c r="B22" s="51"/>
       <c r="C22" s="29" t="s">
         <v>8</v>
@@ -1617,14 +1641,18 @@
       <c r="M22" s="40"/>
     </row>
     <row r="23" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A23" s="48"/>
+      <c r="A23" s="54"/>
       <c r="B23" s="51"/>
       <c r="C23" s="29">
         <v>8</v>
       </c>
-      <c r="D23" s="30"/>
+      <c r="D23" s="30">
+        <v>3</v>
+      </c>
       <c r="E23" s="31"/>
-      <c r="F23" s="32"/>
+      <c r="F23" s="32">
+        <v>2</v>
+      </c>
       <c r="H23" s="40"/>
       <c r="I23" s="40"/>
       <c r="J23" s="40"/>
@@ -1633,14 +1661,18 @@
       <c r="M23" s="40"/>
     </row>
     <row r="24" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A24" s="48"/>
+      <c r="A24" s="54"/>
       <c r="B24" s="51"/>
       <c r="C24" s="29">
         <v>9</v>
       </c>
-      <c r="D24" s="30"/>
+      <c r="D24" s="30">
+        <v>3</v>
+      </c>
       <c r="E24" s="31"/>
-      <c r="F24" s="32"/>
+      <c r="F24" s="32">
+        <v>1</v>
+      </c>
       <c r="H24" s="40"/>
       <c r="I24" s="40"/>
       <c r="J24" s="40"/>
@@ -1649,14 +1681,18 @@
       <c r="M24" s="40"/>
     </row>
     <row r="25" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="49"/>
+      <c r="A25" s="55"/>
       <c r="B25" s="52"/>
       <c r="C25" s="33">
         <v>10</v>
       </c>
-      <c r="D25" s="34"/>
+      <c r="D25" s="34">
+        <v>3</v>
+      </c>
       <c r="E25" s="35"/>
-      <c r="F25" s="36"/>
+      <c r="F25" s="36">
+        <v>1</v>
+      </c>
       <c r="H25" s="40"/>
       <c r="I25" s="40"/>
       <c r="J25" s="40"/>
@@ -1665,7 +1701,7 @@
       <c r="M25" s="40"/>
     </row>
     <row r="26" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="47">
+      <c r="A26" s="53">
         <v>3</v>
       </c>
       <c r="B26" s="50" t="s">
@@ -1685,7 +1721,7 @@
       <c r="M26" s="40"/>
     </row>
     <row r="27" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A27" s="48"/>
+      <c r="A27" s="54"/>
       <c r="B27" s="51"/>
       <c r="C27" s="29">
         <v>2</v>
@@ -1701,7 +1737,7 @@
       <c r="M27" s="40"/>
     </row>
     <row r="28" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A28" s="48"/>
+      <c r="A28" s="54"/>
       <c r="B28" s="51"/>
       <c r="C28" s="29">
         <v>3</v>
@@ -1717,7 +1753,7 @@
       <c r="M28" s="40"/>
     </row>
     <row r="29" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A29" s="48"/>
+      <c r="A29" s="54"/>
       <c r="B29" s="51"/>
       <c r="C29" s="29">
         <v>4</v>
@@ -1733,7 +1769,7 @@
       <c r="M29" s="40"/>
     </row>
     <row r="30" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A30" s="48"/>
+      <c r="A30" s="54"/>
       <c r="B30" s="51"/>
       <c r="C30" s="29">
         <v>5</v>
@@ -1749,7 +1785,7 @@
       <c r="M30" s="40"/>
     </row>
     <row r="31" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A31" s="48"/>
+      <c r="A31" s="54"/>
       <c r="B31" s="51"/>
       <c r="C31" s="29">
         <v>6</v>
@@ -1765,7 +1801,7 @@
       <c r="M31" s="40"/>
     </row>
     <row r="32" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A32" s="48"/>
+      <c r="A32" s="54"/>
       <c r="B32" s="51"/>
       <c r="C32" s="29" t="s">
         <v>7</v>
@@ -1781,7 +1817,7 @@
       <c r="M32" s="40"/>
     </row>
     <row r="33" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A33" s="48"/>
+      <c r="A33" s="54"/>
       <c r="B33" s="51"/>
       <c r="C33" s="29" t="s">
         <v>8</v>
@@ -1797,7 +1833,7 @@
       <c r="M33" s="40"/>
     </row>
     <row r="34" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A34" s="48"/>
+      <c r="A34" s="54"/>
       <c r="B34" s="51"/>
       <c r="C34" s="29">
         <v>8</v>
@@ -1813,7 +1849,7 @@
       <c r="M34" s="40"/>
     </row>
     <row r="35" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A35" s="48"/>
+      <c r="A35" s="54"/>
       <c r="B35" s="51"/>
       <c r="C35" s="29">
         <v>9</v>
@@ -1829,7 +1865,7 @@
       <c r="M35" s="40"/>
     </row>
     <row r="36" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="49"/>
+      <c r="A36" s="55"/>
       <c r="B36" s="52"/>
       <c r="C36" s="33">
         <v>10</v>
@@ -1845,14 +1881,14 @@
       <c r="M36" s="40"/>
     </row>
     <row r="37" spans="1:13" ht="25.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="41" t="s">
+      <c r="A37" s="56" t="s">
         <v>10</v>
       </c>
-      <c r="B37" s="42"/>
-      <c r="C37" s="43"/>
+      <c r="B37" s="57"/>
+      <c r="C37" s="58"/>
       <c r="D37" s="37">
         <f>SUM(D4:D36)</f>
-        <v>0</v>
+        <v>27</v>
       </c>
       <c r="E37" s="38"/>
       <c r="F37" s="39"/>
@@ -1954,15 +1990,15 @@
     </row>
   </sheetData>
   <mergeCells count="9">
+    <mergeCell ref="H3:M3"/>
+    <mergeCell ref="A26:A36"/>
+    <mergeCell ref="B15:B25"/>
+    <mergeCell ref="B26:B36"/>
     <mergeCell ref="A1:F2"/>
     <mergeCell ref="A4:A14"/>
     <mergeCell ref="B4:B14"/>
     <mergeCell ref="A15:A25"/>
     <mergeCell ref="A37:C37"/>
-    <mergeCell ref="H3:M3"/>
-    <mergeCell ref="A26:A36"/>
-    <mergeCell ref="B15:B25"/>
-    <mergeCell ref="B26:B36"/>
   </mergeCells>
   <conditionalFormatting sqref="D4:F36">
     <cfRule type="colorScale" priority="46">

--- a/Group 1 - Final Report Project/4. Bang-danh-gia-thanh-vien_Nhom-1.xlsx
+++ b/Group 1 - Final Report Project/4. Bang-danh-gia-thanh-vien_Nhom-1.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Sy Nguyen\Documents\GitHub\Appu\Group 1 - Final Report Project\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ASUS\OneDrive\Documents\GitHub\Appu\Group 1 - Final Report Project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{96DCF43F-2534-4038-8603-7DAA41CEBD50}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="59" documentId="6_{03AAF126-672A-4B44-908D-C3AA7810B0E5}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{8EA6BC96-4959-4445-8856-C3CD0F5DE631}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -747,31 +747,22 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="5" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -783,13 +774,31 @@
     <xf numFmtId="0" fontId="8" fillId="5" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="3" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -799,20 +808,11 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="3" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Bình thường" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1195,8 +1195,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:O47"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D22" sqref="D22"/>
+    <sheetView tabSelected="1" topLeftCell="A21" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1214,22 +1214,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="41" t="s">
+      <c r="A1" s="50" t="s">
         <v>15</v>
       </c>
-      <c r="B1" s="42"/>
-      <c r="C1" s="42"/>
-      <c r="D1" s="42"/>
-      <c r="E1" s="42"/>
-      <c r="F1" s="43"/>
+      <c r="B1" s="51"/>
+      <c r="C1" s="51"/>
+      <c r="D1" s="51"/>
+      <c r="E1" s="51"/>
+      <c r="F1" s="52"/>
     </row>
     <row r="2" spans="1:15" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="44"/>
-      <c r="B2" s="45"/>
-      <c r="C2" s="45"/>
-      <c r="D2" s="45"/>
-      <c r="E2" s="45"/>
-      <c r="F2" s="46"/>
+      <c r="A2" s="53"/>
+      <c r="B2" s="54"/>
+      <c r="C2" s="54"/>
+      <c r="D2" s="54"/>
+      <c r="E2" s="54"/>
+      <c r="F2" s="55"/>
       <c r="H2" s="40"/>
       <c r="I2" s="40"/>
       <c r="J2" s="40"/>
@@ -1256,28 +1256,30 @@
       <c r="F3" s="24" t="s">
         <v>5</v>
       </c>
-      <c r="H3" s="59" t="s">
+      <c r="H3" s="41" t="s">
         <v>9</v>
       </c>
-      <c r="I3" s="60"/>
-      <c r="J3" s="60"/>
-      <c r="K3" s="60"/>
-      <c r="L3" s="60"/>
-      <c r="M3" s="61"/>
+      <c r="I3" s="42"/>
+      <c r="J3" s="42"/>
+      <c r="K3" s="42"/>
+      <c r="L3" s="42"/>
+      <c r="M3" s="43"/>
       <c r="N3" s="5"/>
       <c r="O3" s="5"/>
     </row>
     <row r="4" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="47">
+      <c r="A4" s="56">
         <v>1</v>
       </c>
-      <c r="B4" s="50" t="s">
+      <c r="B4" s="47" t="s">
         <v>1</v>
       </c>
       <c r="C4" s="25">
         <v>1</v>
       </c>
-      <c r="D4" s="26"/>
+      <c r="D4" s="26">
+        <v>3</v>
+      </c>
       <c r="E4" s="27">
         <v>3</v>
       </c>
@@ -1292,12 +1294,14 @@
       <c r="M4" s="40"/>
     </row>
     <row r="5" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="48"/>
-      <c r="B5" s="51"/>
+      <c r="A5" s="57"/>
+      <c r="B5" s="48"/>
       <c r="C5" s="29">
         <v>2</v>
       </c>
-      <c r="D5" s="30"/>
+      <c r="D5" s="30">
+        <v>3</v>
+      </c>
       <c r="E5" s="31">
         <v>3</v>
       </c>
@@ -1312,12 +1316,14 @@
       <c r="M5" s="40"/>
     </row>
     <row r="6" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="48"/>
-      <c r="B6" s="51"/>
+      <c r="A6" s="57"/>
+      <c r="B6" s="48"/>
       <c r="C6" s="29">
         <v>3</v>
       </c>
-      <c r="D6" s="30"/>
+      <c r="D6" s="30">
+        <v>3</v>
+      </c>
       <c r="E6" s="31">
         <v>3</v>
       </c>
@@ -1333,12 +1339,14 @@
       <c r="M6" s="40"/>
     </row>
     <row r="7" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="48"/>
-      <c r="B7" s="51"/>
+      <c r="A7" s="57"/>
+      <c r="B7" s="48"/>
       <c r="C7" s="29">
         <v>4</v>
       </c>
-      <c r="D7" s="30"/>
+      <c r="D7" s="30">
+        <v>2</v>
+      </c>
       <c r="E7" s="31">
         <v>3</v>
       </c>
@@ -1353,12 +1361,14 @@
       <c r="M7" s="40"/>
     </row>
     <row r="8" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="48"/>
-      <c r="B8" s="51"/>
+      <c r="A8" s="57"/>
+      <c r="B8" s="48"/>
       <c r="C8" s="29">
         <v>5</v>
       </c>
-      <c r="D8" s="30"/>
+      <c r="D8" s="30">
+        <v>3</v>
+      </c>
       <c r="E8" s="31">
         <v>3</v>
       </c>
@@ -1373,12 +1383,14 @@
       <c r="M8" s="40"/>
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A9" s="48"/>
-      <c r="B9" s="51"/>
+      <c r="A9" s="57"/>
+      <c r="B9" s="48"/>
       <c r="C9" s="29">
         <v>6</v>
       </c>
-      <c r="D9" s="30"/>
+      <c r="D9" s="30">
+        <v>3</v>
+      </c>
       <c r="E9" s="31">
         <v>3</v>
       </c>
@@ -1393,14 +1405,20 @@
       <c r="M9" s="40"/>
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A10" s="48"/>
-      <c r="B10" s="51"/>
+      <c r="A10" s="57"/>
+      <c r="B10" s="48"/>
       <c r="C10" s="29" t="s">
         <v>7</v>
       </c>
-      <c r="D10" s="30"/>
-      <c r="E10" s="31"/>
-      <c r="F10" s="32"/>
+      <c r="D10" s="30">
+        <v>3</v>
+      </c>
+      <c r="E10" s="31">
+        <v>3</v>
+      </c>
+      <c r="F10" s="32">
+        <v>2</v>
+      </c>
       <c r="H10" s="40"/>
       <c r="I10" s="40"/>
       <c r="J10" s="40"/>
@@ -1409,14 +1427,20 @@
       <c r="M10" s="40"/>
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A11" s="48"/>
-      <c r="B11" s="51"/>
+      <c r="A11" s="57"/>
+      <c r="B11" s="48"/>
       <c r="C11" s="29" t="s">
         <v>8</v>
       </c>
-      <c r="D11" s="30"/>
-      <c r="E11" s="31"/>
-      <c r="F11" s="32"/>
+      <c r="D11" s="30">
+        <v>2</v>
+      </c>
+      <c r="E11" s="31">
+        <v>2</v>
+      </c>
+      <c r="F11" s="32">
+        <v>1</v>
+      </c>
       <c r="H11" s="40"/>
       <c r="I11" s="40"/>
       <c r="J11" s="40"/>
@@ -1425,12 +1449,14 @@
       <c r="M11" s="40"/>
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A12" s="48"/>
-      <c r="B12" s="51"/>
+      <c r="A12" s="57"/>
+      <c r="B12" s="48"/>
       <c r="C12" s="29">
         <v>8</v>
       </c>
-      <c r="D12" s="30"/>
+      <c r="D12" s="30">
+        <v>3</v>
+      </c>
       <c r="E12" s="31">
         <v>3</v>
       </c>
@@ -1445,12 +1471,14 @@
       <c r="M12" s="40"/>
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A13" s="48"/>
-      <c r="B13" s="51"/>
+      <c r="A13" s="57"/>
+      <c r="B13" s="48"/>
       <c r="C13" s="29">
         <v>9</v>
       </c>
-      <c r="D13" s="30"/>
+      <c r="D13" s="30">
+        <v>3</v>
+      </c>
       <c r="E13" s="31">
         <v>3</v>
       </c>
@@ -1465,12 +1493,14 @@
       <c r="M13" s="40"/>
     </row>
     <row r="14" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="49"/>
-      <c r="B14" s="52"/>
+      <c r="A14" s="58"/>
+      <c r="B14" s="49"/>
       <c r="C14" s="33">
         <v>10</v>
       </c>
-      <c r="D14" s="34"/>
+      <c r="D14" s="34">
+        <v>2</v>
+      </c>
       <c r="E14" s="35">
         <v>3</v>
       </c>
@@ -1485,10 +1515,10 @@
       <c r="M14" s="40"/>
     </row>
     <row r="15" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="53">
-        <v>2</v>
-      </c>
-      <c r="B15" s="50" t="s">
+      <c r="A15" s="44">
+        <v>2</v>
+      </c>
+      <c r="B15" s="47" t="s">
         <v>16</v>
       </c>
       <c r="C15" s="25">
@@ -1497,7 +1527,9 @@
       <c r="D15" s="26">
         <v>3</v>
       </c>
-      <c r="E15" s="27"/>
+      <c r="E15" s="27">
+        <v>3</v>
+      </c>
       <c r="F15" s="28">
         <v>2</v>
       </c>
@@ -1509,15 +1541,17 @@
       <c r="M15" s="40"/>
     </row>
     <row r="16" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A16" s="54"/>
-      <c r="B16" s="51"/>
+      <c r="A16" s="45"/>
+      <c r="B16" s="48"/>
       <c r="C16" s="29">
         <v>2</v>
       </c>
       <c r="D16" s="30">
         <v>3</v>
       </c>
-      <c r="E16" s="31"/>
+      <c r="E16" s="31">
+        <v>3</v>
+      </c>
       <c r="F16" s="32">
         <v>2</v>
       </c>
@@ -1529,15 +1563,17 @@
       <c r="M16" s="40"/>
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A17" s="54"/>
-      <c r="B17" s="51"/>
+      <c r="A17" s="45"/>
+      <c r="B17" s="48"/>
       <c r="C17" s="29">
         <v>3</v>
       </c>
       <c r="D17" s="30">
         <v>3</v>
       </c>
-      <c r="E17" s="31"/>
+      <c r="E17" s="31">
+        <v>3</v>
+      </c>
       <c r="F17" s="32">
         <v>1</v>
       </c>
@@ -1549,15 +1585,17 @@
       <c r="M17" s="40"/>
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A18" s="54"/>
-      <c r="B18" s="51"/>
+      <c r="A18" s="45"/>
+      <c r="B18" s="48"/>
       <c r="C18" s="29">
         <v>4</v>
       </c>
       <c r="D18" s="30">
         <v>3</v>
       </c>
-      <c r="E18" s="31"/>
+      <c r="E18" s="31">
+        <v>3</v>
+      </c>
       <c r="F18" s="32">
         <v>1</v>
       </c>
@@ -1569,15 +1607,17 @@
       <c r="M18" s="40"/>
     </row>
     <row r="19" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A19" s="54"/>
-      <c r="B19" s="51"/>
+      <c r="A19" s="45"/>
+      <c r="B19" s="48"/>
       <c r="C19" s="29">
         <v>5</v>
       </c>
       <c r="D19" s="30">
         <v>3</v>
       </c>
-      <c r="E19" s="31"/>
+      <c r="E19" s="31">
+        <v>3</v>
+      </c>
       <c r="F19" s="32">
         <v>1</v>
       </c>
@@ -1589,15 +1629,17 @@
       <c r="M19" s="40"/>
     </row>
     <row r="20" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A20" s="54"/>
-      <c r="B20" s="51"/>
+      <c r="A20" s="45"/>
+      <c r="B20" s="48"/>
       <c r="C20" s="29">
         <v>6</v>
       </c>
       <c r="D20" s="30">
         <v>3</v>
       </c>
-      <c r="E20" s="31"/>
+      <c r="E20" s="31">
+        <v>3</v>
+      </c>
       <c r="F20" s="32">
         <v>1</v>
       </c>
@@ -1609,8 +1651,8 @@
       <c r="M20" s="40"/>
     </row>
     <row r="21" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A21" s="54"/>
-      <c r="B21" s="51"/>
+      <c r="A21" s="45"/>
+      <c r="B21" s="48"/>
       <c r="C21" s="29" t="s">
         <v>7</v>
       </c>
@@ -1625,8 +1667,8 @@
       <c r="M21" s="40"/>
     </row>
     <row r="22" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A22" s="54"/>
-      <c r="B22" s="51"/>
+      <c r="A22" s="45"/>
+      <c r="B22" s="48"/>
       <c r="C22" s="29" t="s">
         <v>8</v>
       </c>
@@ -1641,15 +1683,17 @@
       <c r="M22" s="40"/>
     </row>
     <row r="23" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A23" s="54"/>
-      <c r="B23" s="51"/>
+      <c r="A23" s="45"/>
+      <c r="B23" s="48"/>
       <c r="C23" s="29">
         <v>8</v>
       </c>
       <c r="D23" s="30">
         <v>3</v>
       </c>
-      <c r="E23" s="31"/>
+      <c r="E23" s="31">
+        <v>3</v>
+      </c>
       <c r="F23" s="32">
         <v>2</v>
       </c>
@@ -1661,15 +1705,17 @@
       <c r="M23" s="40"/>
     </row>
     <row r="24" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A24" s="54"/>
-      <c r="B24" s="51"/>
+      <c r="A24" s="45"/>
+      <c r="B24" s="48"/>
       <c r="C24" s="29">
         <v>9</v>
       </c>
       <c r="D24" s="30">
         <v>3</v>
       </c>
-      <c r="E24" s="31"/>
+      <c r="E24" s="31">
+        <v>3</v>
+      </c>
       <c r="F24" s="32">
         <v>1</v>
       </c>
@@ -1681,15 +1727,17 @@
       <c r="M24" s="40"/>
     </row>
     <row r="25" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="55"/>
-      <c r="B25" s="52"/>
+      <c r="A25" s="46"/>
+      <c r="B25" s="49"/>
       <c r="C25" s="33">
         <v>10</v>
       </c>
       <c r="D25" s="34">
         <v>3</v>
       </c>
-      <c r="E25" s="35"/>
+      <c r="E25" s="35">
+        <v>3</v>
+      </c>
       <c r="F25" s="36">
         <v>1</v>
       </c>
@@ -1701,18 +1749,24 @@
       <c r="M25" s="40"/>
     </row>
     <row r="26" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="53">
-        <v>3</v>
-      </c>
-      <c r="B26" s="50" t="s">
+      <c r="A26" s="44">
+        <v>3</v>
+      </c>
+      <c r="B26" s="47" t="s">
         <v>2</v>
       </c>
       <c r="C26" s="25">
         <v>1</v>
       </c>
-      <c r="D26" s="26"/>
-      <c r="E26" s="27"/>
-      <c r="F26" s="28"/>
+      <c r="D26" s="26">
+        <v>3</v>
+      </c>
+      <c r="E26" s="27">
+        <v>3</v>
+      </c>
+      <c r="F26" s="28">
+        <v>2</v>
+      </c>
       <c r="H26" s="40"/>
       <c r="I26" s="40"/>
       <c r="J26" s="40"/>
@@ -1721,14 +1775,20 @@
       <c r="M26" s="40"/>
     </row>
     <row r="27" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A27" s="54"/>
-      <c r="B27" s="51"/>
+      <c r="A27" s="45"/>
+      <c r="B27" s="48"/>
       <c r="C27" s="29">
         <v>2</v>
       </c>
-      <c r="D27" s="30"/>
-      <c r="E27" s="31"/>
-      <c r="F27" s="32"/>
+      <c r="D27" s="30">
+        <v>3</v>
+      </c>
+      <c r="E27" s="31">
+        <v>3</v>
+      </c>
+      <c r="F27" s="32">
+        <v>2</v>
+      </c>
       <c r="H27" s="40"/>
       <c r="I27" s="40"/>
       <c r="J27" s="40"/>
@@ -1737,14 +1797,20 @@
       <c r="M27" s="40"/>
     </row>
     <row r="28" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A28" s="54"/>
-      <c r="B28" s="51"/>
+      <c r="A28" s="45"/>
+      <c r="B28" s="48"/>
       <c r="C28" s="29">
         <v>3</v>
       </c>
-      <c r="D28" s="30"/>
-      <c r="E28" s="31"/>
-      <c r="F28" s="32"/>
+      <c r="D28" s="30">
+        <v>3</v>
+      </c>
+      <c r="E28" s="31">
+        <v>3</v>
+      </c>
+      <c r="F28" s="32">
+        <v>2</v>
+      </c>
       <c r="H28" s="40"/>
       <c r="I28" s="40"/>
       <c r="J28" s="40"/>
@@ -1753,14 +1819,20 @@
       <c r="M28" s="40"/>
     </row>
     <row r="29" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A29" s="54"/>
-      <c r="B29" s="51"/>
+      <c r="A29" s="45"/>
+      <c r="B29" s="48"/>
       <c r="C29" s="29">
         <v>4</v>
       </c>
-      <c r="D29" s="30"/>
-      <c r="E29" s="31"/>
-      <c r="F29" s="32"/>
+      <c r="D29" s="30">
+        <v>3</v>
+      </c>
+      <c r="E29" s="31">
+        <v>3</v>
+      </c>
+      <c r="F29" s="32">
+        <v>2</v>
+      </c>
       <c r="H29" s="40"/>
       <c r="I29" s="40"/>
       <c r="J29" s="40"/>
@@ -1769,14 +1841,20 @@
       <c r="M29" s="40"/>
     </row>
     <row r="30" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A30" s="54"/>
-      <c r="B30" s="51"/>
+      <c r="A30" s="45"/>
+      <c r="B30" s="48"/>
       <c r="C30" s="29">
         <v>5</v>
       </c>
-      <c r="D30" s="30"/>
-      <c r="E30" s="31"/>
-      <c r="F30" s="32"/>
+      <c r="D30" s="30">
+        <v>3</v>
+      </c>
+      <c r="E30" s="31">
+        <v>3</v>
+      </c>
+      <c r="F30" s="32">
+        <v>3</v>
+      </c>
       <c r="H30" s="40"/>
       <c r="I30" s="40"/>
       <c r="J30" s="40"/>
@@ -1785,14 +1863,20 @@
       <c r="M30" s="40"/>
     </row>
     <row r="31" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A31" s="54"/>
-      <c r="B31" s="51"/>
+      <c r="A31" s="45"/>
+      <c r="B31" s="48"/>
       <c r="C31" s="29">
         <v>6</v>
       </c>
-      <c r="D31" s="30"/>
-      <c r="E31" s="31"/>
-      <c r="F31" s="32"/>
+      <c r="D31" s="30">
+        <v>3</v>
+      </c>
+      <c r="E31" s="31">
+        <v>3</v>
+      </c>
+      <c r="F31" s="32">
+        <v>2</v>
+      </c>
       <c r="H31" s="40"/>
       <c r="I31" s="40"/>
       <c r="J31" s="40"/>
@@ -1801,14 +1885,20 @@
       <c r="M31" s="40"/>
     </row>
     <row r="32" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A32" s="54"/>
-      <c r="B32" s="51"/>
+      <c r="A32" s="45"/>
+      <c r="B32" s="48"/>
       <c r="C32" s="29" t="s">
         <v>7</v>
       </c>
-      <c r="D32" s="30"/>
-      <c r="E32" s="31"/>
-      <c r="F32" s="32"/>
+      <c r="D32" s="30">
+        <v>3</v>
+      </c>
+      <c r="E32" s="31">
+        <v>3</v>
+      </c>
+      <c r="F32" s="32">
+        <v>2</v>
+      </c>
       <c r="H32" s="40"/>
       <c r="I32" s="40"/>
       <c r="J32" s="40"/>
@@ -1817,14 +1907,20 @@
       <c r="M32" s="40"/>
     </row>
     <row r="33" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A33" s="54"/>
-      <c r="B33" s="51"/>
+      <c r="A33" s="45"/>
+      <c r="B33" s="48"/>
       <c r="C33" s="29" t="s">
         <v>8</v>
       </c>
-      <c r="D33" s="30"/>
-      <c r="E33" s="31"/>
-      <c r="F33" s="32"/>
+      <c r="D33" s="30">
+        <v>3</v>
+      </c>
+      <c r="E33" s="31">
+        <v>2</v>
+      </c>
+      <c r="F33" s="32">
+        <v>1</v>
+      </c>
       <c r="H33" s="40"/>
       <c r="I33" s="40"/>
       <c r="J33" s="40"/>
@@ -1833,14 +1929,20 @@
       <c r="M33" s="40"/>
     </row>
     <row r="34" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A34" s="54"/>
-      <c r="B34" s="51"/>
+      <c r="A34" s="45"/>
+      <c r="B34" s="48"/>
       <c r="C34" s="29">
         <v>8</v>
       </c>
-      <c r="D34" s="30"/>
-      <c r="E34" s="31"/>
-      <c r="F34" s="32"/>
+      <c r="D34" s="30">
+        <v>3</v>
+      </c>
+      <c r="E34" s="31">
+        <v>3</v>
+      </c>
+      <c r="F34" s="32">
+        <v>3</v>
+      </c>
       <c r="H34" s="40"/>
       <c r="I34" s="40"/>
       <c r="J34" s="40"/>
@@ -1849,14 +1951,20 @@
       <c r="M34" s="40"/>
     </row>
     <row r="35" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A35" s="54"/>
-      <c r="B35" s="51"/>
+      <c r="A35" s="45"/>
+      <c r="B35" s="48"/>
       <c r="C35" s="29">
         <v>9</v>
       </c>
-      <c r="D35" s="30"/>
-      <c r="E35" s="31"/>
-      <c r="F35" s="32"/>
+      <c r="D35" s="30">
+        <v>3</v>
+      </c>
+      <c r="E35" s="31">
+        <v>3</v>
+      </c>
+      <c r="F35" s="32">
+        <v>2</v>
+      </c>
       <c r="H35" s="40"/>
       <c r="I35" s="40"/>
       <c r="J35" s="40"/>
@@ -1865,14 +1973,20 @@
       <c r="M35" s="40"/>
     </row>
     <row r="36" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="55"/>
-      <c r="B36" s="52"/>
+      <c r="A36" s="46"/>
+      <c r="B36" s="49"/>
       <c r="C36" s="33">
         <v>10</v>
       </c>
-      <c r="D36" s="34"/>
-      <c r="E36" s="35"/>
-      <c r="F36" s="36"/>
+      <c r="D36" s="34">
+        <v>3</v>
+      </c>
+      <c r="E36" s="35">
+        <v>3</v>
+      </c>
+      <c r="F36" s="36">
+        <v>3</v>
+      </c>
       <c r="H36" s="40"/>
       <c r="I36" s="40"/>
       <c r="J36" s="40"/>
@@ -1881,17 +1995,23 @@
       <c r="M36" s="40"/>
     </row>
     <row r="37" spans="1:13" ht="25.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="56" t="s">
+      <c r="A37" s="59" t="s">
         <v>10</v>
       </c>
-      <c r="B37" s="57"/>
-      <c r="C37" s="58"/>
+      <c r="B37" s="60"/>
+      <c r="C37" s="61"/>
       <c r="D37" s="37">
         <f>SUM(D4:D36)</f>
-        <v>27</v>
-      </c>
-      <c r="E37" s="38"/>
-      <c r="F37" s="39"/>
+        <v>90</v>
+      </c>
+      <c r="E37" s="38">
+        <f>SUM(E4:E36)</f>
+        <v>91</v>
+      </c>
+      <c r="F37" s="39">
+        <f>SUM(F4:F36)</f>
+        <v>54</v>
+      </c>
       <c r="H37" s="40"/>
       <c r="I37" s="40"/>
       <c r="J37" s="40"/>
@@ -1990,6 +2110,7 @@
     </row>
   </sheetData>
   <mergeCells count="9">
+    <mergeCell ref="A37:C37"/>
     <mergeCell ref="H3:M3"/>
     <mergeCell ref="A26:A36"/>
     <mergeCell ref="B15:B25"/>
@@ -1998,7 +2119,6 @@
     <mergeCell ref="A4:A14"/>
     <mergeCell ref="B4:B14"/>
     <mergeCell ref="A15:A25"/>
-    <mergeCell ref="A37:C37"/>
   </mergeCells>
   <conditionalFormatting sqref="D4:F36">
     <cfRule type="colorScale" priority="46">

--- a/Group 1 - Final Report Project/4. Bang-danh-gia-thanh-vien_Nhom-1.xlsx
+++ b/Group 1 - Final Report Project/4. Bang-danh-gia-thanh-vien_Nhom-1.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ASUS\OneDrive\Documents\GitHub\Appu\Group 1 - Final Report Project\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Sy Nguyen\Documents\GitHub\Appu\Group 1 - Final Report Project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="59" documentId="6_{03AAF126-672A-4B44-908D-C3AA7810B0E5}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{8EA6BC96-4959-4445-8856-C3CD0F5DE631}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{96DCF43F-2534-4038-8603-7DAA41CEBD50}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -747,22 +747,31 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="5" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -774,31 +783,13 @@
     <xf numFmtId="0" fontId="8" fillId="5" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="3" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -808,11 +799,20 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="3" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Bình thường" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1195,8 +1195,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:O47"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A21" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D22" sqref="D22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1214,22 +1214,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="50" t="s">
+      <c r="A1" s="41" t="s">
         <v>15</v>
       </c>
-      <c r="B1" s="51"/>
-      <c r="C1" s="51"/>
-      <c r="D1" s="51"/>
-      <c r="E1" s="51"/>
-      <c r="F1" s="52"/>
+      <c r="B1" s="42"/>
+      <c r="C1" s="42"/>
+      <c r="D1" s="42"/>
+      <c r="E1" s="42"/>
+      <c r="F1" s="43"/>
     </row>
     <row r="2" spans="1:15" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="53"/>
-      <c r="B2" s="54"/>
-      <c r="C2" s="54"/>
-      <c r="D2" s="54"/>
-      <c r="E2" s="54"/>
-      <c r="F2" s="55"/>
+      <c r="A2" s="44"/>
+      <c r="B2" s="45"/>
+      <c r="C2" s="45"/>
+      <c r="D2" s="45"/>
+      <c r="E2" s="45"/>
+      <c r="F2" s="46"/>
       <c r="H2" s="40"/>
       <c r="I2" s="40"/>
       <c r="J2" s="40"/>
@@ -1256,30 +1256,28 @@
       <c r="F3" s="24" t="s">
         <v>5</v>
       </c>
-      <c r="H3" s="41" t="s">
+      <c r="H3" s="59" t="s">
         <v>9</v>
       </c>
-      <c r="I3" s="42"/>
-      <c r="J3" s="42"/>
-      <c r="K3" s="42"/>
-      <c r="L3" s="42"/>
-      <c r="M3" s="43"/>
+      <c r="I3" s="60"/>
+      <c r="J3" s="60"/>
+      <c r="K3" s="60"/>
+      <c r="L3" s="60"/>
+      <c r="M3" s="61"/>
       <c r="N3" s="5"/>
       <c r="O3" s="5"/>
     </row>
     <row r="4" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="56">
+      <c r="A4" s="47">
         <v>1</v>
       </c>
-      <c r="B4" s="47" t="s">
+      <c r="B4" s="50" t="s">
         <v>1</v>
       </c>
       <c r="C4" s="25">
         <v>1</v>
       </c>
-      <c r="D4" s="26">
-        <v>3</v>
-      </c>
+      <c r="D4" s="26"/>
       <c r="E4" s="27">
         <v>3</v>
       </c>
@@ -1294,14 +1292,12 @@
       <c r="M4" s="40"/>
     </row>
     <row r="5" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="57"/>
-      <c r="B5" s="48"/>
+      <c r="A5" s="48"/>
+      <c r="B5" s="51"/>
       <c r="C5" s="29">
         <v>2</v>
       </c>
-      <c r="D5" s="30">
-        <v>3</v>
-      </c>
+      <c r="D5" s="30"/>
       <c r="E5" s="31">
         <v>3</v>
       </c>
@@ -1316,14 +1312,12 @@
       <c r="M5" s="40"/>
     </row>
     <row r="6" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="57"/>
-      <c r="B6" s="48"/>
+      <c r="A6" s="48"/>
+      <c r="B6" s="51"/>
       <c r="C6" s="29">
         <v>3</v>
       </c>
-      <c r="D6" s="30">
-        <v>3</v>
-      </c>
+      <c r="D6" s="30"/>
       <c r="E6" s="31">
         <v>3</v>
       </c>
@@ -1339,14 +1333,12 @@
       <c r="M6" s="40"/>
     </row>
     <row r="7" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="57"/>
-      <c r="B7" s="48"/>
+      <c r="A7" s="48"/>
+      <c r="B7" s="51"/>
       <c r="C7" s="29">
         <v>4</v>
       </c>
-      <c r="D7" s="30">
-        <v>2</v>
-      </c>
+      <c r="D7" s="30"/>
       <c r="E7" s="31">
         <v>3</v>
       </c>
@@ -1361,14 +1353,12 @@
       <c r="M7" s="40"/>
     </row>
     <row r="8" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="57"/>
-      <c r="B8" s="48"/>
+      <c r="A8" s="48"/>
+      <c r="B8" s="51"/>
       <c r="C8" s="29">
         <v>5</v>
       </c>
-      <c r="D8" s="30">
-        <v>3</v>
-      </c>
+      <c r="D8" s="30"/>
       <c r="E8" s="31">
         <v>3</v>
       </c>
@@ -1383,14 +1373,12 @@
       <c r="M8" s="40"/>
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A9" s="57"/>
-      <c r="B9" s="48"/>
+      <c r="A9" s="48"/>
+      <c r="B9" s="51"/>
       <c r="C9" s="29">
         <v>6</v>
       </c>
-      <c r="D9" s="30">
-        <v>3</v>
-      </c>
+      <c r="D9" s="30"/>
       <c r="E9" s="31">
         <v>3</v>
       </c>
@@ -1405,20 +1393,14 @@
       <c r="M9" s="40"/>
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A10" s="57"/>
-      <c r="B10" s="48"/>
+      <c r="A10" s="48"/>
+      <c r="B10" s="51"/>
       <c r="C10" s="29" t="s">
         <v>7</v>
       </c>
-      <c r="D10" s="30">
-        <v>3</v>
-      </c>
-      <c r="E10" s="31">
-        <v>3</v>
-      </c>
-      <c r="F10" s="32">
-        <v>2</v>
-      </c>
+      <c r="D10" s="30"/>
+      <c r="E10" s="31"/>
+      <c r="F10" s="32"/>
       <c r="H10" s="40"/>
       <c r="I10" s="40"/>
       <c r="J10" s="40"/>
@@ -1427,20 +1409,14 @@
       <c r="M10" s="40"/>
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A11" s="57"/>
-      <c r="B11" s="48"/>
+      <c r="A11" s="48"/>
+      <c r="B11" s="51"/>
       <c r="C11" s="29" t="s">
         <v>8</v>
       </c>
-      <c r="D11" s="30">
-        <v>2</v>
-      </c>
-      <c r="E11" s="31">
-        <v>2</v>
-      </c>
-      <c r="F11" s="32">
-        <v>1</v>
-      </c>
+      <c r="D11" s="30"/>
+      <c r="E11" s="31"/>
+      <c r="F11" s="32"/>
       <c r="H11" s="40"/>
       <c r="I11" s="40"/>
       <c r="J11" s="40"/>
@@ -1449,14 +1425,12 @@
       <c r="M11" s="40"/>
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A12" s="57"/>
-      <c r="B12" s="48"/>
+      <c r="A12" s="48"/>
+      <c r="B12" s="51"/>
       <c r="C12" s="29">
         <v>8</v>
       </c>
-      <c r="D12" s="30">
-        <v>3</v>
-      </c>
+      <c r="D12" s="30"/>
       <c r="E12" s="31">
         <v>3</v>
       </c>
@@ -1471,14 +1445,12 @@
       <c r="M12" s="40"/>
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A13" s="57"/>
-      <c r="B13" s="48"/>
+      <c r="A13" s="48"/>
+      <c r="B13" s="51"/>
       <c r="C13" s="29">
         <v>9</v>
       </c>
-      <c r="D13" s="30">
-        <v>3</v>
-      </c>
+      <c r="D13" s="30"/>
       <c r="E13" s="31">
         <v>3</v>
       </c>
@@ -1493,14 +1465,12 @@
       <c r="M13" s="40"/>
     </row>
     <row r="14" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="58"/>
-      <c r="B14" s="49"/>
+      <c r="A14" s="49"/>
+      <c r="B14" s="52"/>
       <c r="C14" s="33">
         <v>10</v>
       </c>
-      <c r="D14" s="34">
-        <v>2</v>
-      </c>
+      <c r="D14" s="34"/>
       <c r="E14" s="35">
         <v>3</v>
       </c>
@@ -1515,10 +1485,10 @@
       <c r="M14" s="40"/>
     </row>
     <row r="15" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="44">
+      <c r="A15" s="53">
         <v>2</v>
       </c>
-      <c r="B15" s="47" t="s">
+      <c r="B15" s="50" t="s">
         <v>16</v>
       </c>
       <c r="C15" s="25">
@@ -1527,9 +1497,7 @@
       <c r="D15" s="26">
         <v>3</v>
       </c>
-      <c r="E15" s="27">
-        <v>3</v>
-      </c>
+      <c r="E15" s="27"/>
       <c r="F15" s="28">
         <v>2</v>
       </c>
@@ -1541,17 +1509,15 @@
       <c r="M15" s="40"/>
     </row>
     <row r="16" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A16" s="45"/>
-      <c r="B16" s="48"/>
+      <c r="A16" s="54"/>
+      <c r="B16" s="51"/>
       <c r="C16" s="29">
         <v>2</v>
       </c>
       <c r="D16" s="30">
         <v>3</v>
       </c>
-      <c r="E16" s="31">
-        <v>3</v>
-      </c>
+      <c r="E16" s="31"/>
       <c r="F16" s="32">
         <v>2</v>
       </c>
@@ -1563,17 +1529,15 @@
       <c r="M16" s="40"/>
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A17" s="45"/>
-      <c r="B17" s="48"/>
+      <c r="A17" s="54"/>
+      <c r="B17" s="51"/>
       <c r="C17" s="29">
         <v>3</v>
       </c>
       <c r="D17" s="30">
         <v>3</v>
       </c>
-      <c r="E17" s="31">
-        <v>3</v>
-      </c>
+      <c r="E17" s="31"/>
       <c r="F17" s="32">
         <v>1</v>
       </c>
@@ -1585,17 +1549,15 @@
       <c r="M17" s="40"/>
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A18" s="45"/>
-      <c r="B18" s="48"/>
+      <c r="A18" s="54"/>
+      <c r="B18" s="51"/>
       <c r="C18" s="29">
         <v>4</v>
       </c>
       <c r="D18" s="30">
         <v>3</v>
       </c>
-      <c r="E18" s="31">
-        <v>3</v>
-      </c>
+      <c r="E18" s="31"/>
       <c r="F18" s="32">
         <v>1</v>
       </c>
@@ -1607,17 +1569,15 @@
       <c r="M18" s="40"/>
     </row>
     <row r="19" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A19" s="45"/>
-      <c r="B19" s="48"/>
+      <c r="A19" s="54"/>
+      <c r="B19" s="51"/>
       <c r="C19" s="29">
         <v>5</v>
       </c>
       <c r="D19" s="30">
         <v>3</v>
       </c>
-      <c r="E19" s="31">
-        <v>3</v>
-      </c>
+      <c r="E19" s="31"/>
       <c r="F19" s="32">
         <v>1</v>
       </c>
@@ -1629,17 +1589,15 @@
       <c r="M19" s="40"/>
     </row>
     <row r="20" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A20" s="45"/>
-      <c r="B20" s="48"/>
+      <c r="A20" s="54"/>
+      <c r="B20" s="51"/>
       <c r="C20" s="29">
         <v>6</v>
       </c>
       <c r="D20" s="30">
         <v>3</v>
       </c>
-      <c r="E20" s="31">
-        <v>3</v>
-      </c>
+      <c r="E20" s="31"/>
       <c r="F20" s="32">
         <v>1</v>
       </c>
@@ -1651,8 +1609,8 @@
       <c r="M20" s="40"/>
     </row>
     <row r="21" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A21" s="45"/>
-      <c r="B21" s="48"/>
+      <c r="A21" s="54"/>
+      <c r="B21" s="51"/>
       <c r="C21" s="29" t="s">
         <v>7</v>
       </c>
@@ -1667,8 +1625,8 @@
       <c r="M21" s="40"/>
     </row>
     <row r="22" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A22" s="45"/>
-      <c r="B22" s="48"/>
+      <c r="A22" s="54"/>
+      <c r="B22" s="51"/>
       <c r="C22" s="29" t="s">
         <v>8</v>
       </c>
@@ -1683,17 +1641,15 @@
       <c r="M22" s="40"/>
     </row>
     <row r="23" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A23" s="45"/>
-      <c r="B23" s="48"/>
+      <c r="A23" s="54"/>
+      <c r="B23" s="51"/>
       <c r="C23" s="29">
         <v>8</v>
       </c>
       <c r="D23" s="30">
         <v>3</v>
       </c>
-      <c r="E23" s="31">
-        <v>3</v>
-      </c>
+      <c r="E23" s="31"/>
       <c r="F23" s="32">
         <v>2</v>
       </c>
@@ -1705,17 +1661,15 @@
       <c r="M23" s="40"/>
     </row>
     <row r="24" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A24" s="45"/>
-      <c r="B24" s="48"/>
+      <c r="A24" s="54"/>
+      <c r="B24" s="51"/>
       <c r="C24" s="29">
         <v>9</v>
       </c>
       <c r="D24" s="30">
         <v>3</v>
       </c>
-      <c r="E24" s="31">
-        <v>3</v>
-      </c>
+      <c r="E24" s="31"/>
       <c r="F24" s="32">
         <v>1</v>
       </c>
@@ -1727,17 +1681,15 @@
       <c r="M24" s="40"/>
     </row>
     <row r="25" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="46"/>
-      <c r="B25" s="49"/>
+      <c r="A25" s="55"/>
+      <c r="B25" s="52"/>
       <c r="C25" s="33">
         <v>10</v>
       </c>
       <c r="D25" s="34">
         <v>3</v>
       </c>
-      <c r="E25" s="35">
-        <v>3</v>
-      </c>
+      <c r="E25" s="35"/>
       <c r="F25" s="36">
         <v>1</v>
       </c>
@@ -1749,24 +1701,18 @@
       <c r="M25" s="40"/>
     </row>
     <row r="26" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="44">
-        <v>3</v>
-      </c>
-      <c r="B26" s="47" t="s">
+      <c r="A26" s="53">
+        <v>3</v>
+      </c>
+      <c r="B26" s="50" t="s">
         <v>2</v>
       </c>
       <c r="C26" s="25">
         <v>1</v>
       </c>
-      <c r="D26" s="26">
-        <v>3</v>
-      </c>
-      <c r="E26" s="27">
-        <v>3</v>
-      </c>
-      <c r="F26" s="28">
-        <v>2</v>
-      </c>
+      <c r="D26" s="26"/>
+      <c r="E26" s="27"/>
+      <c r="F26" s="28"/>
       <c r="H26" s="40"/>
       <c r="I26" s="40"/>
       <c r="J26" s="40"/>
@@ -1775,20 +1721,14 @@
       <c r="M26" s="40"/>
     </row>
     <row r="27" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A27" s="45"/>
-      <c r="B27" s="48"/>
+      <c r="A27" s="54"/>
+      <c r="B27" s="51"/>
       <c r="C27" s="29">
         <v>2</v>
       </c>
-      <c r="D27" s="30">
-        <v>3</v>
-      </c>
-      <c r="E27" s="31">
-        <v>3</v>
-      </c>
-      <c r="F27" s="32">
-        <v>2</v>
-      </c>
+      <c r="D27" s="30"/>
+      <c r="E27" s="31"/>
+      <c r="F27" s="32"/>
       <c r="H27" s="40"/>
       <c r="I27" s="40"/>
       <c r="J27" s="40"/>
@@ -1797,20 +1737,14 @@
       <c r="M27" s="40"/>
     </row>
     <row r="28" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A28" s="45"/>
-      <c r="B28" s="48"/>
+      <c r="A28" s="54"/>
+      <c r="B28" s="51"/>
       <c r="C28" s="29">
         <v>3</v>
       </c>
-      <c r="D28" s="30">
-        <v>3</v>
-      </c>
-      <c r="E28" s="31">
-        <v>3</v>
-      </c>
-      <c r="F28" s="32">
-        <v>2</v>
-      </c>
+      <c r="D28" s="30"/>
+      <c r="E28" s="31"/>
+      <c r="F28" s="32"/>
       <c r="H28" s="40"/>
       <c r="I28" s="40"/>
       <c r="J28" s="40"/>
@@ -1819,20 +1753,14 @@
       <c r="M28" s="40"/>
     </row>
     <row r="29" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A29" s="45"/>
-      <c r="B29" s="48"/>
+      <c r="A29" s="54"/>
+      <c r="B29" s="51"/>
       <c r="C29" s="29">
         <v>4</v>
       </c>
-      <c r="D29" s="30">
-        <v>3</v>
-      </c>
-      <c r="E29" s="31">
-        <v>3</v>
-      </c>
-      <c r="F29" s="32">
-        <v>2</v>
-      </c>
+      <c r="D29" s="30"/>
+      <c r="E29" s="31"/>
+      <c r="F29" s="32"/>
       <c r="H29" s="40"/>
       <c r="I29" s="40"/>
       <c r="J29" s="40"/>
@@ -1841,20 +1769,14 @@
       <c r="M29" s="40"/>
     </row>
     <row r="30" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A30" s="45"/>
-      <c r="B30" s="48"/>
+      <c r="A30" s="54"/>
+      <c r="B30" s="51"/>
       <c r="C30" s="29">
         <v>5</v>
       </c>
-      <c r="D30" s="30">
-        <v>3</v>
-      </c>
-      <c r="E30" s="31">
-        <v>3</v>
-      </c>
-      <c r="F30" s="32">
-        <v>3</v>
-      </c>
+      <c r="D30" s="30"/>
+      <c r="E30" s="31"/>
+      <c r="F30" s="32"/>
       <c r="H30" s="40"/>
       <c r="I30" s="40"/>
       <c r="J30" s="40"/>
@@ -1863,20 +1785,14 @@
       <c r="M30" s="40"/>
     </row>
     <row r="31" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A31" s="45"/>
-      <c r="B31" s="48"/>
+      <c r="A31" s="54"/>
+      <c r="B31" s="51"/>
       <c r="C31" s="29">
         <v>6</v>
       </c>
-      <c r="D31" s="30">
-        <v>3</v>
-      </c>
-      <c r="E31" s="31">
-        <v>3</v>
-      </c>
-      <c r="F31" s="32">
-        <v>2</v>
-      </c>
+      <c r="D31" s="30"/>
+      <c r="E31" s="31"/>
+      <c r="F31" s="32"/>
       <c r="H31" s="40"/>
       <c r="I31" s="40"/>
       <c r="J31" s="40"/>
@@ -1885,20 +1801,14 @@
       <c r="M31" s="40"/>
     </row>
     <row r="32" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A32" s="45"/>
-      <c r="B32" s="48"/>
+      <c r="A32" s="54"/>
+      <c r="B32" s="51"/>
       <c r="C32" s="29" t="s">
         <v>7</v>
       </c>
-      <c r="D32" s="30">
-        <v>3</v>
-      </c>
-      <c r="E32" s="31">
-        <v>3</v>
-      </c>
-      <c r="F32" s="32">
-        <v>2</v>
-      </c>
+      <c r="D32" s="30"/>
+      <c r="E32" s="31"/>
+      <c r="F32" s="32"/>
       <c r="H32" s="40"/>
       <c r="I32" s="40"/>
       <c r="J32" s="40"/>
@@ -1907,20 +1817,14 @@
       <c r="M32" s="40"/>
     </row>
     <row r="33" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A33" s="45"/>
-      <c r="B33" s="48"/>
+      <c r="A33" s="54"/>
+      <c r="B33" s="51"/>
       <c r="C33" s="29" t="s">
         <v>8</v>
       </c>
-      <c r="D33" s="30">
-        <v>3</v>
-      </c>
-      <c r="E33" s="31">
-        <v>2</v>
-      </c>
-      <c r="F33" s="32">
-        <v>1</v>
-      </c>
+      <c r="D33" s="30"/>
+      <c r="E33" s="31"/>
+      <c r="F33" s="32"/>
       <c r="H33" s="40"/>
       <c r="I33" s="40"/>
       <c r="J33" s="40"/>
@@ -1929,20 +1833,14 @@
       <c r="M33" s="40"/>
     </row>
     <row r="34" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A34" s="45"/>
-      <c r="B34" s="48"/>
+      <c r="A34" s="54"/>
+      <c r="B34" s="51"/>
       <c r="C34" s="29">
         <v>8</v>
       </c>
-      <c r="D34" s="30">
-        <v>3</v>
-      </c>
-      <c r="E34" s="31">
-        <v>3</v>
-      </c>
-      <c r="F34" s="32">
-        <v>3</v>
-      </c>
+      <c r="D34" s="30"/>
+      <c r="E34" s="31"/>
+      <c r="F34" s="32"/>
       <c r="H34" s="40"/>
       <c r="I34" s="40"/>
       <c r="J34" s="40"/>
@@ -1951,20 +1849,14 @@
       <c r="M34" s="40"/>
     </row>
     <row r="35" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A35" s="45"/>
-      <c r="B35" s="48"/>
+      <c r="A35" s="54"/>
+      <c r="B35" s="51"/>
       <c r="C35" s="29">
         <v>9</v>
       </c>
-      <c r="D35" s="30">
-        <v>3</v>
-      </c>
-      <c r="E35" s="31">
-        <v>3</v>
-      </c>
-      <c r="F35" s="32">
-        <v>2</v>
-      </c>
+      <c r="D35" s="30"/>
+      <c r="E35" s="31"/>
+      <c r="F35" s="32"/>
       <c r="H35" s="40"/>
       <c r="I35" s="40"/>
       <c r="J35" s="40"/>
@@ -1973,20 +1865,14 @@
       <c r="M35" s="40"/>
     </row>
     <row r="36" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="46"/>
-      <c r="B36" s="49"/>
+      <c r="A36" s="55"/>
+      <c r="B36" s="52"/>
       <c r="C36" s="33">
         <v>10</v>
       </c>
-      <c r="D36" s="34">
-        <v>3</v>
-      </c>
-      <c r="E36" s="35">
-        <v>3</v>
-      </c>
-      <c r="F36" s="36">
-        <v>3</v>
-      </c>
+      <c r="D36" s="34"/>
+      <c r="E36" s="35"/>
+      <c r="F36" s="36"/>
       <c r="H36" s="40"/>
       <c r="I36" s="40"/>
       <c r="J36" s="40"/>
@@ -1995,23 +1881,17 @@
       <c r="M36" s="40"/>
     </row>
     <row r="37" spans="1:13" ht="25.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="59" t="s">
+      <c r="A37" s="56" t="s">
         <v>10</v>
       </c>
-      <c r="B37" s="60"/>
-      <c r="C37" s="61"/>
+      <c r="B37" s="57"/>
+      <c r="C37" s="58"/>
       <c r="D37" s="37">
         <f>SUM(D4:D36)</f>
-        <v>90</v>
-      </c>
-      <c r="E37" s="38">
-        <f>SUM(E4:E36)</f>
-        <v>91</v>
-      </c>
-      <c r="F37" s="39">
-        <f>SUM(F4:F36)</f>
-        <v>54</v>
-      </c>
+        <v>27</v>
+      </c>
+      <c r="E37" s="38"/>
+      <c r="F37" s="39"/>
       <c r="H37" s="40"/>
       <c r="I37" s="40"/>
       <c r="J37" s="40"/>
@@ -2110,7 +1990,6 @@
     </row>
   </sheetData>
   <mergeCells count="9">
-    <mergeCell ref="A37:C37"/>
     <mergeCell ref="H3:M3"/>
     <mergeCell ref="A26:A36"/>
     <mergeCell ref="B15:B25"/>
@@ -2119,6 +1998,7 @@
     <mergeCell ref="A4:A14"/>
     <mergeCell ref="B4:B14"/>
     <mergeCell ref="A15:A25"/>
+    <mergeCell ref="A37:C37"/>
   </mergeCells>
   <conditionalFormatting sqref="D4:F36">
     <cfRule type="colorScale" priority="46">

--- a/Group 1 - Final Report Project/4. Bang-danh-gia-thanh-vien_Nhom-1.xlsx
+++ b/Group 1 - Final Report Project/4. Bang-danh-gia-thanh-vien_Nhom-1.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Sy Nguyen\Documents\GitHub\Appu\Group 1 - Final Report Project\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Studying\2018 - 2019\HKII\Java Programming\Project\Group 1 - Final Report Project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{96DCF43F-2534-4038-8603-7DAA41CEBD50}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7AFD546A-2B99-4BD9-A599-673B210B12AF}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="20">
   <si>
     <t>STT</t>
   </si>
@@ -83,6 +83,15 @@
   <si>
     <t>Nguyễn Hồng 
 Sỹ Nguyên</t>
+  </si>
+  <si>
+    <t>98/99</t>
+  </si>
+  <si>
+    <t>97/99</t>
+  </si>
+  <si>
+    <t>65/99</t>
   </si>
 </sst>
 </file>
@@ -747,31 +756,22 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="5" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -783,13 +783,31 @@
     <xf numFmtId="0" fontId="8" fillId="5" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="3" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -799,20 +817,11 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="3" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Bình thường" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1195,8 +1204,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:O47"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D22" sqref="D22"/>
+    <sheetView tabSelected="1" topLeftCell="A31" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="K48" sqref="K48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1214,22 +1223,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="41" t="s">
+      <c r="A1" s="50" t="s">
         <v>15</v>
       </c>
-      <c r="B1" s="42"/>
-      <c r="C1" s="42"/>
-      <c r="D1" s="42"/>
-      <c r="E1" s="42"/>
-      <c r="F1" s="43"/>
+      <c r="B1" s="51"/>
+      <c r="C1" s="51"/>
+      <c r="D1" s="51"/>
+      <c r="E1" s="51"/>
+      <c r="F1" s="52"/>
     </row>
     <row r="2" spans="1:15" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="44"/>
-      <c r="B2" s="45"/>
-      <c r="C2" s="45"/>
-      <c r="D2" s="45"/>
-      <c r="E2" s="45"/>
-      <c r="F2" s="46"/>
+      <c r="A2" s="53"/>
+      <c r="B2" s="54"/>
+      <c r="C2" s="54"/>
+      <c r="D2" s="54"/>
+      <c r="E2" s="54"/>
+      <c r="F2" s="55"/>
       <c r="H2" s="40"/>
       <c r="I2" s="40"/>
       <c r="J2" s="40"/>
@@ -1256,28 +1265,30 @@
       <c r="F3" s="24" t="s">
         <v>5</v>
       </c>
-      <c r="H3" s="59" t="s">
+      <c r="H3" s="41" t="s">
         <v>9</v>
       </c>
-      <c r="I3" s="60"/>
-      <c r="J3" s="60"/>
-      <c r="K3" s="60"/>
-      <c r="L3" s="60"/>
-      <c r="M3" s="61"/>
+      <c r="I3" s="42"/>
+      <c r="J3" s="42"/>
+      <c r="K3" s="42"/>
+      <c r="L3" s="42"/>
+      <c r="M3" s="43"/>
       <c r="N3" s="5"/>
       <c r="O3" s="5"/>
     </row>
     <row r="4" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="47">
+      <c r="A4" s="56">
         <v>1</v>
       </c>
-      <c r="B4" s="50" t="s">
+      <c r="B4" s="47" t="s">
         <v>1</v>
       </c>
       <c r="C4" s="25">
         <v>1</v>
       </c>
-      <c r="D4" s="26"/>
+      <c r="D4" s="26">
+        <v>3</v>
+      </c>
       <c r="E4" s="27">
         <v>3</v>
       </c>
@@ -1292,12 +1303,14 @@
       <c r="M4" s="40"/>
     </row>
     <row r="5" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="48"/>
-      <c r="B5" s="51"/>
+      <c r="A5" s="57"/>
+      <c r="B5" s="48"/>
       <c r="C5" s="29">
         <v>2</v>
       </c>
-      <c r="D5" s="30"/>
+      <c r="D5" s="30">
+        <v>3</v>
+      </c>
       <c r="E5" s="31">
         <v>3</v>
       </c>
@@ -1312,17 +1325,19 @@
       <c r="M5" s="40"/>
     </row>
     <row r="6" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="48"/>
-      <c r="B6" s="51"/>
+      <c r="A6" s="57"/>
+      <c r="B6" s="48"/>
       <c r="C6" s="29">
         <v>3</v>
       </c>
-      <c r="D6" s="30"/>
+      <c r="D6" s="30">
+        <v>3</v>
+      </c>
       <c r="E6" s="31">
         <v>3</v>
       </c>
       <c r="F6" s="32">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G6" s="4"/>
       <c r="H6" s="40"/>
@@ -1333,12 +1348,14 @@
       <c r="M6" s="40"/>
     </row>
     <row r="7" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="48"/>
-      <c r="B7" s="51"/>
+      <c r="A7" s="57"/>
+      <c r="B7" s="48"/>
       <c r="C7" s="29">
         <v>4</v>
       </c>
-      <c r="D7" s="30"/>
+      <c r="D7" s="30">
+        <v>3</v>
+      </c>
       <c r="E7" s="31">
         <v>3</v>
       </c>
@@ -1353,17 +1370,19 @@
       <c r="M7" s="40"/>
     </row>
     <row r="8" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="48"/>
-      <c r="B8" s="51"/>
+      <c r="A8" s="57"/>
+      <c r="B8" s="48"/>
       <c r="C8" s="29">
         <v>5</v>
       </c>
-      <c r="D8" s="30"/>
+      <c r="D8" s="30">
+        <v>3</v>
+      </c>
       <c r="E8" s="31">
         <v>3</v>
       </c>
       <c r="F8" s="32">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H8" s="40"/>
       <c r="I8" s="40"/>
@@ -1373,17 +1392,19 @@
       <c r="M8" s="40"/>
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A9" s="48"/>
-      <c r="B9" s="51"/>
+      <c r="A9" s="57"/>
+      <c r="B9" s="48"/>
       <c r="C9" s="29">
         <v>6</v>
       </c>
-      <c r="D9" s="30"/>
+      <c r="D9" s="30">
+        <v>3</v>
+      </c>
       <c r="E9" s="31">
         <v>3</v>
       </c>
       <c r="F9" s="32">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H9" s="40"/>
       <c r="I9" s="40"/>
@@ -1393,14 +1414,20 @@
       <c r="M9" s="40"/>
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A10" s="48"/>
-      <c r="B10" s="51"/>
+      <c r="A10" s="57"/>
+      <c r="B10" s="48"/>
       <c r="C10" s="29" t="s">
         <v>7</v>
       </c>
-      <c r="D10" s="30"/>
-      <c r="E10" s="31"/>
-      <c r="F10" s="32"/>
+      <c r="D10" s="30">
+        <v>3</v>
+      </c>
+      <c r="E10" s="31">
+        <v>3</v>
+      </c>
+      <c r="F10" s="32">
+        <v>3</v>
+      </c>
       <c r="H10" s="40"/>
       <c r="I10" s="40"/>
       <c r="J10" s="40"/>
@@ -1409,14 +1436,20 @@
       <c r="M10" s="40"/>
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A11" s="48"/>
-      <c r="B11" s="51"/>
+      <c r="A11" s="57"/>
+      <c r="B11" s="48"/>
       <c r="C11" s="29" t="s">
         <v>8</v>
       </c>
-      <c r="D11" s="30"/>
-      <c r="E11" s="31"/>
-      <c r="F11" s="32"/>
+      <c r="D11" s="30">
+        <v>2</v>
+      </c>
+      <c r="E11" s="31">
+        <v>2</v>
+      </c>
+      <c r="F11" s="32">
+        <v>2</v>
+      </c>
       <c r="H11" s="40"/>
       <c r="I11" s="40"/>
       <c r="J11" s="40"/>
@@ -1425,12 +1458,14 @@
       <c r="M11" s="40"/>
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A12" s="48"/>
-      <c r="B12" s="51"/>
+      <c r="A12" s="57"/>
+      <c r="B12" s="48"/>
       <c r="C12" s="29">
         <v>8</v>
       </c>
-      <c r="D12" s="30"/>
+      <c r="D12" s="30">
+        <v>3</v>
+      </c>
       <c r="E12" s="31">
         <v>3</v>
       </c>
@@ -1445,12 +1480,14 @@
       <c r="M12" s="40"/>
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A13" s="48"/>
-      <c r="B13" s="51"/>
+      <c r="A13" s="57"/>
+      <c r="B13" s="48"/>
       <c r="C13" s="29">
         <v>9</v>
       </c>
-      <c r="D13" s="30"/>
+      <c r="D13" s="30">
+        <v>3</v>
+      </c>
       <c r="E13" s="31">
         <v>3</v>
       </c>
@@ -1465,17 +1502,19 @@
       <c r="M13" s="40"/>
     </row>
     <row r="14" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="49"/>
-      <c r="B14" s="52"/>
+      <c r="A14" s="58"/>
+      <c r="B14" s="49"/>
       <c r="C14" s="33">
         <v>10</v>
       </c>
-      <c r="D14" s="34"/>
+      <c r="D14" s="34">
+        <v>3</v>
+      </c>
       <c r="E14" s="35">
         <v>3</v>
       </c>
       <c r="F14" s="36">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H14" s="40"/>
       <c r="I14" s="40"/>
@@ -1485,10 +1524,10 @@
       <c r="M14" s="40"/>
     </row>
     <row r="15" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="53">
-        <v>2</v>
-      </c>
-      <c r="B15" s="50" t="s">
+      <c r="A15" s="44">
+        <v>2</v>
+      </c>
+      <c r="B15" s="47" t="s">
         <v>16</v>
       </c>
       <c r="C15" s="25">
@@ -1497,7 +1536,9 @@
       <c r="D15" s="26">
         <v>3</v>
       </c>
-      <c r="E15" s="27"/>
+      <c r="E15" s="27">
+        <v>3</v>
+      </c>
       <c r="F15" s="28">
         <v>2</v>
       </c>
@@ -1509,15 +1550,17 @@
       <c r="M15" s="40"/>
     </row>
     <row r="16" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A16" s="54"/>
-      <c r="B16" s="51"/>
+      <c r="A16" s="45"/>
+      <c r="B16" s="48"/>
       <c r="C16" s="29">
         <v>2</v>
       </c>
       <c r="D16" s="30">
         <v>3</v>
       </c>
-      <c r="E16" s="31"/>
+      <c r="E16" s="31">
+        <v>3</v>
+      </c>
       <c r="F16" s="32">
         <v>2</v>
       </c>
@@ -1529,15 +1572,17 @@
       <c r="M16" s="40"/>
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A17" s="54"/>
-      <c r="B17" s="51"/>
+      <c r="A17" s="45"/>
+      <c r="B17" s="48"/>
       <c r="C17" s="29">
         <v>3</v>
       </c>
       <c r="D17" s="30">
         <v>3</v>
       </c>
-      <c r="E17" s="31"/>
+      <c r="E17" s="31">
+        <v>3</v>
+      </c>
       <c r="F17" s="32">
         <v>1</v>
       </c>
@@ -1549,15 +1594,17 @@
       <c r="M17" s="40"/>
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A18" s="54"/>
-      <c r="B18" s="51"/>
+      <c r="A18" s="45"/>
+      <c r="B18" s="48"/>
       <c r="C18" s="29">
         <v>4</v>
       </c>
       <c r="D18" s="30">
         <v>3</v>
       </c>
-      <c r="E18" s="31"/>
+      <c r="E18" s="31">
+        <v>3</v>
+      </c>
       <c r="F18" s="32">
         <v>1</v>
       </c>
@@ -1569,15 +1616,17 @@
       <c r="M18" s="40"/>
     </row>
     <row r="19" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A19" s="54"/>
-      <c r="B19" s="51"/>
+      <c r="A19" s="45"/>
+      <c r="B19" s="48"/>
       <c r="C19" s="29">
         <v>5</v>
       </c>
       <c r="D19" s="30">
         <v>3</v>
       </c>
-      <c r="E19" s="31"/>
+      <c r="E19" s="31">
+        <v>3</v>
+      </c>
       <c r="F19" s="32">
         <v>1</v>
       </c>
@@ -1589,15 +1638,17 @@
       <c r="M19" s="40"/>
     </row>
     <row r="20" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A20" s="54"/>
-      <c r="B20" s="51"/>
+      <c r="A20" s="45"/>
+      <c r="B20" s="48"/>
       <c r="C20" s="29">
         <v>6</v>
       </c>
       <c r="D20" s="30">
         <v>3</v>
       </c>
-      <c r="E20" s="31"/>
+      <c r="E20" s="31">
+        <v>3</v>
+      </c>
       <c r="F20" s="32">
         <v>1</v>
       </c>
@@ -1609,14 +1660,20 @@
       <c r="M20" s="40"/>
     </row>
     <row r="21" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A21" s="54"/>
-      <c r="B21" s="51"/>
+      <c r="A21" s="45"/>
+      <c r="B21" s="48"/>
       <c r="C21" s="29" t="s">
         <v>7</v>
       </c>
-      <c r="D21" s="30"/>
-      <c r="E21" s="31"/>
-      <c r="F21" s="32"/>
+      <c r="D21" s="30">
+        <v>3</v>
+      </c>
+      <c r="E21" s="31">
+        <v>3</v>
+      </c>
+      <c r="F21" s="32">
+        <v>3</v>
+      </c>
       <c r="H21" s="40"/>
       <c r="I21" s="40"/>
       <c r="J21" s="40"/>
@@ -1625,14 +1682,20 @@
       <c r="M21" s="40"/>
     </row>
     <row r="22" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A22" s="54"/>
-      <c r="B22" s="51"/>
+      <c r="A22" s="45"/>
+      <c r="B22" s="48"/>
       <c r="C22" s="29" t="s">
         <v>8</v>
       </c>
-      <c r="D22" s="30"/>
-      <c r="E22" s="31"/>
-      <c r="F22" s="32"/>
+      <c r="D22" s="30">
+        <v>3</v>
+      </c>
+      <c r="E22" s="31">
+        <v>3</v>
+      </c>
+      <c r="F22" s="32">
+        <v>2</v>
+      </c>
       <c r="H22" s="40"/>
       <c r="I22" s="40"/>
       <c r="J22" s="40"/>
@@ -1641,15 +1704,17 @@
       <c r="M22" s="40"/>
     </row>
     <row r="23" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A23" s="54"/>
-      <c r="B23" s="51"/>
+      <c r="A23" s="45"/>
+      <c r="B23" s="48"/>
       <c r="C23" s="29">
         <v>8</v>
       </c>
       <c r="D23" s="30">
         <v>3</v>
       </c>
-      <c r="E23" s="31"/>
+      <c r="E23" s="31">
+        <v>3</v>
+      </c>
       <c r="F23" s="32">
         <v>2</v>
       </c>
@@ -1661,15 +1726,17 @@
       <c r="M23" s="40"/>
     </row>
     <row r="24" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A24" s="54"/>
-      <c r="B24" s="51"/>
+      <c r="A24" s="45"/>
+      <c r="B24" s="48"/>
       <c r="C24" s="29">
         <v>9</v>
       </c>
       <c r="D24" s="30">
         <v>3</v>
       </c>
-      <c r="E24" s="31"/>
+      <c r="E24" s="31">
+        <v>3</v>
+      </c>
       <c r="F24" s="32">
         <v>1</v>
       </c>
@@ -1681,15 +1748,17 @@
       <c r="M24" s="40"/>
     </row>
     <row r="25" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="55"/>
-      <c r="B25" s="52"/>
+      <c r="A25" s="46"/>
+      <c r="B25" s="49"/>
       <c r="C25" s="33">
         <v>10</v>
       </c>
       <c r="D25" s="34">
         <v>3</v>
       </c>
-      <c r="E25" s="35"/>
+      <c r="E25" s="35">
+        <v>3</v>
+      </c>
       <c r="F25" s="36">
         <v>1</v>
       </c>
@@ -1701,18 +1770,24 @@
       <c r="M25" s="40"/>
     </row>
     <row r="26" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="53">
-        <v>3</v>
-      </c>
-      <c r="B26" s="50" t="s">
+      <c r="A26" s="44">
+        <v>3</v>
+      </c>
+      <c r="B26" s="47" t="s">
         <v>2</v>
       </c>
       <c r="C26" s="25">
         <v>1</v>
       </c>
-      <c r="D26" s="26"/>
-      <c r="E26" s="27"/>
-      <c r="F26" s="28"/>
+      <c r="D26" s="26">
+        <v>3</v>
+      </c>
+      <c r="E26" s="27">
+        <v>3</v>
+      </c>
+      <c r="F26" s="28">
+        <v>2</v>
+      </c>
       <c r="H26" s="40"/>
       <c r="I26" s="40"/>
       <c r="J26" s="40"/>
@@ -1721,14 +1796,20 @@
       <c r="M26" s="40"/>
     </row>
     <row r="27" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A27" s="54"/>
-      <c r="B27" s="51"/>
+      <c r="A27" s="45"/>
+      <c r="B27" s="48"/>
       <c r="C27" s="29">
         <v>2</v>
       </c>
-      <c r="D27" s="30"/>
-      <c r="E27" s="31"/>
-      <c r="F27" s="32"/>
+      <c r="D27" s="30">
+        <v>3</v>
+      </c>
+      <c r="E27" s="31">
+        <v>3</v>
+      </c>
+      <c r="F27" s="32">
+        <v>2</v>
+      </c>
       <c r="H27" s="40"/>
       <c r="I27" s="40"/>
       <c r="J27" s="40"/>
@@ -1737,14 +1818,20 @@
       <c r="M27" s="40"/>
     </row>
     <row r="28" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A28" s="54"/>
-      <c r="B28" s="51"/>
+      <c r="A28" s="45"/>
+      <c r="B28" s="48"/>
       <c r="C28" s="29">
         <v>3</v>
       </c>
-      <c r="D28" s="30"/>
-      <c r="E28" s="31"/>
-      <c r="F28" s="32"/>
+      <c r="D28" s="30">
+        <v>3</v>
+      </c>
+      <c r="E28" s="31">
+        <v>3</v>
+      </c>
+      <c r="F28" s="32">
+        <v>2</v>
+      </c>
       <c r="H28" s="40"/>
       <c r="I28" s="40"/>
       <c r="J28" s="40"/>
@@ -1753,14 +1840,20 @@
       <c r="M28" s="40"/>
     </row>
     <row r="29" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A29" s="54"/>
-      <c r="B29" s="51"/>
+      <c r="A29" s="45"/>
+      <c r="B29" s="48"/>
       <c r="C29" s="29">
         <v>4</v>
       </c>
-      <c r="D29" s="30"/>
-      <c r="E29" s="31"/>
-      <c r="F29" s="32"/>
+      <c r="D29" s="30">
+        <v>3</v>
+      </c>
+      <c r="E29" s="31">
+        <v>3</v>
+      </c>
+      <c r="F29" s="32">
+        <v>2</v>
+      </c>
       <c r="H29" s="40"/>
       <c r="I29" s="40"/>
       <c r="J29" s="40"/>
@@ -1769,14 +1862,20 @@
       <c r="M29" s="40"/>
     </row>
     <row r="30" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A30" s="54"/>
-      <c r="B30" s="51"/>
+      <c r="A30" s="45"/>
+      <c r="B30" s="48"/>
       <c r="C30" s="29">
         <v>5</v>
       </c>
-      <c r="D30" s="30"/>
-      <c r="E30" s="31"/>
-      <c r="F30" s="32"/>
+      <c r="D30" s="30">
+        <v>3</v>
+      </c>
+      <c r="E30" s="31">
+        <v>3</v>
+      </c>
+      <c r="F30" s="32">
+        <v>3</v>
+      </c>
       <c r="H30" s="40"/>
       <c r="I30" s="40"/>
       <c r="J30" s="40"/>
@@ -1785,14 +1884,20 @@
       <c r="M30" s="40"/>
     </row>
     <row r="31" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A31" s="54"/>
-      <c r="B31" s="51"/>
+      <c r="A31" s="45"/>
+      <c r="B31" s="48"/>
       <c r="C31" s="29">
         <v>6</v>
       </c>
-      <c r="D31" s="30"/>
-      <c r="E31" s="31"/>
-      <c r="F31" s="32"/>
+      <c r="D31" s="30">
+        <v>3</v>
+      </c>
+      <c r="E31" s="31">
+        <v>3</v>
+      </c>
+      <c r="F31" s="32">
+        <v>2</v>
+      </c>
       <c r="H31" s="40"/>
       <c r="I31" s="40"/>
       <c r="J31" s="40"/>
@@ -1801,14 +1906,20 @@
       <c r="M31" s="40"/>
     </row>
     <row r="32" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A32" s="54"/>
-      <c r="B32" s="51"/>
+      <c r="A32" s="45"/>
+      <c r="B32" s="48"/>
       <c r="C32" s="29" t="s">
         <v>7</v>
       </c>
-      <c r="D32" s="30"/>
-      <c r="E32" s="31"/>
-      <c r="F32" s="32"/>
+      <c r="D32" s="30">
+        <v>3</v>
+      </c>
+      <c r="E32" s="31">
+        <v>2</v>
+      </c>
+      <c r="F32" s="32">
+        <v>2</v>
+      </c>
       <c r="H32" s="40"/>
       <c r="I32" s="40"/>
       <c r="J32" s="40"/>
@@ -1817,14 +1928,20 @@
       <c r="M32" s="40"/>
     </row>
     <row r="33" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A33" s="54"/>
-      <c r="B33" s="51"/>
+      <c r="A33" s="45"/>
+      <c r="B33" s="48"/>
       <c r="C33" s="29" t="s">
         <v>8</v>
       </c>
-      <c r="D33" s="30"/>
-      <c r="E33" s="31"/>
-      <c r="F33" s="32"/>
+      <c r="D33" s="30">
+        <v>3</v>
+      </c>
+      <c r="E33" s="31">
+        <v>3</v>
+      </c>
+      <c r="F33" s="32">
+        <v>1</v>
+      </c>
       <c r="H33" s="40"/>
       <c r="I33" s="40"/>
       <c r="J33" s="40"/>
@@ -1833,14 +1950,20 @@
       <c r="M33" s="40"/>
     </row>
     <row r="34" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A34" s="54"/>
-      <c r="B34" s="51"/>
+      <c r="A34" s="45"/>
+      <c r="B34" s="48"/>
       <c r="C34" s="29">
         <v>8</v>
       </c>
-      <c r="D34" s="30"/>
-      <c r="E34" s="31"/>
-      <c r="F34" s="32"/>
+      <c r="D34" s="30">
+        <v>3</v>
+      </c>
+      <c r="E34" s="31">
+        <v>3</v>
+      </c>
+      <c r="F34" s="32">
+        <v>3</v>
+      </c>
       <c r="H34" s="40"/>
       <c r="I34" s="40"/>
       <c r="J34" s="40"/>
@@ -1849,14 +1972,20 @@
       <c r="M34" s="40"/>
     </row>
     <row r="35" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A35" s="54"/>
-      <c r="B35" s="51"/>
+      <c r="A35" s="45"/>
+      <c r="B35" s="48"/>
       <c r="C35" s="29">
         <v>9</v>
       </c>
-      <c r="D35" s="30"/>
-      <c r="E35" s="31"/>
-      <c r="F35" s="32"/>
+      <c r="D35" s="30">
+        <v>3</v>
+      </c>
+      <c r="E35" s="31">
+        <v>3</v>
+      </c>
+      <c r="F35" s="32">
+        <v>2</v>
+      </c>
       <c r="H35" s="40"/>
       <c r="I35" s="40"/>
       <c r="J35" s="40"/>
@@ -1865,14 +1994,20 @@
       <c r="M35" s="40"/>
     </row>
     <row r="36" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="55"/>
-      <c r="B36" s="52"/>
+      <c r="A36" s="46"/>
+      <c r="B36" s="49"/>
       <c r="C36" s="33">
         <v>10</v>
       </c>
-      <c r="D36" s="34"/>
-      <c r="E36" s="35"/>
-      <c r="F36" s="36"/>
+      <c r="D36" s="34">
+        <v>3</v>
+      </c>
+      <c r="E36" s="35">
+        <v>3</v>
+      </c>
+      <c r="F36" s="36">
+        <v>3</v>
+      </c>
       <c r="H36" s="40"/>
       <c r="I36" s="40"/>
       <c r="J36" s="40"/>
@@ -1881,17 +2016,23 @@
       <c r="M36" s="40"/>
     </row>
     <row r="37" spans="1:13" ht="25.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="56" t="s">
+      <c r="A37" s="59" t="s">
         <v>10</v>
       </c>
-      <c r="B37" s="57"/>
-      <c r="C37" s="58"/>
+      <c r="B37" s="60"/>
+      <c r="C37" s="61"/>
       <c r="D37" s="37">
         <f>SUM(D4:D36)</f>
-        <v>27</v>
-      </c>
-      <c r="E37" s="38"/>
-      <c r="F37" s="39"/>
+        <v>98</v>
+      </c>
+      <c r="E37" s="38">
+        <f>SUM(E4:E36)</f>
+        <v>97</v>
+      </c>
+      <c r="F37" s="39">
+        <f>SUM(F4:F36)</f>
+        <v>65</v>
+      </c>
       <c r="H37" s="40"/>
       <c r="I37" s="40"/>
       <c r="J37" s="40"/>
@@ -1964,7 +2105,9 @@
       <c r="J45" s="16" t="s">
         <v>1</v>
       </c>
-      <c r="K45" s="13"/>
+      <c r="K45" s="13" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row r="46" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A46"/>
@@ -1975,7 +2118,9 @@
       <c r="J46" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="K46" s="14"/>
+      <c r="K46" s="14" t="s">
+        <v>18</v>
+      </c>
     </row>
     <row r="47" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A47"/>
@@ -1986,10 +2131,13 @@
       <c r="J47" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="K47" s="15"/>
+      <c r="K47" s="15" t="s">
+        <v>19</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="9">
+    <mergeCell ref="A37:C37"/>
     <mergeCell ref="H3:M3"/>
     <mergeCell ref="A26:A36"/>
     <mergeCell ref="B15:B25"/>
@@ -1998,10 +2146,9 @@
     <mergeCell ref="A4:A14"/>
     <mergeCell ref="B4:B14"/>
     <mergeCell ref="A15:A25"/>
-    <mergeCell ref="A37:C37"/>
   </mergeCells>
-  <conditionalFormatting sqref="D4:F36">
-    <cfRule type="colorScale" priority="46">
+  <conditionalFormatting sqref="D4:F25">
+    <cfRule type="colorScale" priority="50">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -2011,6 +2158,42 @@
         <color rgb="FF63BE7B"/>
       </colorScale>
     </cfRule>
+    <cfRule type="colorScale" priority="5">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D4:D25">
+    <cfRule type="colorScale" priority="51">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D4:F25">
+    <cfRule type="colorScale" priority="52">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D26:F36">
     <cfRule type="colorScale" priority="1">
       <colorScale>
         <cfvo type="min"/>
@@ -2021,9 +2204,7 @@
         <color rgb="FF63BE7B"/>
       </colorScale>
     </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D4:D36">
-    <cfRule type="colorScale" priority="47">
+    <cfRule type="colorScale" priority="2">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -2034,8 +2215,20 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D4:F36">
-    <cfRule type="colorScale" priority="48">
+  <conditionalFormatting sqref="D26:D36">
+    <cfRule type="colorScale" priority="3">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D26:F36">
+    <cfRule type="colorScale" priority="4">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>

--- a/Group 1 - Final Report Project/4. Bang-danh-gia-thanh-vien_Nhom-1.xlsx
+++ b/Group 1 - Final Report Project/4. Bang-danh-gia-thanh-vien_Nhom-1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Studying\2018 - 2019\HKII\Java Programming\Project\Group 1 - Final Report Project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7AFD546A-2B99-4BD9-A599-673B210B12AF}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{00152A32-D8B9-4DEC-9613-AF7F81AFDA25}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="21">
   <si>
     <t>STT</t>
   </si>
@@ -93,12 +93,15 @@
   <si>
     <t>65/99</t>
   </si>
+  <si>
+    <t>TỔNG KẾT</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="12" x14ac:knownFonts="1">
+  <fonts count="14" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -195,8 +198,22 @@
       <name val="Times New Roman"/>
       <family val="1"/>
     </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="20"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
   </fonts>
-  <fills count="10">
+  <fills count="11">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -251,6 +268,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="29">
     <border>
@@ -642,14 +665,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="62">
+  <cellXfs count="73">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -668,28 +690,16 @@
     <xf numFmtId="0" fontId="3" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="6" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="7" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="6" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -756,22 +766,57 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="13" fillId="10" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="10" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="10" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="10" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="10" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="10" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="5" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -783,31 +828,31 @@
     <xf numFmtId="0" fontId="8" fillId="5" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="3" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -817,6 +862,15 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="3" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -840,16 +894,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>3</xdr:row>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>2</xdr:row>
       <xdr:rowOff>1</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>9525</xdr:colOff>
-      <xdr:row>40</xdr:row>
-      <xdr:rowOff>28576</xdr:rowOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>600075</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>323849</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -877,8 +931,8 @@
       </xdr:blipFill>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="4686300" y="981076"/>
-          <a:ext cx="4781550" cy="7200900"/>
+          <a:off x="3448050" y="466726"/>
+          <a:ext cx="4752975" cy="7115173"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1202,953 +1256,1151 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:O47"/>
+  <dimension ref="A1:N56"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A31" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="K48" sqref="K48"/>
+      <selection activeCell="H38" sqref="H38:J43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="4.42578125" style="3" customWidth="1"/>
-    <col min="2" max="2" width="23" customWidth="1"/>
-    <col min="3" max="3" width="6.7109375" customWidth="1"/>
-    <col min="4" max="4" width="9.28515625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="9.42578125" customWidth="1"/>
+    <col min="2" max="2" width="15.140625" customWidth="1"/>
+    <col min="3" max="3" width="6.28515625" customWidth="1"/>
+    <col min="4" max="4" width="7.85546875" style="1" customWidth="1"/>
+    <col min="5" max="5" width="9.28515625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="8.5703125" customWidth="1"/>
-    <col min="7" max="7" width="5.5703125" customWidth="1"/>
-    <col min="9" max="9" width="6.28515625" customWidth="1"/>
-    <col min="10" max="10" width="23.42578125" customWidth="1"/>
-    <col min="11" max="11" width="14.42578125" customWidth="1"/>
+    <col min="8" max="8" width="6.28515625" customWidth="1"/>
+    <col min="9" max="9" width="23.42578125" customWidth="1"/>
+    <col min="10" max="10" width="14.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="50" t="s">
+    <row r="1" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="46" t="s">
         <v>15</v>
       </c>
-      <c r="B1" s="51"/>
-      <c r="C1" s="51"/>
-      <c r="D1" s="51"/>
-      <c r="E1" s="51"/>
-      <c r="F1" s="52"/>
-    </row>
-    <row r="2" spans="1:15" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="53"/>
-      <c r="B2" s="54"/>
-      <c r="C2" s="54"/>
-      <c r="D2" s="54"/>
-      <c r="E2" s="54"/>
-      <c r="F2" s="55"/>
-      <c r="H2" s="40"/>
-      <c r="I2" s="40"/>
-      <c r="J2" s="40"/>
-      <c r="K2" s="40"/>
-      <c r="L2" s="40"/>
-      <c r="M2" s="40"/>
-    </row>
-    <row r="3" spans="1:15" s="2" customFormat="1" ht="40.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="19" t="s">
+      <c r="B1" s="47"/>
+      <c r="C1" s="47"/>
+      <c r="D1" s="47"/>
+      <c r="E1" s="47"/>
+      <c r="F1" s="48"/>
+      <c r="G1" s="61" t="s">
+        <v>9</v>
+      </c>
+      <c r="H1" s="62"/>
+      <c r="I1" s="62"/>
+      <c r="J1" s="62"/>
+      <c r="K1" s="62"/>
+      <c r="L1" s="63"/>
+    </row>
+    <row r="2" spans="1:14" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="49"/>
+      <c r="B2" s="50"/>
+      <c r="C2" s="50"/>
+      <c r="D2" s="50"/>
+      <c r="E2" s="50"/>
+      <c r="F2" s="51"/>
+      <c r="G2" s="64"/>
+      <c r="H2" s="65"/>
+      <c r="I2" s="65"/>
+      <c r="J2" s="65"/>
+      <c r="K2" s="65"/>
+      <c r="L2" s="66"/>
+    </row>
+    <row r="3" spans="1:14" s="2" customFormat="1" ht="40.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="20" t="s">
+      <c r="B3" s="15" t="s">
         <v>6</v>
       </c>
-      <c r="C3" s="21" t="s">
-        <v>3</v>
-      </c>
-      <c r="D3" s="22" t="s">
+      <c r="C3" s="16" t="s">
+        <v>3</v>
+      </c>
+      <c r="D3" s="17" t="s">
         <v>4</v>
       </c>
-      <c r="E3" s="23" t="s">
+      <c r="E3" s="18" t="s">
         <v>14</v>
       </c>
-      <c r="F3" s="24" t="s">
+      <c r="F3" s="19" t="s">
         <v>5</v>
       </c>
-      <c r="H3" s="41" t="s">
+      <c r="G3" s="36"/>
+      <c r="H3" s="36"/>
+      <c r="I3" s="36"/>
+      <c r="J3" s="36"/>
+      <c r="K3" s="36"/>
+      <c r="L3" s="36"/>
+      <c r="M3" s="4"/>
+      <c r="N3" s="4"/>
+    </row>
+    <row r="4" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="52">
+        <v>1</v>
+      </c>
+      <c r="B4" s="55" t="s">
+        <v>1</v>
+      </c>
+      <c r="C4" s="20">
+        <v>1</v>
+      </c>
+      <c r="D4" s="21">
+        <v>3</v>
+      </c>
+      <c r="E4" s="22">
+        <v>3</v>
+      </c>
+      <c r="F4" s="23">
+        <v>2</v>
+      </c>
+      <c r="G4" s="35"/>
+      <c r="H4" s="35"/>
+      <c r="I4" s="35"/>
+      <c r="J4" s="35"/>
+      <c r="K4" s="35"/>
+      <c r="L4" s="35"/>
+    </row>
+    <row r="5" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="53"/>
+      <c r="B5" s="56"/>
+      <c r="C5" s="24">
+        <v>2</v>
+      </c>
+      <c r="D5" s="25">
+        <v>3</v>
+      </c>
+      <c r="E5" s="26">
+        <v>3</v>
+      </c>
+      <c r="F5" s="27">
+        <v>2</v>
+      </c>
+      <c r="G5" s="35"/>
+      <c r="H5" s="35"/>
+      <c r="I5" s="35"/>
+      <c r="J5" s="35"/>
+      <c r="K5" s="35"/>
+      <c r="L5" s="35"/>
+    </row>
+    <row r="6" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="53"/>
+      <c r="B6" s="56"/>
+      <c r="C6" s="24">
+        <v>3</v>
+      </c>
+      <c r="D6" s="25">
+        <v>3</v>
+      </c>
+      <c r="E6" s="26">
+        <v>3</v>
+      </c>
+      <c r="F6" s="27">
+        <v>2</v>
+      </c>
+      <c r="G6" s="35"/>
+      <c r="H6" s="35"/>
+      <c r="I6" s="35"/>
+      <c r="J6" s="35"/>
+      <c r="K6" s="35"/>
+      <c r="L6" s="35"/>
+    </row>
+    <row r="7" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="53"/>
+      <c r="B7" s="56"/>
+      <c r="C7" s="24">
+        <v>4</v>
+      </c>
+      <c r="D7" s="25">
+        <v>3</v>
+      </c>
+      <c r="E7" s="26">
+        <v>3</v>
+      </c>
+      <c r="F7" s="27">
+        <v>2</v>
+      </c>
+      <c r="G7" s="35"/>
+      <c r="H7" s="35"/>
+      <c r="I7" s="35"/>
+      <c r="J7" s="35"/>
+      <c r="K7" s="35"/>
+      <c r="L7" s="35"/>
+    </row>
+    <row r="8" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="53"/>
+      <c r="B8" s="56"/>
+      <c r="C8" s="24">
+        <v>5</v>
+      </c>
+      <c r="D8" s="25">
+        <v>3</v>
+      </c>
+      <c r="E8" s="26">
+        <v>3</v>
+      </c>
+      <c r="F8" s="27">
+        <v>3</v>
+      </c>
+      <c r="G8" s="35"/>
+      <c r="H8" s="35"/>
+      <c r="I8" s="35"/>
+      <c r="J8" s="35"/>
+      <c r="K8" s="35"/>
+      <c r="L8" s="35"/>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A9" s="53"/>
+      <c r="B9" s="56"/>
+      <c r="C9" s="24">
+        <v>6</v>
+      </c>
+      <c r="D9" s="25">
+        <v>3</v>
+      </c>
+      <c r="E9" s="26">
+        <v>3</v>
+      </c>
+      <c r="F9" s="27">
+        <v>2</v>
+      </c>
+      <c r="G9" s="35"/>
+      <c r="H9" s="35"/>
+      <c r="I9" s="35"/>
+      <c r="J9" s="35"/>
+      <c r="K9" s="35"/>
+      <c r="L9" s="35"/>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A10" s="53"/>
+      <c r="B10" s="56"/>
+      <c r="C10" s="24" t="s">
+        <v>7</v>
+      </c>
+      <c r="D10" s="25">
+        <v>3</v>
+      </c>
+      <c r="E10" s="26">
+        <v>3</v>
+      </c>
+      <c r="F10" s="27">
+        <v>3</v>
+      </c>
+      <c r="G10" s="35"/>
+      <c r="H10" s="35"/>
+      <c r="I10" s="35"/>
+      <c r="J10" s="35"/>
+      <c r="K10" s="35"/>
+      <c r="L10" s="35"/>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A11" s="53"/>
+      <c r="B11" s="56"/>
+      <c r="C11" s="24" t="s">
+        <v>8</v>
+      </c>
+      <c r="D11" s="25">
+        <v>2</v>
+      </c>
+      <c r="E11" s="26">
+        <v>2</v>
+      </c>
+      <c r="F11" s="27">
+        <v>2</v>
+      </c>
+      <c r="G11" s="35"/>
+      <c r="H11" s="35"/>
+      <c r="I11" s="35"/>
+      <c r="J11" s="35"/>
+      <c r="K11" s="35"/>
+      <c r="L11" s="35"/>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A12" s="53"/>
+      <c r="B12" s="56"/>
+      <c r="C12" s="24">
+        <v>8</v>
+      </c>
+      <c r="D12" s="25">
+        <v>3</v>
+      </c>
+      <c r="E12" s="26">
+        <v>3</v>
+      </c>
+      <c r="F12" s="27">
+        <v>2</v>
+      </c>
+      <c r="G12" s="35"/>
+      <c r="H12" s="35"/>
+      <c r="I12" s="35"/>
+      <c r="J12" s="35"/>
+      <c r="K12" s="35"/>
+      <c r="L12" s="35"/>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A13" s="53"/>
+      <c r="B13" s="56"/>
+      <c r="C13" s="24">
         <v>9</v>
       </c>
-      <c r="I3" s="42"/>
-      <c r="J3" s="42"/>
-      <c r="K3" s="42"/>
-      <c r="L3" s="42"/>
-      <c r="M3" s="43"/>
-      <c r="N3" s="5"/>
-      <c r="O3" s="5"/>
-    </row>
-    <row r="4" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="56">
+      <c r="D13" s="25">
+        <v>3</v>
+      </c>
+      <c r="E13" s="26">
+        <v>3</v>
+      </c>
+      <c r="F13" s="27">
+        <v>2</v>
+      </c>
+      <c r="G13" s="35"/>
+      <c r="H13" s="35"/>
+      <c r="I13" s="35"/>
+      <c r="J13" s="35"/>
+      <c r="K13" s="35"/>
+      <c r="L13" s="35"/>
+    </row>
+    <row r="14" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="54"/>
+      <c r="B14" s="57"/>
+      <c r="C14" s="28">
+        <v>10</v>
+      </c>
+      <c r="D14" s="29">
+        <v>3</v>
+      </c>
+      <c r="E14" s="30">
+        <v>3</v>
+      </c>
+      <c r="F14" s="31">
+        <v>2</v>
+      </c>
+      <c r="G14" s="35"/>
+      <c r="H14" s="35"/>
+      <c r="I14" s="35"/>
+      <c r="J14" s="35"/>
+      <c r="K14" s="35"/>
+      <c r="L14" s="35"/>
+    </row>
+    <row r="15" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="58">
+        <v>2</v>
+      </c>
+      <c r="B15" s="55" t="s">
+        <v>16</v>
+      </c>
+      <c r="C15" s="20">
         <v>1</v>
       </c>
-      <c r="B4" s="47" t="s">
+      <c r="D15" s="21">
+        <v>3</v>
+      </c>
+      <c r="E15" s="22">
+        <v>3</v>
+      </c>
+      <c r="F15" s="23">
+        <v>2</v>
+      </c>
+      <c r="G15" s="35"/>
+      <c r="H15" s="35"/>
+      <c r="I15" s="35"/>
+      <c r="J15" s="35"/>
+      <c r="K15" s="35"/>
+      <c r="L15" s="35"/>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A16" s="59"/>
+      <c r="B16" s="56"/>
+      <c r="C16" s="24">
+        <v>2</v>
+      </c>
+      <c r="D16" s="25">
+        <v>3</v>
+      </c>
+      <c r="E16" s="26">
+        <v>3</v>
+      </c>
+      <c r="F16" s="27">
+        <v>2</v>
+      </c>
+      <c r="G16" s="35"/>
+      <c r="H16" s="35"/>
+      <c r="I16" s="35"/>
+      <c r="J16" s="35"/>
+      <c r="K16" s="35"/>
+      <c r="L16" s="35"/>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A17" s="59"/>
+      <c r="B17" s="56"/>
+      <c r="C17" s="24">
+        <v>3</v>
+      </c>
+      <c r="D17" s="25">
+        <v>3</v>
+      </c>
+      <c r="E17" s="26">
+        <v>3</v>
+      </c>
+      <c r="F17" s="27">
         <v>1</v>
       </c>
-      <c r="C4" s="25">
+      <c r="G17" s="35"/>
+      <c r="H17" s="35"/>
+      <c r="I17" s="35"/>
+      <c r="J17" s="35"/>
+      <c r="K17" s="35"/>
+      <c r="L17" s="35"/>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A18" s="59"/>
+      <c r="B18" s="56"/>
+      <c r="C18" s="24">
+        <v>4</v>
+      </c>
+      <c r="D18" s="25">
+        <v>3</v>
+      </c>
+      <c r="E18" s="26">
+        <v>3</v>
+      </c>
+      <c r="F18" s="27">
         <v>1</v>
       </c>
-      <c r="D4" s="26">
-        <v>3</v>
-      </c>
-      <c r="E4" s="27">
-        <v>3</v>
-      </c>
-      <c r="F4" s="28">
-        <v>2</v>
-      </c>
-      <c r="H4" s="40"/>
-      <c r="I4" s="40"/>
-      <c r="J4" s="40"/>
-      <c r="K4" s="40"/>
-      <c r="L4" s="40"/>
-      <c r="M4" s="40"/>
-    </row>
-    <row r="5" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="57"/>
-      <c r="B5" s="48"/>
-      <c r="C5" s="29">
-        <v>2</v>
-      </c>
-      <c r="D5" s="30">
-        <v>3</v>
-      </c>
-      <c r="E5" s="31">
-        <v>3</v>
-      </c>
-      <c r="F5" s="32">
-        <v>2</v>
-      </c>
-      <c r="H5" s="40"/>
-      <c r="I5" s="40"/>
-      <c r="J5" s="40"/>
-      <c r="K5" s="40"/>
-      <c r="L5" s="40"/>
-      <c r="M5" s="40"/>
-    </row>
-    <row r="6" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="57"/>
-      <c r="B6" s="48"/>
-      <c r="C6" s="29">
-        <v>3</v>
-      </c>
-      <c r="D6" s="30">
-        <v>3</v>
-      </c>
-      <c r="E6" s="31">
-        <v>3</v>
-      </c>
-      <c r="F6" s="32">
-        <v>2</v>
-      </c>
-      <c r="G6" s="4"/>
-      <c r="H6" s="40"/>
-      <c r="I6" s="40"/>
-      <c r="J6" s="40"/>
-      <c r="K6" s="40"/>
-      <c r="L6" s="40"/>
-      <c r="M6" s="40"/>
-    </row>
-    <row r="7" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="57"/>
-      <c r="B7" s="48"/>
-      <c r="C7" s="29">
+      <c r="G18" s="35"/>
+      <c r="H18" s="35"/>
+      <c r="I18" s="35"/>
+      <c r="J18" s="35"/>
+      <c r="K18" s="35"/>
+      <c r="L18" s="35"/>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A19" s="59"/>
+      <c r="B19" s="56"/>
+      <c r="C19" s="24">
+        <v>5</v>
+      </c>
+      <c r="D19" s="25">
+        <v>3</v>
+      </c>
+      <c r="E19" s="26">
+        <v>3</v>
+      </c>
+      <c r="F19" s="27">
+        <v>1</v>
+      </c>
+      <c r="G19" s="35"/>
+      <c r="H19" s="35"/>
+      <c r="I19" s="35"/>
+      <c r="J19" s="35"/>
+      <c r="K19" s="35"/>
+      <c r="L19" s="35"/>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A20" s="59"/>
+      <c r="B20" s="56"/>
+      <c r="C20" s="24">
+        <v>6</v>
+      </c>
+      <c r="D20" s="25">
+        <v>3</v>
+      </c>
+      <c r="E20" s="26">
+        <v>3</v>
+      </c>
+      <c r="F20" s="27">
+        <v>1</v>
+      </c>
+      <c r="G20" s="35"/>
+      <c r="H20" s="35"/>
+      <c r="I20" s="35"/>
+      <c r="J20" s="35"/>
+      <c r="K20" s="35"/>
+      <c r="L20" s="35"/>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A21" s="59"/>
+      <c r="B21" s="56"/>
+      <c r="C21" s="24" t="s">
+        <v>7</v>
+      </c>
+      <c r="D21" s="25">
+        <v>3</v>
+      </c>
+      <c r="E21" s="26">
+        <v>3</v>
+      </c>
+      <c r="F21" s="27">
+        <v>3</v>
+      </c>
+      <c r="G21" s="35"/>
+      <c r="H21" s="35"/>
+      <c r="I21" s="35"/>
+      <c r="J21" s="35"/>
+      <c r="K21" s="35"/>
+      <c r="L21" s="35"/>
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A22" s="59"/>
+      <c r="B22" s="56"/>
+      <c r="C22" s="24" t="s">
+        <v>8</v>
+      </c>
+      <c r="D22" s="25">
+        <v>3</v>
+      </c>
+      <c r="E22" s="26">
+        <v>3</v>
+      </c>
+      <c r="F22" s="27">
+        <v>2</v>
+      </c>
+      <c r="G22" s="35"/>
+      <c r="H22" s="35"/>
+      <c r="I22" s="35"/>
+      <c r="J22" s="35"/>
+      <c r="K22" s="35"/>
+      <c r="L22" s="35"/>
+    </row>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A23" s="59"/>
+      <c r="B23" s="56"/>
+      <c r="C23" s="24">
+        <v>8</v>
+      </c>
+      <c r="D23" s="25">
+        <v>3</v>
+      </c>
+      <c r="E23" s="26">
+        <v>3</v>
+      </c>
+      <c r="F23" s="27">
+        <v>2</v>
+      </c>
+      <c r="G23" s="35"/>
+      <c r="H23" s="35"/>
+      <c r="I23" s="35"/>
+      <c r="J23" s="35"/>
+      <c r="K23" s="35"/>
+      <c r="L23" s="35"/>
+    </row>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A24" s="59"/>
+      <c r="B24" s="56"/>
+      <c r="C24" s="24">
+        <v>9</v>
+      </c>
+      <c r="D24" s="25">
+        <v>3</v>
+      </c>
+      <c r="E24" s="26">
+        <v>3</v>
+      </c>
+      <c r="F24" s="27">
+        <v>2</v>
+      </c>
+      <c r="G24" s="35"/>
+      <c r="H24" s="35"/>
+      <c r="I24" s="35"/>
+      <c r="J24" s="35"/>
+      <c r="K24" s="35"/>
+      <c r="L24" s="35"/>
+    </row>
+    <row r="25" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="60"/>
+      <c r="B25" s="57"/>
+      <c r="C25" s="28">
+        <v>10</v>
+      </c>
+      <c r="D25" s="29">
+        <v>3</v>
+      </c>
+      <c r="E25" s="30">
+        <v>3</v>
+      </c>
+      <c r="F25" s="31">
+        <v>2</v>
+      </c>
+      <c r="G25" s="35"/>
+      <c r="H25" s="35"/>
+      <c r="I25" s="35"/>
+      <c r="J25" s="35"/>
+      <c r="K25" s="35"/>
+      <c r="L25" s="35"/>
+    </row>
+    <row r="26" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="58">
+        <v>3</v>
+      </c>
+      <c r="B26" s="55" t="s">
+        <v>2</v>
+      </c>
+      <c r="C26" s="20">
+        <v>1</v>
+      </c>
+      <c r="D26" s="21">
+        <v>3</v>
+      </c>
+      <c r="E26" s="22">
+        <v>3</v>
+      </c>
+      <c r="F26" s="23">
+        <v>2</v>
+      </c>
+      <c r="G26" s="35"/>
+      <c r="H26" s="35"/>
+      <c r="I26" s="35"/>
+      <c r="J26" s="35"/>
+      <c r="K26" s="35"/>
+      <c r="L26" s="35"/>
+    </row>
+    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A27" s="59"/>
+      <c r="B27" s="56"/>
+      <c r="C27" s="24">
+        <v>2</v>
+      </c>
+      <c r="D27" s="25">
+        <v>3</v>
+      </c>
+      <c r="E27" s="26">
+        <v>3</v>
+      </c>
+      <c r="F27" s="27">
+        <v>2</v>
+      </c>
+      <c r="G27" s="35"/>
+      <c r="H27" s="35"/>
+      <c r="I27" s="35"/>
+      <c r="J27" s="35"/>
+      <c r="K27" s="35"/>
+      <c r="L27" s="35"/>
+    </row>
+    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A28" s="59"/>
+      <c r="B28" s="56"/>
+      <c r="C28" s="24">
+        <v>3</v>
+      </c>
+      <c r="D28" s="25">
+        <v>3</v>
+      </c>
+      <c r="E28" s="26">
+        <v>3</v>
+      </c>
+      <c r="F28" s="27">
+        <v>2</v>
+      </c>
+      <c r="G28" s="35"/>
+      <c r="H28" s="35"/>
+      <c r="I28" s="35"/>
+      <c r="J28" s="35"/>
+      <c r="K28" s="35"/>
+      <c r="L28" s="35"/>
+    </row>
+    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A29" s="59"/>
+      <c r="B29" s="56"/>
+      <c r="C29" s="24">
         <v>4</v>
       </c>
-      <c r="D7" s="30">
-        <v>3</v>
-      </c>
-      <c r="E7" s="31">
-        <v>3</v>
-      </c>
-      <c r="F7" s="32">
-        <v>2</v>
-      </c>
-      <c r="H7" s="40"/>
-      <c r="I7" s="40"/>
-      <c r="J7" s="40"/>
-      <c r="K7" s="40"/>
-      <c r="L7" s="40"/>
-      <c r="M7" s="40"/>
-    </row>
-    <row r="8" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="57"/>
-      <c r="B8" s="48"/>
-      <c r="C8" s="29">
+      <c r="D29" s="25">
+        <v>3</v>
+      </c>
+      <c r="E29" s="26">
+        <v>3</v>
+      </c>
+      <c r="F29" s="27">
+        <v>2</v>
+      </c>
+      <c r="G29" s="35"/>
+      <c r="H29" s="35"/>
+      <c r="I29" s="35"/>
+      <c r="J29" s="35"/>
+      <c r="K29" s="35"/>
+      <c r="L29" s="35"/>
+    </row>
+    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A30" s="59"/>
+      <c r="B30" s="56"/>
+      <c r="C30" s="24">
         <v>5</v>
       </c>
-      <c r="D8" s="30">
-        <v>3</v>
-      </c>
-      <c r="E8" s="31">
-        <v>3</v>
-      </c>
-      <c r="F8" s="32">
-        <v>3</v>
-      </c>
-      <c r="H8" s="40"/>
-      <c r="I8" s="40"/>
-      <c r="J8" s="40"/>
-      <c r="K8" s="40"/>
-      <c r="L8" s="40"/>
-      <c r="M8" s="40"/>
-    </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A9" s="57"/>
-      <c r="B9" s="48"/>
-      <c r="C9" s="29">
+      <c r="D30" s="25">
+        <v>3</v>
+      </c>
+      <c r="E30" s="26">
+        <v>3</v>
+      </c>
+      <c r="F30" s="27">
+        <v>3</v>
+      </c>
+      <c r="G30" s="35"/>
+      <c r="H30" s="35"/>
+      <c r="I30" s="35"/>
+      <c r="J30" s="35"/>
+      <c r="K30" s="35"/>
+      <c r="L30" s="35"/>
+    </row>
+    <row r="31" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A31" s="59"/>
+      <c r="B31" s="56"/>
+      <c r="C31" s="24">
         <v>6</v>
       </c>
-      <c r="D9" s="30">
-        <v>3</v>
-      </c>
-      <c r="E9" s="31">
-        <v>3</v>
-      </c>
-      <c r="F9" s="32">
-        <v>2</v>
-      </c>
-      <c r="H9" s="40"/>
-      <c r="I9" s="40"/>
-      <c r="J9" s="40"/>
-      <c r="K9" s="40"/>
-      <c r="L9" s="40"/>
-      <c r="M9" s="40"/>
-    </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A10" s="57"/>
-      <c r="B10" s="48"/>
-      <c r="C10" s="29" t="s">
+      <c r="D31" s="25">
+        <v>3</v>
+      </c>
+      <c r="E31" s="26">
+        <v>3</v>
+      </c>
+      <c r="F31" s="27">
+        <v>2</v>
+      </c>
+      <c r="G31" s="35"/>
+      <c r="H31" s="35"/>
+      <c r="I31" s="35"/>
+      <c r="J31" s="35"/>
+      <c r="K31" s="35"/>
+      <c r="L31" s="35"/>
+    </row>
+    <row r="32" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A32" s="59"/>
+      <c r="B32" s="56"/>
+      <c r="C32" s="24" t="s">
         <v>7</v>
       </c>
-      <c r="D10" s="30">
-        <v>3</v>
-      </c>
-      <c r="E10" s="31">
-        <v>3</v>
-      </c>
-      <c r="F10" s="32">
-        <v>3</v>
-      </c>
-      <c r="H10" s="40"/>
-      <c r="I10" s="40"/>
-      <c r="J10" s="40"/>
-      <c r="K10" s="40"/>
-      <c r="L10" s="40"/>
-      <c r="M10" s="40"/>
-    </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A11" s="57"/>
-      <c r="B11" s="48"/>
-      <c r="C11" s="29" t="s">
+      <c r="D32" s="25">
+        <v>3</v>
+      </c>
+      <c r="E32" s="26">
+        <v>2</v>
+      </c>
+      <c r="F32" s="27">
+        <v>2</v>
+      </c>
+      <c r="G32" s="35"/>
+      <c r="H32" s="35"/>
+      <c r="I32" s="35"/>
+      <c r="J32" s="35"/>
+      <c r="K32" s="35"/>
+      <c r="L32" s="35"/>
+    </row>
+    <row r="33" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A33" s="59"/>
+      <c r="B33" s="56"/>
+      <c r="C33" s="24" t="s">
         <v>8</v>
       </c>
-      <c r="D11" s="30">
-        <v>2</v>
-      </c>
-      <c r="E11" s="31">
-        <v>2</v>
-      </c>
-      <c r="F11" s="32">
-        <v>2</v>
-      </c>
-      <c r="H11" s="40"/>
-      <c r="I11" s="40"/>
-      <c r="J11" s="40"/>
-      <c r="K11" s="40"/>
-      <c r="L11" s="40"/>
-      <c r="M11" s="40"/>
-    </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A12" s="57"/>
-      <c r="B12" s="48"/>
-      <c r="C12" s="29">
+      <c r="D33" s="25">
+        <v>3</v>
+      </c>
+      <c r="E33" s="26">
+        <v>3</v>
+      </c>
+      <c r="F33" s="27">
+        <v>1</v>
+      </c>
+      <c r="G33" s="35"/>
+      <c r="H33" s="35"/>
+      <c r="I33" s="35"/>
+      <c r="J33" s="35"/>
+      <c r="K33" s="35"/>
+      <c r="L33" s="35"/>
+    </row>
+    <row r="34" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A34" s="59"/>
+      <c r="B34" s="56"/>
+      <c r="C34" s="24">
         <v>8</v>
       </c>
-      <c r="D12" s="30">
-        <v>3</v>
-      </c>
-      <c r="E12" s="31">
-        <v>3</v>
-      </c>
-      <c r="F12" s="32">
-        <v>2</v>
-      </c>
-      <c r="H12" s="40"/>
-      <c r="I12" s="40"/>
-      <c r="J12" s="40"/>
-      <c r="K12" s="40"/>
-      <c r="L12" s="40"/>
-      <c r="M12" s="40"/>
-    </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A13" s="57"/>
-      <c r="B13" s="48"/>
-      <c r="C13" s="29">
+      <c r="D34" s="25">
+        <v>3</v>
+      </c>
+      <c r="E34" s="26">
+        <v>3</v>
+      </c>
+      <c r="F34" s="27">
+        <v>3</v>
+      </c>
+      <c r="G34" s="35"/>
+      <c r="H34" s="35"/>
+      <c r="I34" s="35"/>
+      <c r="J34" s="35"/>
+      <c r="K34" s="35"/>
+      <c r="L34" s="35"/>
+    </row>
+    <row r="35" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A35" s="59"/>
+      <c r="B35" s="56"/>
+      <c r="C35" s="24">
         <v>9</v>
       </c>
-      <c r="D13" s="30">
-        <v>3</v>
-      </c>
-      <c r="E13" s="31">
-        <v>3</v>
-      </c>
-      <c r="F13" s="32">
-        <v>2</v>
-      </c>
-      <c r="H13" s="40"/>
-      <c r="I13" s="40"/>
-      <c r="J13" s="40"/>
-      <c r="K13" s="40"/>
-      <c r="L13" s="40"/>
-      <c r="M13" s="40"/>
-    </row>
-    <row r="14" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="58"/>
-      <c r="B14" s="49"/>
-      <c r="C14" s="33">
+      <c r="D35" s="25">
+        <v>3</v>
+      </c>
+      <c r="E35" s="26">
+        <v>3</v>
+      </c>
+      <c r="F35" s="27">
+        <v>2</v>
+      </c>
+      <c r="G35" s="35"/>
+      <c r="H35" s="35"/>
+      <c r="I35" s="35"/>
+      <c r="J35" s="35"/>
+      <c r="K35" s="35"/>
+      <c r="L35" s="35"/>
+    </row>
+    <row r="36" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A36" s="60"/>
+      <c r="B36" s="57"/>
+      <c r="C36" s="28">
         <v>10</v>
       </c>
-      <c r="D14" s="34">
-        <v>3</v>
-      </c>
-      <c r="E14" s="35">
-        <v>3</v>
-      </c>
-      <c r="F14" s="36">
-        <v>2</v>
-      </c>
-      <c r="H14" s="40"/>
-      <c r="I14" s="40"/>
-      <c r="J14" s="40"/>
-      <c r="K14" s="40"/>
-      <c r="L14" s="40"/>
-      <c r="M14" s="40"/>
-    </row>
-    <row r="15" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="44">
-        <v>2</v>
-      </c>
-      <c r="B15" s="47" t="s">
-        <v>16</v>
-      </c>
-      <c r="C15" s="25">
-        <v>1</v>
-      </c>
-      <c r="D15" s="26">
-        <v>3</v>
-      </c>
-      <c r="E15" s="27">
-        <v>3</v>
-      </c>
-      <c r="F15" s="28">
-        <v>2</v>
-      </c>
-      <c r="H15" s="40"/>
-      <c r="I15" s="40"/>
-      <c r="J15" s="40"/>
-      <c r="K15" s="40"/>
-      <c r="L15" s="40"/>
-      <c r="M15" s="40"/>
-    </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A16" s="45"/>
-      <c r="B16" s="48"/>
-      <c r="C16" s="29">
-        <v>2</v>
-      </c>
-      <c r="D16" s="30">
-        <v>3</v>
-      </c>
-      <c r="E16" s="31">
-        <v>3</v>
-      </c>
-      <c r="F16" s="32">
-        <v>2</v>
-      </c>
-      <c r="H16" s="40"/>
-      <c r="I16" s="40"/>
-      <c r="J16" s="40"/>
-      <c r="K16" s="40"/>
-      <c r="L16" s="40"/>
-      <c r="M16" s="40"/>
-    </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A17" s="45"/>
-      <c r="B17" s="48"/>
-      <c r="C17" s="29">
-        <v>3</v>
-      </c>
-      <c r="D17" s="30">
-        <v>3</v>
-      </c>
-      <c r="E17" s="31">
-        <v>3</v>
-      </c>
-      <c r="F17" s="32">
-        <v>1</v>
-      </c>
-      <c r="H17" s="40"/>
-      <c r="I17" s="40"/>
-      <c r="J17" s="40"/>
-      <c r="K17" s="40"/>
-      <c r="L17" s="40"/>
-      <c r="M17" s="40"/>
-    </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A18" s="45"/>
-      <c r="B18" s="48"/>
-      <c r="C18" s="29">
-        <v>4</v>
-      </c>
-      <c r="D18" s="30">
-        <v>3</v>
-      </c>
-      <c r="E18" s="31">
-        <v>3</v>
-      </c>
-      <c r="F18" s="32">
-        <v>1</v>
-      </c>
-      <c r="H18" s="40"/>
-      <c r="I18" s="40"/>
-      <c r="J18" s="40"/>
-      <c r="K18" s="40"/>
-      <c r="L18" s="40"/>
-      <c r="M18" s="40"/>
-    </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A19" s="45"/>
-      <c r="B19" s="48"/>
-      <c r="C19" s="29">
-        <v>5</v>
-      </c>
-      <c r="D19" s="30">
-        <v>3</v>
-      </c>
-      <c r="E19" s="31">
-        <v>3</v>
-      </c>
-      <c r="F19" s="32">
-        <v>1</v>
-      </c>
-      <c r="H19" s="40"/>
-      <c r="I19" s="40"/>
-      <c r="J19" s="40"/>
-      <c r="K19" s="40"/>
-      <c r="L19" s="40"/>
-      <c r="M19" s="40"/>
-    </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A20" s="45"/>
-      <c r="B20" s="48"/>
-      <c r="C20" s="29">
-        <v>6</v>
-      </c>
-      <c r="D20" s="30">
-        <v>3</v>
-      </c>
-      <c r="E20" s="31">
-        <v>3</v>
-      </c>
-      <c r="F20" s="32">
-        <v>1</v>
-      </c>
-      <c r="H20" s="40"/>
-      <c r="I20" s="40"/>
-      <c r="J20" s="40"/>
-      <c r="K20" s="40"/>
-      <c r="L20" s="40"/>
-      <c r="M20" s="40"/>
-    </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A21" s="45"/>
-      <c r="B21" s="48"/>
-      <c r="C21" s="29" t="s">
-        <v>7</v>
-      </c>
-      <c r="D21" s="30">
-        <v>3</v>
-      </c>
-      <c r="E21" s="31">
-        <v>3</v>
-      </c>
-      <c r="F21" s="32">
-        <v>3</v>
-      </c>
-      <c r="H21" s="40"/>
-      <c r="I21" s="40"/>
-      <c r="J21" s="40"/>
-      <c r="K21" s="40"/>
-      <c r="L21" s="40"/>
-      <c r="M21" s="40"/>
-    </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A22" s="45"/>
-      <c r="B22" s="48"/>
-      <c r="C22" s="29" t="s">
-        <v>8</v>
-      </c>
-      <c r="D22" s="30">
-        <v>3</v>
-      </c>
-      <c r="E22" s="31">
-        <v>3</v>
-      </c>
-      <c r="F22" s="32">
-        <v>2</v>
-      </c>
-      <c r="H22" s="40"/>
-      <c r="I22" s="40"/>
-      <c r="J22" s="40"/>
-      <c r="K22" s="40"/>
-      <c r="L22" s="40"/>
-      <c r="M22" s="40"/>
-    </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A23" s="45"/>
-      <c r="B23" s="48"/>
-      <c r="C23" s="29">
-        <v>8</v>
-      </c>
-      <c r="D23" s="30">
-        <v>3</v>
-      </c>
-      <c r="E23" s="31">
-        <v>3</v>
-      </c>
-      <c r="F23" s="32">
-        <v>2</v>
-      </c>
-      <c r="H23" s="40"/>
-      <c r="I23" s="40"/>
-      <c r="J23" s="40"/>
-      <c r="K23" s="40"/>
-      <c r="L23" s="40"/>
-      <c r="M23" s="40"/>
-    </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A24" s="45"/>
-      <c r="B24" s="48"/>
-      <c r="C24" s="29">
-        <v>9</v>
-      </c>
-      <c r="D24" s="30">
-        <v>3</v>
-      </c>
-      <c r="E24" s="31">
-        <v>3</v>
-      </c>
-      <c r="F24" s="32">
-        <v>1</v>
-      </c>
-      <c r="H24" s="40"/>
-      <c r="I24" s="40"/>
-      <c r="J24" s="40"/>
-      <c r="K24" s="40"/>
-      <c r="L24" s="40"/>
-      <c r="M24" s="40"/>
-    </row>
-    <row r="25" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="46"/>
-      <c r="B25" s="49"/>
-      <c r="C25" s="33">
+      <c r="D36" s="29">
+        <v>3</v>
+      </c>
+      <c r="E36" s="30">
+        <v>3</v>
+      </c>
+      <c r="F36" s="31">
+        <v>3</v>
+      </c>
+      <c r="G36" s="35"/>
+      <c r="H36" s="35"/>
+      <c r="I36" s="35"/>
+      <c r="J36" s="35"/>
+      <c r="K36" s="35"/>
+      <c r="L36" s="35"/>
+    </row>
+    <row r="37" spans="1:13" ht="25.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A37" s="67" t="s">
         <v>10</v>
       </c>
-      <c r="D25" s="34">
-        <v>3</v>
-      </c>
-      <c r="E25" s="35">
-        <v>3</v>
-      </c>
-      <c r="F25" s="36">
-        <v>1</v>
-      </c>
-      <c r="H25" s="40"/>
-      <c r="I25" s="40"/>
-      <c r="J25" s="40"/>
-      <c r="K25" s="40"/>
-      <c r="L25" s="40"/>
-      <c r="M25" s="40"/>
-    </row>
-    <row r="26" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="44">
-        <v>3</v>
-      </c>
-      <c r="B26" s="47" t="s">
-        <v>2</v>
-      </c>
-      <c r="C26" s="25">
-        <v>1</v>
-      </c>
-      <c r="D26" s="26">
-        <v>3</v>
-      </c>
-      <c r="E26" s="27">
-        <v>3</v>
-      </c>
-      <c r="F26" s="28">
-        <v>2</v>
-      </c>
-      <c r="H26" s="40"/>
-      <c r="I26" s="40"/>
-      <c r="J26" s="40"/>
-      <c r="K26" s="40"/>
-      <c r="L26" s="40"/>
-      <c r="M26" s="40"/>
-    </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A27" s="45"/>
-      <c r="B27" s="48"/>
-      <c r="C27" s="29">
-        <v>2</v>
-      </c>
-      <c r="D27" s="30">
-        <v>3</v>
-      </c>
-      <c r="E27" s="31">
-        <v>3</v>
-      </c>
-      <c r="F27" s="32">
-        <v>2</v>
-      </c>
-      <c r="H27" s="40"/>
-      <c r="I27" s="40"/>
-      <c r="J27" s="40"/>
-      <c r="K27" s="40"/>
-      <c r="L27" s="40"/>
-      <c r="M27" s="40"/>
-    </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A28" s="45"/>
-      <c r="B28" s="48"/>
-      <c r="C28" s="29">
-        <v>3</v>
-      </c>
-      <c r="D28" s="30">
-        <v>3</v>
-      </c>
-      <c r="E28" s="31">
-        <v>3</v>
-      </c>
-      <c r="F28" s="32">
-        <v>2</v>
-      </c>
-      <c r="H28" s="40"/>
-      <c r="I28" s="40"/>
-      <c r="J28" s="40"/>
-      <c r="K28" s="40"/>
-      <c r="L28" s="40"/>
-      <c r="M28" s="40"/>
-    </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A29" s="45"/>
-      <c r="B29" s="48"/>
-      <c r="C29" s="29">
-        <v>4</v>
-      </c>
-      <c r="D29" s="30">
-        <v>3</v>
-      </c>
-      <c r="E29" s="31">
-        <v>3</v>
-      </c>
-      <c r="F29" s="32">
-        <v>2</v>
-      </c>
-      <c r="H29" s="40"/>
-      <c r="I29" s="40"/>
-      <c r="J29" s="40"/>
-      <c r="K29" s="40"/>
-      <c r="L29" s="40"/>
-      <c r="M29" s="40"/>
-    </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A30" s="45"/>
-      <c r="B30" s="48"/>
-      <c r="C30" s="29">
-        <v>5</v>
-      </c>
-      <c r="D30" s="30">
-        <v>3</v>
-      </c>
-      <c r="E30" s="31">
-        <v>3</v>
-      </c>
-      <c r="F30" s="32">
-        <v>3</v>
-      </c>
-      <c r="H30" s="40"/>
-      <c r="I30" s="40"/>
-      <c r="J30" s="40"/>
-      <c r="K30" s="40"/>
-      <c r="L30" s="40"/>
-      <c r="M30" s="40"/>
-    </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A31" s="45"/>
-      <c r="B31" s="48"/>
-      <c r="C31" s="29">
-        <v>6</v>
-      </c>
-      <c r="D31" s="30">
-        <v>3</v>
-      </c>
-      <c r="E31" s="31">
-        <v>3</v>
-      </c>
-      <c r="F31" s="32">
-        <v>2</v>
-      </c>
-      <c r="H31" s="40"/>
-      <c r="I31" s="40"/>
-      <c r="J31" s="40"/>
-      <c r="K31" s="40"/>
-      <c r="L31" s="40"/>
-      <c r="M31" s="40"/>
-    </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A32" s="45"/>
-      <c r="B32" s="48"/>
-      <c r="C32" s="29" t="s">
-        <v>7</v>
-      </c>
-      <c r="D32" s="30">
-        <v>3</v>
-      </c>
-      <c r="E32" s="31">
-        <v>2</v>
-      </c>
-      <c r="F32" s="32">
-        <v>2</v>
-      </c>
-      <c r="H32" s="40"/>
-      <c r="I32" s="40"/>
-      <c r="J32" s="40"/>
-      <c r="K32" s="40"/>
-      <c r="L32" s="40"/>
-      <c r="M32" s="40"/>
-    </row>
-    <row r="33" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A33" s="45"/>
-      <c r="B33" s="48"/>
-      <c r="C33" s="29" t="s">
-        <v>8</v>
-      </c>
-      <c r="D33" s="30">
-        <v>3</v>
-      </c>
-      <c r="E33" s="31">
-        <v>3</v>
-      </c>
-      <c r="F33" s="32">
-        <v>1</v>
-      </c>
-      <c r="H33" s="40"/>
-      <c r="I33" s="40"/>
-      <c r="J33" s="40"/>
-      <c r="K33" s="40"/>
-      <c r="L33" s="40"/>
-      <c r="M33" s="40"/>
-    </row>
-    <row r="34" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A34" s="45"/>
-      <c r="B34" s="48"/>
-      <c r="C34" s="29">
-        <v>8</v>
-      </c>
-      <c r="D34" s="30">
-        <v>3</v>
-      </c>
-      <c r="E34" s="31">
-        <v>3</v>
-      </c>
-      <c r="F34" s="32">
-        <v>3</v>
-      </c>
-      <c r="H34" s="40"/>
-      <c r="I34" s="40"/>
-      <c r="J34" s="40"/>
-      <c r="K34" s="40"/>
-      <c r="L34" s="40"/>
-      <c r="M34" s="40"/>
-    </row>
-    <row r="35" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A35" s="45"/>
-      <c r="B35" s="48"/>
-      <c r="C35" s="29">
-        <v>9</v>
-      </c>
-      <c r="D35" s="30">
-        <v>3</v>
-      </c>
-      <c r="E35" s="31">
-        <v>3</v>
-      </c>
-      <c r="F35" s="32">
-        <v>2</v>
-      </c>
-      <c r="H35" s="40"/>
-      <c r="I35" s="40"/>
-      <c r="J35" s="40"/>
-      <c r="K35" s="40"/>
-      <c r="L35" s="40"/>
-      <c r="M35" s="40"/>
-    </row>
-    <row r="36" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="46"/>
-      <c r="B36" s="49"/>
-      <c r="C36" s="33">
-        <v>10</v>
-      </c>
-      <c r="D36" s="34">
-        <v>3</v>
-      </c>
-      <c r="E36" s="35">
-        <v>3</v>
-      </c>
-      <c r="F36" s="36">
-        <v>3</v>
-      </c>
-      <c r="H36" s="40"/>
-      <c r="I36" s="40"/>
-      <c r="J36" s="40"/>
-      <c r="K36" s="40"/>
-      <c r="L36" s="40"/>
-      <c r="M36" s="40"/>
-    </row>
-    <row r="37" spans="1:13" ht="25.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="59" t="s">
-        <v>10</v>
-      </c>
-      <c r="B37" s="60"/>
-      <c r="C37" s="61"/>
-      <c r="D37" s="37">
+      <c r="B37" s="68"/>
+      <c r="C37" s="69"/>
+      <c r="D37" s="32">
         <f>SUM(D4:D36)</f>
         <v>98</v>
       </c>
-      <c r="E37" s="38">
+      <c r="E37" s="33">
         <f>SUM(E4:E36)</f>
         <v>97</v>
       </c>
-      <c r="F37" s="39">
+      <c r="F37" s="34">
         <f>SUM(F4:F36)</f>
-        <v>65</v>
-      </c>
-      <c r="H37" s="40"/>
-      <c r="I37" s="40"/>
-      <c r="J37" s="40"/>
-      <c r="K37" s="40"/>
-      <c r="L37" s="40"/>
-      <c r="M37" s="40"/>
+        <v>67</v>
+      </c>
+      <c r="G37" s="35"/>
+      <c r="H37" s="35"/>
+      <c r="I37" s="35"/>
+      <c r="J37" s="35"/>
+      <c r="K37" s="35"/>
+      <c r="L37" s="35"/>
     </row>
     <row r="38" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A38"/>
-      <c r="D38"/>
-      <c r="H38" s="40"/>
-      <c r="I38" s="40"/>
-      <c r="J38" s="40"/>
-      <c r="K38" s="40"/>
-      <c r="L38" s="40"/>
-      <c r="M38" s="40"/>
-    </row>
-    <row r="39" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A39"/>
-      <c r="H39" s="40"/>
-      <c r="I39" s="40"/>
-      <c r="J39" s="40"/>
-      <c r="K39" s="40"/>
-      <c r="L39" s="40"/>
-      <c r="M39" s="40"/>
-    </row>
-    <row r="40" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A40"/>
-      <c r="F40" s="18"/>
-      <c r="H40" s="40"/>
-      <c r="I40" s="40"/>
-      <c r="J40" s="40"/>
-      <c r="K40" s="40"/>
-      <c r="L40" s="40"/>
-      <c r="M40" s="40"/>
-    </row>
-    <row r="41" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A41"/>
-      <c r="H41" s="40"/>
-      <c r="I41" s="40"/>
-      <c r="J41" s="40"/>
-      <c r="K41" s="40"/>
-      <c r="L41" s="40"/>
-      <c r="M41" s="40"/>
-    </row>
-    <row r="42" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A42"/>
-    </row>
-    <row r="43" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A43"/>
-    </row>
-    <row r="44" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A44"/>
-      <c r="I44" s="6" t="s">
+      <c r="A38" s="35"/>
+      <c r="B38" s="35"/>
+      <c r="C38" s="35"/>
+      <c r="D38" s="35"/>
+      <c r="E38" s="35"/>
+      <c r="F38" s="35"/>
+      <c r="G38" s="35"/>
+      <c r="H38" s="40" t="s">
+        <v>20</v>
+      </c>
+      <c r="I38" s="41"/>
+      <c r="J38" s="42"/>
+      <c r="K38" s="35"/>
+      <c r="L38" s="35"/>
+    </row>
+    <row r="39" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A39" s="35"/>
+      <c r="B39" s="35"/>
+      <c r="C39" s="35"/>
+      <c r="D39" s="37"/>
+      <c r="E39" s="35"/>
+      <c r="F39" s="35"/>
+      <c r="G39" s="35"/>
+      <c r="H39" s="43"/>
+      <c r="I39" s="44"/>
+      <c r="J39" s="45"/>
+      <c r="K39" s="35"/>
+      <c r="L39" s="35"/>
+    </row>
+    <row r="40" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A40" s="35"/>
+      <c r="B40" s="35"/>
+      <c r="C40" s="35"/>
+      <c r="D40" s="37"/>
+      <c r="E40" s="35"/>
+      <c r="F40" s="38"/>
+      <c r="G40" s="35"/>
+      <c r="H40" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="J44" s="7" t="s">
+      <c r="I40" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="K44" s="8" t="s">
+      <c r="J40" s="7" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="45" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A45"/>
-      <c r="D45"/>
-      <c r="I45" s="17">
+      <c r="K40" s="35"/>
+      <c r="L40" s="35"/>
+    </row>
+    <row r="41" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A41" s="35"/>
+      <c r="B41" s="35"/>
+      <c r="C41" s="35"/>
+      <c r="D41" s="37"/>
+      <c r="E41" s="35"/>
+      <c r="F41" s="35"/>
+      <c r="G41" s="35"/>
+      <c r="H41" s="13">
         <v>1</v>
       </c>
-      <c r="J45" s="16" t="s">
+      <c r="I41" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="K45" s="13" t="s">
+      <c r="J41" s="10" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="46" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A46"/>
-      <c r="D46"/>
-      <c r="I46" s="9">
-        <v>2</v>
-      </c>
-      <c r="J46" s="10" t="s">
+      <c r="K41" s="35"/>
+      <c r="L41" s="35"/>
+    </row>
+    <row r="42" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A42" s="35"/>
+      <c r="B42" s="35"/>
+      <c r="C42" s="35"/>
+      <c r="D42" s="37"/>
+      <c r="E42" s="35"/>
+      <c r="F42" s="35"/>
+      <c r="G42" s="35"/>
+      <c r="H42" s="8">
+        <v>2</v>
+      </c>
+      <c r="I42" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="K46" s="14" t="s">
+      <c r="J42" s="11" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="47" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A47"/>
-      <c r="D47"/>
-      <c r="I47" s="11">
-        <v>3</v>
-      </c>
-      <c r="J47" s="12" t="s">
-        <v>2</v>
-      </c>
-      <c r="K47" s="15" t="s">
+      <c r="K42" s="35"/>
+      <c r="L42" s="35"/>
+    </row>
+    <row r="43" spans="1:13" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A43" s="35"/>
+      <c r="B43" s="35"/>
+      <c r="C43" s="35"/>
+      <c r="D43" s="37"/>
+      <c r="E43" s="35"/>
+      <c r="F43" s="35"/>
+      <c r="G43" s="35"/>
+      <c r="H43" s="70">
+        <v>3</v>
+      </c>
+      <c r="I43" s="71" t="s">
+        <v>2</v>
+      </c>
+      <c r="J43" s="72" t="s">
         <v>19</v>
       </c>
+      <c r="K43" s="35"/>
+      <c r="L43" s="35"/>
+    </row>
+    <row r="44" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A44" s="35"/>
+      <c r="B44" s="35"/>
+      <c r="C44" s="35"/>
+      <c r="D44" s="37"/>
+      <c r="E44" s="35"/>
+      <c r="F44" s="35"/>
+      <c r="G44" s="35"/>
+      <c r="H44" s="35"/>
+      <c r="I44" s="35"/>
+      <c r="J44" s="35"/>
+      <c r="K44" s="35"/>
+      <c r="L44" s="35"/>
+      <c r="M44" s="35"/>
+    </row>
+    <row r="45" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A45" s="35"/>
+      <c r="B45" s="35"/>
+      <c r="C45" s="35"/>
+      <c r="D45" s="35"/>
+      <c r="E45" s="35"/>
+      <c r="F45" s="35"/>
+      <c r="G45" s="35"/>
+      <c r="H45" s="35"/>
+      <c r="I45" s="35"/>
+      <c r="J45" s="35"/>
+      <c r="K45" s="35"/>
+      <c r="L45" s="35"/>
+      <c r="M45" s="35"/>
+    </row>
+    <row r="46" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A46" s="35"/>
+      <c r="B46" s="35"/>
+      <c r="C46" s="35"/>
+      <c r="D46" s="35"/>
+      <c r="E46" s="35"/>
+      <c r="F46" s="35"/>
+      <c r="G46" s="35"/>
+      <c r="H46" s="35"/>
+      <c r="I46" s="35"/>
+      <c r="J46" s="35"/>
+      <c r="K46" s="35"/>
+      <c r="L46" s="35"/>
+      <c r="M46" s="35"/>
+    </row>
+    <row r="47" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A47" s="35"/>
+      <c r="B47" s="35"/>
+      <c r="C47" s="35"/>
+      <c r="D47" s="35"/>
+      <c r="E47" s="35"/>
+      <c r="F47" s="35"/>
+      <c r="G47" s="35"/>
+      <c r="H47" s="35"/>
+      <c r="I47" s="35"/>
+      <c r="J47" s="35"/>
+      <c r="K47" s="35"/>
+      <c r="L47" s="35"/>
+      <c r="M47" s="35"/>
+    </row>
+    <row r="48" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A48" s="39"/>
+      <c r="B48" s="35"/>
+      <c r="C48" s="35"/>
+      <c r="D48" s="37"/>
+      <c r="E48" s="35"/>
+      <c r="F48" s="35"/>
+      <c r="G48" s="35"/>
+      <c r="H48" s="35"/>
+      <c r="I48" s="35"/>
+      <c r="J48" s="35"/>
+      <c r="K48" s="35"/>
+      <c r="L48" s="35"/>
+      <c r="M48" s="35"/>
+    </row>
+    <row r="49" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A49" s="39"/>
+      <c r="B49" s="35"/>
+      <c r="C49" s="35"/>
+      <c r="D49" s="37"/>
+      <c r="E49" s="35"/>
+      <c r="F49" s="35"/>
+      <c r="G49" s="35"/>
+      <c r="H49" s="35"/>
+      <c r="I49" s="35"/>
+      <c r="J49" s="35"/>
+      <c r="K49" s="35"/>
+      <c r="L49" s="35"/>
+      <c r="M49" s="35"/>
+    </row>
+    <row r="50" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A50" s="39"/>
+      <c r="B50" s="35"/>
+      <c r="C50" s="35"/>
+      <c r="D50" s="37"/>
+      <c r="E50" s="35"/>
+      <c r="F50" s="35"/>
+      <c r="G50" s="35"/>
+      <c r="H50" s="35"/>
+      <c r="I50" s="35"/>
+      <c r="J50" s="35"/>
+      <c r="K50" s="35"/>
+      <c r="L50" s="35"/>
+      <c r="M50" s="35"/>
+    </row>
+    <row r="51" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A51" s="39"/>
+      <c r="B51" s="35"/>
+      <c r="C51" s="35"/>
+      <c r="D51" s="37"/>
+      <c r="E51" s="35"/>
+      <c r="F51" s="35"/>
+      <c r="G51" s="35"/>
+      <c r="H51" s="35"/>
+      <c r="I51" s="35"/>
+      <c r="J51" s="35"/>
+      <c r="K51" s="35"/>
+      <c r="L51" s="35"/>
+      <c r="M51" s="35"/>
+    </row>
+    <row r="52" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A52" s="39"/>
+      <c r="B52" s="35"/>
+      <c r="C52" s="35"/>
+      <c r="D52" s="37"/>
+      <c r="E52" s="35"/>
+      <c r="F52" s="35"/>
+      <c r="G52" s="35"/>
+      <c r="H52" s="35"/>
+      <c r="I52" s="35"/>
+      <c r="J52" s="35"/>
+      <c r="K52" s="35"/>
+      <c r="L52" s="35"/>
+      <c r="M52" s="35"/>
+    </row>
+    <row r="53" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A53" s="39"/>
+      <c r="B53" s="35"/>
+      <c r="C53" s="35"/>
+      <c r="D53" s="37"/>
+      <c r="E53" s="35"/>
+      <c r="F53" s="35"/>
+      <c r="G53" s="35"/>
+      <c r="H53" s="35"/>
+      <c r="I53" s="35"/>
+      <c r="J53" s="35"/>
+      <c r="K53" s="35"/>
+      <c r="L53" s="35"/>
+      <c r="M53" s="35"/>
+    </row>
+    <row r="54" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A54" s="39"/>
+      <c r="B54" s="35"/>
+      <c r="C54" s="35"/>
+      <c r="D54" s="37"/>
+      <c r="E54" s="35"/>
+      <c r="F54" s="35"/>
+      <c r="G54" s="35"/>
+      <c r="H54" s="35"/>
+      <c r="I54" s="35"/>
+      <c r="J54" s="35"/>
+      <c r="K54" s="35"/>
+      <c r="L54" s="35"/>
+      <c r="M54" s="35"/>
+    </row>
+    <row r="55" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="H55" s="35"/>
+      <c r="I55" s="35"/>
+      <c r="J55" s="35"/>
+      <c r="K55" s="35"/>
+      <c r="L55" s="35"/>
+      <c r="M55" s="35"/>
+    </row>
+    <row r="56" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="K56" s="35"/>
+      <c r="L56" s="35"/>
+      <c r="M56" s="35"/>
     </row>
   </sheetData>
-  <mergeCells count="9">
-    <mergeCell ref="A37:C37"/>
-    <mergeCell ref="H3:M3"/>
-    <mergeCell ref="A26:A36"/>
-    <mergeCell ref="B15:B25"/>
-    <mergeCell ref="B26:B36"/>
+  <mergeCells count="10">
+    <mergeCell ref="H38:J39"/>
     <mergeCell ref="A1:F2"/>
     <mergeCell ref="A4:A14"/>
     <mergeCell ref="B4:B14"/>
     <mergeCell ref="A15:A25"/>
+    <mergeCell ref="G1:L2"/>
+    <mergeCell ref="A37:C37"/>
+    <mergeCell ref="A26:A36"/>
+    <mergeCell ref="B15:B25"/>
+    <mergeCell ref="B26:B36"/>
   </mergeCells>
   <conditionalFormatting sqref="D4:F25">
-    <cfRule type="colorScale" priority="50">
+    <cfRule type="colorScale" priority="5">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -2158,7 +2410,7 @@
         <color rgb="FF63BE7B"/>
       </colorScale>
     </cfRule>
-    <cfRule type="colorScale" priority="5">
+    <cfRule type="colorScale" priority="50">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -2240,7 +2492,7 @@
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="8" orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
 </file>